--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6370B-FAD6-4EF4-BEB6-63D904D1168E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7733FB66-D1F3-40F5-AFBA-E8DA506C4E1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="693">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -234,10 +234,6 @@
     <t>zhaojm@ccu.edu.cn</t>
   </si>
   <si>
-    <t>support@beian.gov.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>glxy@ccu.edu.cn</t>
   </si>
   <si>
@@ -2191,6 +2187,60 @@
   </si>
   <si>
     <t>jlsdtsg@163.com</t>
+  </si>
+  <si>
+    <t>zccgl@ccit.edu.cn</t>
+  </si>
+  <si>
+    <t>30116085@qq.com</t>
+  </si>
+  <si>
+    <t>gxjs2019@163.com</t>
+  </si>
+  <si>
+    <t>ccitxyzh@163.com</t>
+  </si>
+  <si>
+    <t>ccitxcb@126.com</t>
+  </si>
+  <si>
+    <t>xcl@jlufe.edu.cn</t>
+  </si>
+  <si>
+    <t>kjxyzszx@jlufe.edu.cn</t>
+  </si>
+  <si>
+    <t>zzjs@msn.com</t>
+  </si>
+  <si>
+    <t>jlmcxb@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>jlmuxb@jlmu.cn</t>
+  </si>
+  <si>
+    <t>iyijiuye@163.com</t>
+  </si>
+  <si>
+    <t>jlyyxytsg@sina.com</t>
+  </si>
+  <si>
+    <t>631878202@qq.com</t>
+  </si>
+  <si>
+    <t>hejiajun50208@163.com</t>
+  </si>
+  <si>
+    <t>powerbyhuzhilongabc@126.com</t>
+  </si>
+  <si>
+    <t>38366629@qq.com</t>
+  </si>
+  <si>
+    <t>erere3r@163.com</t>
+  </si>
+  <si>
+    <t>jy@jllib.com</t>
   </si>
 </sst>
 </file>
@@ -2629,10 +2679,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2655,22 +2705,22 @@
         <v>42</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,22 +2731,22 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2707,22 +2757,22 @@
         <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2733,22 +2783,22 @@
         <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2759,22 +2809,22 @@
         <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2785,17 +2835,17 @@
         <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -2807,17 +2857,17 @@
         <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -2829,17 +2879,17 @@
         <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -2851,17 +2901,17 @@
         <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -2873,17 +2923,17 @@
         <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -2895,17 +2945,17 @@
         <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -2917,17 +2967,17 @@
         <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -2939,17 +2989,17 @@
         <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -2961,17 +3011,17 @@
         <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -2983,17 +3033,17 @@
         <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3005,17 +3055,17 @@
         <v>57</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3027,17 +3077,17 @@
         <v>58</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -3049,17 +3099,17 @@
         <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -3071,17 +3121,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -3094,14 +3144,14 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -3109,19 +3159,19 @@
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -3129,19 +3179,19 @@
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -3149,19 +3199,19 @@
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -3174,14 +3224,14 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="9"/>
     </row>
@@ -3194,14 +3244,14 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" s="9"/>
     </row>
@@ -3216,10 +3266,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -3234,10 +3284,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="9"/>
     </row>
@@ -3245,17 +3295,17 @@
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="9"/>
     </row>
@@ -3270,10 +3320,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29" s="9"/>
     </row>
@@ -3288,10 +3338,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" s="9"/>
     </row>
@@ -3299,17 +3349,17 @@
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -3317,17 +3367,17 @@
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="9"/>
     </row>
@@ -3342,10 +3392,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -3353,17 +3403,17 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -3378,10 +3428,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -3396,28 +3446,25 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H37" s="9"/>
     </row>
@@ -3429,10 +3476,10 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" s="9"/>
     </row>
@@ -3444,10 +3491,10 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H39" s="9"/>
     </row>
@@ -3459,10 +3506,10 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H40" s="9"/>
     </row>
@@ -3474,10 +3521,10 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H41" s="9"/>
     </row>
@@ -3489,10 +3536,10 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H42" s="9"/>
     </row>
@@ -3502,10 +3549,10 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H43" s="9"/>
     </row>
@@ -3515,10 +3562,10 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -3528,10 +3575,10 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H45" s="9"/>
     </row>
@@ -3541,10 +3588,10 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H46" s="9"/>
     </row>
@@ -3554,10 +3601,10 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H47" s="9"/>
     </row>
@@ -3567,10 +3614,10 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48" s="9"/>
     </row>
@@ -3580,10 +3627,10 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49" s="9"/>
     </row>
@@ -3593,10 +3640,10 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H50" s="9"/>
     </row>
@@ -3606,10 +3653,10 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H51" s="9"/>
     </row>
@@ -3619,10 +3666,10 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H52" s="9"/>
     </row>
@@ -3632,10 +3679,10 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H53" s="9"/>
     </row>
@@ -3645,10 +3692,10 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H54" s="9"/>
     </row>
@@ -3658,10 +3705,10 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H55" s="9"/>
     </row>
@@ -3671,10 +3718,10 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -3685,7 +3732,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H57" s="9"/>
     </row>
@@ -3696,7 +3743,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H58" s="9"/>
     </row>
@@ -3707,7 +3754,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H59" s="9"/>
     </row>
@@ -3718,7 +3765,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H60" s="9"/>
     </row>
@@ -3729,7 +3776,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H61" s="9"/>
     </row>
@@ -3740,7 +3787,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H62" s="9"/>
     </row>
@@ -3778,1406 +3825,1406 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J12" t="s">
+        <v>514</v>
+      </c>
+      <c r="K12" t="s">
         <v>515</v>
-      </c>
-      <c r="K12" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I46" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I56" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -5199,11 +5246,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C1F511-334D-4E12-A233-F7746BD06617}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5211,126 +5258,184 @@
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>646</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C4" t="s">
-        <v>664</v>
+        <v>663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>664</v>
+      </c>
+      <c r="D5" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C7" t="s">
         <v>673</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B8" t="s">
         <v>654</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" t="s">
         <v>655</v>
       </c>
-      <c r="C8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B10" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B11" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>659</v>
+      <c r="D12" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="D13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7733FB66-D1F3-40F5-AFBA-E8DA506C4E1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8EEB2-A9E0-4510-BD5C-FA65A7C8609F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="j1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="h1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="935">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -2241,6 +2242,754 @@
   </si>
   <si>
     <t>jy@jllib.com</t>
+  </si>
+  <si>
+    <t>service@calis.edu.cn</t>
+  </si>
+  <si>
+    <t>zx.jlnu@163.com</t>
+  </si>
+  <si>
+    <t>zlzx@ccit.edu.cn</t>
+  </si>
+  <si>
+    <t>rcees@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>liucui1@ccit.edu.cn</t>
+  </si>
+  <si>
+    <t>ctujijian@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hijianjiaoxue@163.com</t>
+  </si>
+  <si>
+    <t>shijianjiaoxue@163.com</t>
+  </si>
+  <si>
+    <t>xdbmtds2018@126.com</t>
+  </si>
+  <si>
+    <t>923928208@qq.com</t>
+  </si>
+  <si>
+    <t>154559077@qq.com</t>
+  </si>
+  <si>
+    <t>28249248@qq.com</t>
+  </si>
+  <si>
+    <t>3354304935@qq.com</t>
+  </si>
+  <si>
+    <t>3361743303@qq.com</t>
+  </si>
+  <si>
+    <t>349607164@qq.com</t>
+  </si>
+  <si>
+    <t>361743303@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406368237@qq.com</t>
+  </si>
+  <si>
+    <t>4586665@qq.com</t>
+  </si>
+  <si>
+    <t>580412675@qq.com</t>
+  </si>
+  <si>
+    <t>813361743303@qq.com</t>
+  </si>
+  <si>
+    <t>85077065@qq.com</t>
+  </si>
+  <si>
+    <t>878070554@qq.com</t>
+  </si>
+  <si>
+    <t>b13349607164@qq.com</t>
+  </si>
+  <si>
+    <t>bj_xdf-jszp@xdf.cn</t>
+  </si>
+  <si>
+    <t>cissychan@vommatec.com</t>
+  </si>
+  <si>
+    <t>dqyrsc@163.com</t>
+  </si>
+  <si>
+    <t>haopin@guangri.com.cn</t>
+  </si>
+  <si>
+    <t>haopin@zkfh.com</t>
+  </si>
+  <si>
+    <t>henping05@counrygarden.com.cn</t>
+  </si>
+  <si>
+    <t>hhr2016@126.com</t>
+  </si>
+  <si>
+    <t>hr@shanghairanking.com</t>
+  </si>
+  <si>
+    <t>hr@swmu.edu.cn</t>
+  </si>
+  <si>
+    <t>hszyzp@126.com</t>
+  </si>
+  <si>
+    <t>longlan.huang@xm-plus.com</t>
+  </si>
+  <si>
+    <t>ning1.li@cnlaunch.com</t>
+  </si>
+  <si>
+    <t>r01@moduletek.com</t>
+  </si>
+  <si>
+    <t>rlzy422@163.com</t>
+  </si>
+  <si>
+    <t>rscqz@126.com</t>
+  </si>
+  <si>
+    <t>xiaozhao@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>xxyzp@wxpoly.cn</t>
+  </si>
+  <si>
+    <t>ybsycw2013@qq.com</t>
+  </si>
+  <si>
+    <t>zhaopin@ccpd.com.cn</t>
+  </si>
+  <si>
+    <t>zhongyanxy@qq.com</t>
+  </si>
+  <si>
+    <t>zybsycw2013@qq.com</t>
+  </si>
+  <si>
+    <t>gxrc10@miitec.org.cn</t>
+  </si>
+  <si>
+    <t>15113930@qq.com</t>
+  </si>
+  <si>
+    <t>b115113930@qq.com</t>
+  </si>
+  <si>
+    <t>linyukun@mail.sysu.edu.cn</t>
+  </si>
+  <si>
+    <t>wanghongyu@jlmu.cn</t>
+  </si>
+  <si>
+    <t>zhoujm@mail.sysu.edu.cn</t>
+  </si>
+  <si>
+    <t>dangjianzazhi@vip.sina.com</t>
+  </si>
+  <si>
+    <t>djfxb@vip.sina.com</t>
+  </si>
+  <si>
+    <t>284346703@qq.com</t>
+  </si>
+  <si>
+    <t>jlmukjc@126.com</t>
+  </si>
+  <si>
+    <t>吉林科技厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net@gmw.cn</t>
+  </si>
+  <si>
+    <t>sohuzmtdaoiamg@sohu.com</t>
+  </si>
+  <si>
+    <t>chinajixiekjj@163.com</t>
+  </si>
+  <si>
+    <t>6268078@qq.com</t>
+  </si>
+  <si>
+    <t>1009068816@qq.com</t>
+  </si>
+  <si>
+    <t>1764780321@qq.com</t>
+  </si>
+  <si>
+    <t>435369379@qq.com</t>
+  </si>
+  <si>
+    <t>279255428@qq.com</t>
+  </si>
+  <si>
+    <t>xu_xys@163.com</t>
+  </si>
+  <si>
+    <t>吉林省人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林中西医结合医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jlzxyjhyyyzxx@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉大四院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174086942@qq.com</t>
+  </si>
+  <si>
+    <t>1052103846@qq.com</t>
+  </si>
+  <si>
+    <t>81676192@qq.com</t>
+  </si>
+  <si>
+    <t>642647984@qq.com</t>
+  </si>
+  <si>
+    <t>哈工大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzxx@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>吉林肿瘤医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lszlyyshgzb@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490489@qq.com</t>
+  </si>
+  <si>
+    <t>9490489@qq.com</t>
+  </si>
+  <si>
+    <t>xnh@imicams.ac.cn</t>
+  </si>
+  <si>
+    <t>zzb@jlu.edu.cn</t>
+  </si>
+  <si>
+    <t>jdjwc@jlu.edu.cn</t>
+  </si>
+  <si>
+    <t>dpb429@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>jobs@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>obs@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>ostdoctor@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>qinyong@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>talents@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>liukun@hit.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgdb@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>cam@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>hgdxb@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>tzb3789@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>jwxfjb@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>bwcbgs@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>sjc@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>gzc@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>jb@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>hqfw@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>cco@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>itee1993@126.com</t>
+  </si>
+  <si>
+    <t>哈工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_hit@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>soffice@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>ic@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>nic@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>youth@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>software@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>tybhit@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>黑大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hcls2016@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>lilixia@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>jc@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>hitwhweb@126.com</t>
+  </si>
+  <si>
+    <t>studyathlju@hotmail.com</t>
+  </si>
+  <si>
+    <t>itsy@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>6609653@163.con</t>
+  </si>
+  <si>
+    <t>uff1a86609653@163.con</t>
+  </si>
+  <si>
+    <t>itxy@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>71788361@qq.com</t>
+  </si>
+  <si>
+    <t>东北林业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dminjwc@nefu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_cwc@nefu.edu.cn</t>
+  </si>
+  <si>
+    <t>news@nefu.edu.cn</t>
+  </si>
+  <si>
+    <t>ldjiwei@nefu.edu.cn</t>
+  </si>
+  <si>
+    <t>xxb@nefu.edu.cn</t>
+  </si>
+  <si>
+    <t>jubao1234@vip.163.com</t>
+  </si>
+  <si>
+    <t>uwu1234@vip.163.com</t>
+  </si>
+  <si>
+    <t>xgk@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>hit-times@hit.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archives@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>caiz@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>iea1@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>iea3@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>jennyzhai@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>studyathit@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>wykell@hit.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wykelly@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangli20020203@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangquan@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>international@hitwh.edu.cn</t>
+  </si>
+  <si>
+    <t>nefugcc@nefu.edu.cn</t>
+  </si>
+  <si>
+    <t>nefumoe@163.com</t>
+  </si>
+  <si>
+    <t>icsidc@163.com</t>
+  </si>
+  <si>
+    <t>lily_zhu_2008@163.com</t>
+  </si>
+  <si>
+    <t>spacehit@126.com</t>
+  </si>
+  <si>
+    <t>dzb@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>ongmeiyao@163.com</t>
+  </si>
+  <si>
+    <t>dean_som@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>sommaster@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>it@eurasia.edu</t>
+  </si>
+  <si>
+    <t>wusuran@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>xujia@hit.edu.cn</t>
+  </si>
+  <si>
+    <t>哈医科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headmaster@ems.hrbmu.edu.cn</t>
+  </si>
+  <si>
+    <t>hyd2sjyc@126.com</t>
+  </si>
+  <si>
+    <t>hydzsjyc@126.com</t>
+  </si>
+  <si>
+    <t>1482412432@qq.com</t>
+  </si>
+  <si>
+    <t>96403011@163.com</t>
+  </si>
+  <si>
+    <t>cdc1977cn@sina.com</t>
+  </si>
+  <si>
+    <t>chimiao@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>huangjin49@126.com</t>
+  </si>
+  <si>
+    <t>liuzhiqiang@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>rebekka_yin@hotmail.com</t>
+  </si>
+  <si>
+    <t>wailiu@126.com</t>
+  </si>
+  <si>
+    <t>yinbin@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>yinhua@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhang-lei@hrbeu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26678865@qq.com</t>
+  </si>
+  <si>
+    <t>fazhanjihuachu2004@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>gjs@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>heufao@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>heukjc@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>houyanfen@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>jiaowuchu@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>jmsa@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>peiran@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>rsc@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>xxhc@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>chenyongxin@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>chuanyuan@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>douzheng@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>fld@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>gaopuzhen@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>gjxy@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>gongchengxunlianzhongxin@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>heuac@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>jdxy@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>lichao006@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>lili_heu@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liusijia@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liwei@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liweilong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>lixueyuan@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liyanjun@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>office2020@126.com</t>
+  </si>
+  <si>
+    <t>renyijun@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>sem009@126.com</t>
+  </si>
+  <si>
+    <t>shenjihong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>songyan@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>ssxy@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>sundajun@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>tiyubu@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>xtzhb@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>xueyanzhuo@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>yinguisheng@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangnan@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhaolin@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhengliucsd@gmail.com</t>
+  </si>
+  <si>
+    <t>zhengyurong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zouguangping@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>caodianxue@hrbeu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caohongliang@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>chenheng@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>chenkun@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>chenyan@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>cwcy@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>diaoming@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>dongyy@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>handuanfeng@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>hujinhong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>jinhongzhang@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liping@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>liuwen@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>maijize@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>maxiuzhen@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>ruobingxu@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenhongyu@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>wangqh@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>xiahong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>yanrujian@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>yinjingwei@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>yuxw@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangmingjun@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangqingbin@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangzhijian@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhaodanfeng@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhenghailong@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>muxtw@163.com</t>
+  </si>
+  <si>
+    <t>hydjw@hrbmu.edu.cn</t>
+  </si>
+  <si>
+    <t>zghydjw@sina.com</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +3428,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
@@ -5246,11 +5995,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C1F511-334D-4E12-A233-F7746BD06617}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5259,9 +6008,14 @@
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>644</v>
       </c>
@@ -5274,8 +6028,23 @@
       <c r="D1" s="8" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>646</v>
       </c>
@@ -5288,8 +6057,23 @@
       <c r="D2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>647</v>
       </c>
@@ -5302,8 +6086,23 @@
       <c r="D3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>666</v>
       </c>
@@ -5316,8 +6115,14 @@
       <c r="D4" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>667</v>
       </c>
@@ -5330,8 +6135,14 @@
       <c r="D5" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>750</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>668</v>
       </c>
@@ -5344,8 +6155,14 @@
       <c r="D6" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>672</v>
       </c>
@@ -5358,8 +6175,14 @@
       <c r="D7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>675</v>
       </c>
@@ -5372,8 +6195,14 @@
       <c r="D8" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>753</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>676</v>
       </c>
@@ -5386,30 +6215,48 @@
       <c r="D9" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>754</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>677</v>
       </c>
       <c r="B10" t="s">
         <v>656</v>
       </c>
+      <c r="C10" t="s">
+        <v>693</v>
+      </c>
       <c r="D10" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>678</v>
       </c>
       <c r="B11" t="s">
         <v>657</v>
       </c>
+      <c r="C11" t="s">
+        <v>694</v>
+      </c>
       <c r="D11" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>679</v>
       </c>
@@ -5420,7 +6267,10 @@
         <v>690</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>695</v>
+      </c>
       <c r="B13" t="s">
         <v>659</v>
       </c>
@@ -5428,20 +6278,965 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>696</v>
+      </c>
       <c r="B14" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>697</v>
+      </c>
       <c r="B15" t="s">
         <v>681</v>
+      </c>
+      <c r="D15" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D16" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6FC474EF-9FA5-4BFF-9B63-EE74017A6D25}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{C29959E4-FC05-486D-97E5-220F0904681B}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{5E49DD84-1D15-437F-B91F-688C2E1F4783}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{E240F1C2-4F34-48C4-8DE7-4E5E1087BA11}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{AAF55348-D97A-42F4-806C-8E88E88B5AB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03720F65-D5FE-4CCC-95C6-173788377B75}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D7" t="s">
+        <v>819</v>
+      </c>
+      <c r="E7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8" t="s">
+        <v>840</v>
+      </c>
+      <c r="D8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" t="s">
+        <v>843</v>
+      </c>
+      <c r="D9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>784</v>
+      </c>
+      <c r="B13" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B14" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>787</v>
+      </c>
+      <c r="B16" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>789</v>
+      </c>
+      <c r="B18" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>790</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>791</v>
+      </c>
+      <c r="B20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>792</v>
+      </c>
+      <c r="B21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>799</v>
+      </c>
+      <c r="B24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B25" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>801</v>
+      </c>
+      <c r="B26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>803</v>
+      </c>
+      <c r="B27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>808</v>
+      </c>
+      <c r="B29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>811</v>
+      </c>
+      <c r="B30" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>812</v>
+      </c>
+      <c r="B31" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>821</v>
+      </c>
+      <c r="B32" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B33" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>823</v>
+      </c>
+      <c r="B34" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>824</v>
+      </c>
+      <c r="B35" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>825</v>
+      </c>
+      <c r="B36" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B37" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>827</v>
+      </c>
+      <c r="B38" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>828</v>
+      </c>
+      <c r="B39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B40" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>830</v>
+      </c>
+      <c r="B41" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>831</v>
+      </c>
+      <c r="B42" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>832</v>
+      </c>
+      <c r="B43" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B44" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>836</v>
+      </c>
+      <c r="B45" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>837</v>
+      </c>
+      <c r="B46" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>838</v>
+      </c>
+      <c r="B47" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>841</v>
+      </c>
+      <c r="B48" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>842</v>
+      </c>
+      <c r="B49" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>844</v>
+      </c>
+      <c r="B50" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>845</v>
+      </c>
+      <c r="B51" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{466275B3-E4D8-4744-9506-7A19A75675CA}"/>
+    <hyperlink ref="A25" r:id="rId2" xr:uid="{8866EE03-580C-45C7-A40A-DEF9C4896D41}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{369C64D1-E333-4D7C-B9D6-E201A3FFA0C0}"/>
+    <hyperlink ref="A33" r:id="rId4" xr:uid="{9BB8C62E-168D-425F-B39F-55BD0E6AAC7C}"/>
+    <hyperlink ref="A40" r:id="rId5" xr:uid="{C8866EA5-CA7B-4979-82DA-92D30903722F}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{B52DAF92-E79A-4823-A2AD-DF3B88F79DFA}"/>
+    <hyperlink ref="B64" r:id="rId7" xr:uid="{2F9BEE03-CD65-4787-A793-8C57A415D303}"/>
+    <hyperlink ref="B79" r:id="rId8" xr:uid="{0D1F8E07-1C0D-48E4-B6A0-7A313D00CE8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8EEB2-A9E0-4510-BD5C-FA65A7C8609F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E622FDC-8FF4-4948-A9A2-686CD564F953}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="941">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -2990,6 +2990,26 @@
   </si>
   <si>
     <t>zghydjw@sina.com</t>
+  </si>
+  <si>
+    <t>哈理工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuji@hrbust.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzoffice@hrbust.edu.cn</t>
+  </si>
+  <si>
+    <t>lz325@163.com</t>
+  </si>
+  <si>
+    <t>communication@hrbust.edu.cn</t>
+  </si>
+  <si>
+    <t>guojixueyuan517@163.com</t>
   </si>
 </sst>
 </file>
@@ -6541,11 +6561,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03720F65-D5FE-4CCC-95C6-173788377B75}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6555,9 +6575,10 @@
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>765</v>
       </c>
@@ -6573,8 +6594,11 @@
       <c r="E1" s="10" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -6590,8 +6614,11 @@
       <c r="E2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>774</v>
       </c>
@@ -6607,8 +6634,11 @@
       <c r="E3" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -6624,8 +6654,11 @@
       <c r="E4" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -6638,8 +6671,11 @@
       <c r="E5" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -6652,8 +6688,11 @@
       <c r="E6" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -6667,7 +6706,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>779</v>
       </c>
@@ -6681,7 +6720,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>780</v>
       </c>
@@ -6692,7 +6731,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>781</v>
       </c>
@@ -6703,7 +6742,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -6711,7 +6750,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -6719,7 +6758,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -6727,7 +6766,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -6735,7 +6774,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -6743,7 +6782,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>787</v>
       </c>
@@ -7237,6 +7276,7 @@
     <hyperlink ref="B19" r:id="rId6" xr:uid="{B52DAF92-E79A-4823-A2AD-DF3B88F79DFA}"/>
     <hyperlink ref="B64" r:id="rId7" xr:uid="{2F9BEE03-CD65-4787-A793-8C57A415D303}"/>
     <hyperlink ref="B79" r:id="rId8" xr:uid="{0D1F8E07-1C0D-48E4-B6A0-7A313D00CE8B}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{B5CAFDA4-CA45-416D-9D78-DAAAD14C5CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E622FDC-8FF4-4948-A9A2-686CD564F953}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDEDA0-B670-433B-B5BB-9FF1C67C8CAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="953">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3010,6 +3010,44 @@
   </si>
   <si>
     <t>guojixueyuan517@163.com</t>
+  </si>
+  <si>
+    <t>jyzdzx@hrbust.edu.cn</t>
+  </si>
+  <si>
+    <t>hrbustzyxw@163.com</t>
+  </si>
+  <si>
+    <t>东北石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@nepu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riz53623302@163.com</t>
+  </si>
+  <si>
+    <t>rencai@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>eufao@hrbeu.edu.cn</t>
+  </si>
+  <si>
+    <t>djkz_emc@188.com</t>
+  </si>
+  <si>
+    <t>dbsyjy@163.com</t>
+  </si>
+  <si>
+    <t>ongmengyuan@js7tv.cn</t>
+  </si>
+  <si>
+    <t>songmengyuan@js7tv.cn</t>
+  </si>
+  <si>
+    <t>xcb01@nepu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -6561,11 +6599,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03720F65-D5FE-4CCC-95C6-173788377B75}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6575,10 +6613,11 @@
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>765</v>
       </c>
@@ -6597,8 +6636,11 @@
       <c r="F1" s="8" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -6608,17 +6650,20 @@
       <c r="C2" t="s">
         <v>807</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>814</v>
       </c>
       <c r="E2" t="s">
         <v>847</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>774</v>
       </c>
@@ -6637,8 +6682,11 @@
       <c r="F3" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -6657,8 +6705,11 @@
       <c r="F4" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -6674,8 +6725,11 @@
       <c r="F5" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -6691,8 +6745,11 @@
       <c r="F6" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -6705,8 +6762,14 @@
       <c r="E7" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>941</v>
+      </c>
+      <c r="G7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>779</v>
       </c>
@@ -6719,9 +6782,12 @@
       <c r="E8" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>780</v>
       </c>
       <c r="B9" t="s">
@@ -6730,8 +6796,11 @@
       <c r="D9" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>781</v>
       </c>
@@ -6742,7 +6811,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -6750,7 +6819,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -6758,7 +6827,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -6766,7 +6835,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -6774,7 +6843,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -6782,7 +6851,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>787</v>
       </c>
@@ -6810,7 +6879,7 @@
       <c r="A19" t="s">
         <v>790</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>860</v>
       </c>
     </row>
@@ -6855,7 +6924,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>800</v>
       </c>
       <c r="B25" t="s">
@@ -6919,7 +6988,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>822</v>
       </c>
       <c r="B33" t="s">
@@ -6975,7 +7044,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>829</v>
       </c>
       <c r="B40" t="s">
@@ -7131,7 +7200,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>905</v>
       </c>
     </row>
@@ -7206,7 +7275,7 @@
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>920</v>
       </c>
     </row>
@@ -7265,19 +7334,18 @@
         <v>931</v>
       </c>
     </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>947</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{466275B3-E4D8-4744-9506-7A19A75675CA}"/>
-    <hyperlink ref="A25" r:id="rId2" xr:uid="{8866EE03-580C-45C7-A40A-DEF9C4896D41}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{369C64D1-E333-4D7C-B9D6-E201A3FFA0C0}"/>
-    <hyperlink ref="A33" r:id="rId4" xr:uid="{9BB8C62E-168D-425F-B39F-55BD0E6AAC7C}"/>
-    <hyperlink ref="A40" r:id="rId5" xr:uid="{C8866EA5-CA7B-4979-82DA-92D30903722F}"/>
-    <hyperlink ref="B19" r:id="rId6" xr:uid="{B52DAF92-E79A-4823-A2AD-DF3B88F79DFA}"/>
-    <hyperlink ref="B64" r:id="rId7" xr:uid="{2F9BEE03-CD65-4787-A793-8C57A415D303}"/>
-    <hyperlink ref="B79" r:id="rId8" xr:uid="{0D1F8E07-1C0D-48E4-B6A0-7A313D00CE8B}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{B5CAFDA4-CA45-416D-9D78-DAAAD14C5CB4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDEDA0-B670-433B-B5BB-9FF1C67C8CAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC41F0A4-E2E9-403E-B8D3-1168F2836F17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="968">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3048,6 +3048,51 @@
   </si>
   <si>
     <t>xcb01@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>szhjy1985@163.com</t>
+  </si>
+  <si>
+    <t>fxf@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>ghf@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>haolh@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>jmh@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>liujs@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>mhw@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>skp@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>sunmx@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>wss@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>ycq@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangb@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>support@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>nepuzzg@126.com</t>
+  </si>
+  <si>
+    <t>xxgk@nepu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -6602,8 +6647,8 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6785,6 +6830,9 @@
       <c r="F8" t="s">
         <v>942</v>
       </c>
+      <c r="G8" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -6799,6 +6847,9 @@
       <c r="F9" t="s">
         <v>948</v>
       </c>
+      <c r="G9" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6810,6 +6861,12 @@
       <c r="D10" t="s">
         <v>835</v>
       </c>
+      <c r="F10" t="s">
+        <v>953</v>
+      </c>
+      <c r="G10" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6818,6 +6875,9 @@
       <c r="B11" t="s">
         <v>852</v>
       </c>
+      <c r="G11" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6826,6 +6886,9 @@
       <c r="B12" t="s">
         <v>853</v>
       </c>
+      <c r="G12" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6834,6 +6897,9 @@
       <c r="B13" t="s">
         <v>854</v>
       </c>
+      <c r="G13" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6842,6 +6908,9 @@
       <c r="B14" t="s">
         <v>855</v>
       </c>
+      <c r="G14" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -6850,6 +6919,9 @@
       <c r="B15" t="s">
         <v>856</v>
       </c>
+      <c r="G15" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6858,48 +6930,66 @@
       <c r="B16" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>788</v>
       </c>
       <c r="B17" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>789</v>
       </c>
       <c r="B18" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>790</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>791</v>
       </c>
       <c r="B20" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>792</v>
       </c>
       <c r="B21" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>794</v>
       </c>
@@ -6907,7 +6997,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -6915,7 +7005,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>799</v>
       </c>
@@ -6923,7 +7013,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>800</v>
       </c>
@@ -6931,7 +7021,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>801</v>
       </c>
@@ -6939,7 +7029,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>803</v>
       </c>
@@ -6947,7 +7037,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>806</v>
       </c>
@@ -6955,7 +7045,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>808</v>
       </c>
@@ -6963,7 +7053,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>811</v>
       </c>
@@ -6971,7 +7061,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>812</v>
       </c>
@@ -6979,7 +7069,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>821</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC41F0A4-E2E9-403E-B8D3-1168F2836F17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F7F134-7EE7-415C-AB47-42E82470990E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="969">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3093,6 +3093,9 @@
   </si>
   <si>
     <t>xxgk@nepu.edu.cn</t>
+  </si>
+  <si>
+    <t>yuanlj@ems.hrbmu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -6647,8 +6650,8 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6844,6 +6847,9 @@
       <c r="D9" t="s">
         <v>834</v>
       </c>
+      <c r="E9" t="s">
+        <v>968</v>
+      </c>
       <c r="F9" t="s">
         <v>948</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F7F134-7EE7-415C-AB47-42E82470990E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04A57C-5615-4BDA-AC3C-6C057ECAA029}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="970">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3096,6 +3096,9 @@
   </si>
   <si>
     <t>yuanlj@ems.hrbmu.edu.cn</t>
+  </si>
+  <si>
+    <t>xyb@hrbust.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6881,6 +6884,9 @@
       <c r="B11" t="s">
         <v>852</v>
       </c>
+      <c r="F11" t="s">
+        <v>969</v>
+      </c>
       <c r="G11" t="s">
         <v>957</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04A57C-5615-4BDA-AC3C-6C057ECAA029}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33D357-18F9-4915-9E8A-2583722E9524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="988">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3099,6 +3099,63 @@
   </si>
   <si>
     <t>xyb@hrbust.edu.cn</t>
+  </si>
+  <si>
+    <t>齐齐哈尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qhruzsb@163.com</t>
+  </si>
+  <si>
+    <t>bysjy@163.com</t>
+  </si>
+  <si>
+    <t>661556140@qq.com</t>
+  </si>
+  <si>
+    <t>黑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc@usth.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact@yiban.cn</t>
+  </si>
+  <si>
+    <t>xgk@usth.edu.cn</t>
+  </si>
+  <si>
+    <t>xgksl@usth.edu.cn</t>
+  </si>
+  <si>
+    <t>qdrlzy728@163.com</t>
+  </si>
+  <si>
+    <t>banghou88@163.com</t>
+  </si>
+  <si>
+    <t>hljkjdxrsc@163.com</t>
+  </si>
+  <si>
+    <t>14259962@qq.com</t>
+  </si>
+  <si>
+    <t>ywj851116@126.com</t>
+  </si>
+  <si>
+    <t>cjxing26@163.com</t>
+  </si>
+  <si>
+    <t>jxing26@163.com</t>
+  </si>
+  <si>
+    <t>815161058@qq.com</t>
+  </si>
+  <si>
+    <t>15386456@qq.com</t>
   </si>
 </sst>
 </file>
@@ -6650,11 +6707,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03720F65-D5FE-4CCC-95C6-173788377B75}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6666,9 +6723,11 @@
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>765</v>
       </c>
@@ -6690,8 +6749,14 @@
       <c r="G1" s="10" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -6713,8 +6778,14 @@
       <c r="G2" s="3" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>971</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>774</v>
       </c>
@@ -6736,8 +6807,14 @@
       <c r="G3" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>972</v>
+      </c>
+      <c r="I3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -6759,8 +6836,14 @@
       <c r="G4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>973</v>
+      </c>
+      <c r="I4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -6779,8 +6862,14 @@
       <c r="G5" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>979</v>
+      </c>
+      <c r="I5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -6799,8 +6888,14 @@
       <c r="G6" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>982</v>
+      </c>
+      <c r="I6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -6819,8 +6914,14 @@
       <c r="G7" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>983</v>
+      </c>
+      <c r="I7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>779</v>
       </c>
@@ -6839,8 +6940,11 @@
       <c r="G8" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>780</v>
       </c>
@@ -6859,8 +6963,11 @@
       <c r="G9" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>781</v>
       </c>
@@ -6876,8 +6983,11 @@
       <c r="G10" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -6890,8 +7000,11 @@
       <c r="G11" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -6902,7 +7015,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -6913,7 +7026,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -6924,7 +7037,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -6935,7 +7048,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>787</v>
       </c>
@@ -7448,6 +7561,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{B243728C-3D8B-462F-80E9-E080D4A42A0D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33D357-18F9-4915-9E8A-2583722E9524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792C9E0-93BD-4A79-A4B7-81746DFE6F07}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="989">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3156,6 +3156,9 @@
   </si>
   <si>
     <t>15386456@qq.com</t>
+  </si>
+  <si>
+    <t>usthxsh@163.com</t>
   </si>
 </sst>
 </file>
@@ -6711,7 +6714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6943,6 +6946,9 @@
       <c r="H8" t="s">
         <v>984</v>
       </c>
+      <c r="I8" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792C9E0-93BD-4A79-A4B7-81746DFE6F07}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD0F04-A2E3-4009-A33A-CB4F4DE6C8B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="h1" sheetId="4" r:id="rId4"/>
+    <sheet name="h2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1029">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3159,6 +3160,130 @@
   </si>
   <si>
     <t>usthxsh@163.com</t>
+  </si>
+  <si>
+    <t>黑科学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has@has.ac.cn</t>
+  </si>
+  <si>
+    <t>黑科协</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑科技厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hljkjtzwxx@126.com</t>
+  </si>
+  <si>
+    <t>xdny51920689@163.com</t>
+  </si>
+  <si>
+    <t>jtbgs@126.com</t>
+  </si>
+  <si>
+    <t>hljzdsys@126.com</t>
+  </si>
+  <si>
+    <t>82624234web@hljkj.cn</t>
+  </si>
+  <si>
+    <t>skpzx@sina.com</t>
+  </si>
+  <si>
+    <t>hljkjtjsjpt@163.com</t>
+  </si>
+  <si>
+    <t>jtscgc@126.com</t>
+  </si>
+  <si>
+    <t>jtfgckp@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljkjfw@126.com</t>
+  </si>
+  <si>
+    <t>jtyqc@163.com</t>
+  </si>
+  <si>
+    <t>kjtyqc@163.com</t>
+  </si>
+  <si>
+    <t>jtyqlm@163.com</t>
+  </si>
+  <si>
+    <t>hljgyb@163.com</t>
+  </si>
+  <si>
+    <t>hljkxlxc@163.com</t>
+  </si>
+  <si>
+    <t>18645692157@163.com</t>
+  </si>
+  <si>
+    <t>skx82624928@163.com</t>
+  </si>
+  <si>
+    <t>15046686810@163.com</t>
+  </si>
+  <si>
+    <t>jubaoxx@cast.org.cntarget</t>
+  </si>
+  <si>
+    <t>kjtxm@126.com</t>
+  </si>
+  <si>
+    <t>henggaoyanyuan@163.com</t>
+  </si>
+  <si>
+    <t>ipc@hipc.org.cn</t>
+  </si>
+  <si>
+    <t>ljswls@163.com</t>
+  </si>
+  <si>
+    <t>rsbgs@163.com</t>
+  </si>
+  <si>
+    <t>ljskxyzdhyjs@163.com</t>
+  </si>
+  <si>
+    <t>uoshansuo@163.com</t>
+  </si>
+  <si>
+    <t>ljasdq@126.com</t>
+  </si>
+  <si>
+    <t>ljnyhj@163.com</t>
+  </si>
+  <si>
+    <t>ljslyjs@163.com</t>
+  </si>
+  <si>
+    <t>kcyjt@163.com</t>
+  </si>
+  <si>
+    <t>1320493872@qq.com</t>
+  </si>
+  <si>
+    <t>henwei415@qq.com</t>
+  </si>
+  <si>
+    <t>sueforwork@live.cn</t>
+  </si>
+  <si>
+    <t>728517396@qq.com</t>
+  </si>
+  <si>
+    <t>leonid.ru@foxmail.com</t>
+  </si>
+  <si>
+    <t>anghuanwei1998@126.com</t>
   </si>
 </sst>
 </file>
@@ -6712,9 +6837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03720F65-D5FE-4CCC-95C6-173788377B75}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7573,4 +7698,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC4E64-42FE-475D-A017-E756E3B324A0}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{FDFA9BDF-72D2-4775-9CB4-5821BC7DD2D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD0F04-A2E3-4009-A33A-CB4F4DE6C8B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271151D-412C-4831-82D9-FB505EDA48B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1087">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3284,6 +3284,187 @@
   </si>
   <si>
     <t>anghuanwei1998@126.com</t>
+  </si>
+  <si>
+    <t>zwgk@jstd.gov.cn</t>
+  </si>
+  <si>
+    <t>skxxxzxgy@shandong.cn</t>
+  </si>
+  <si>
+    <t>hnskxnba@163.com</t>
+  </si>
+  <si>
+    <t>wenxianguan@163.com</t>
+  </si>
+  <si>
+    <t>kjtsfc@126.com</t>
+  </si>
+  <si>
+    <t>jtjjz@126.com</t>
+  </si>
+  <si>
+    <t>hnkxbgs@163.com</t>
+  </si>
+  <si>
+    <t>nkxbgs@163.com</t>
+  </si>
+  <si>
+    <t>dkpzx@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swywy@163.com</t>
+  </si>
+  <si>
+    <t>sckx@sckx.org.cn</t>
+  </si>
+  <si>
+    <t>gzkx2008@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msjyast@163.com</t>
+  </si>
+  <si>
+    <t>gsskxjjxx@163.com</t>
+  </si>
+  <si>
+    <t>自然生态所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyzys@126.com</t>
+  </si>
+  <si>
+    <t>自动化所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebmaster@haai.com.cn</t>
+  </si>
+  <si>
+    <t>dhjs@vip.163.com</t>
+  </si>
+  <si>
+    <t>zdhjs@0451.com</t>
+  </si>
+  <si>
+    <t>zdhjs@vip.163.com</t>
+  </si>
+  <si>
+    <t>px@haai.com.cn</t>
+  </si>
+  <si>
+    <t>kingbooke@163.com</t>
+  </si>
+  <si>
+    <t>linaichuan@haai.com.cn</t>
+  </si>
+  <si>
+    <t>uotuyanjiu@163.com</t>
+  </si>
+  <si>
+    <t>xwyzl@163.com</t>
+  </si>
+  <si>
+    <t>高技术院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenggaoyanyuan@163.com</t>
+  </si>
+  <si>
+    <t>px@haai.cm.cn</t>
+  </si>
+  <si>
+    <t>计算中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20401864@qq.com</t>
+  </si>
+  <si>
+    <t>1920340@qq.com</t>
+  </si>
+  <si>
+    <t>哈药集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengmr@hayao.com</t>
+  </si>
+  <si>
+    <t>shengzhh@hayao.com</t>
+  </si>
+  <si>
+    <t>sunzhengyang@hayao.com</t>
+  </si>
+  <si>
+    <t>angj@hayao.com</t>
+  </si>
+  <si>
+    <t>haill@hayao.com</t>
+  </si>
+  <si>
+    <t>ij@hayao.com</t>
+  </si>
+  <si>
+    <t>lij@hayao.com</t>
+  </si>
+  <si>
+    <t>liurui@hayao.com</t>
+  </si>
+  <si>
+    <t>uangdx@hayao.com</t>
+  </si>
+  <si>
+    <t>unjx@hayao.com</t>
+  </si>
+  <si>
+    <t>hayaoyygl@163.com</t>
+  </si>
+  <si>
+    <t>master@hayao.com</t>
+  </si>
+  <si>
+    <t>gs@hyrmtt.com.cn</t>
+  </si>
+  <si>
+    <t>arbinnews@126.com</t>
+  </si>
+  <si>
+    <t>eb@my399.com</t>
+  </si>
+  <si>
+    <t>11974916@qq.com</t>
+  </si>
+  <si>
+    <t>408553217@qq.com</t>
+  </si>
+  <si>
+    <t>hayaohr01@163.com</t>
+  </si>
+  <si>
+    <t>hysw_mly@163.com</t>
+  </si>
+  <si>
+    <t>hyzylml@163.com</t>
+  </si>
+  <si>
+    <t>lxcl0420@sina.com</t>
+  </si>
+  <si>
+    <t>rlzy@hayiyao.com</t>
+  </si>
+  <si>
+    <t>sanjingpeixun001@163.com</t>
+  </si>
+  <si>
+    <t>zhaod@hayaoliu.com</t>
+  </si>
+  <si>
+    <t>lizhq@hayao.com</t>
   </si>
 </sst>
 </file>
@@ -6839,7 +7020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7702,21 +7883,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC4E64-42FE-475D-A017-E756E3B324A0}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>989</v>
       </c>
@@ -7726,8 +7911,23 @@
       <c r="C1" s="10" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -7737,8 +7937,23 @@
       <c r="C2" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1013</v>
       </c>
@@ -7748,8 +7963,23 @@
       <c r="C3" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -7759,8 +7989,20 @@
       <c r="C4" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G4" t="s">
+        <v>993</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1015</v>
       </c>
@@ -7770,8 +8012,17 @@
       <c r="C5" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -7781,8 +8032,17 @@
       <c r="C6" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1017</v>
       </c>
@@ -7792,8 +8052,17 @@
       <c r="C7" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1018</v>
       </c>
@@ -7803,79 +8072,238 @@
       <c r="C8" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
+      <c r="B9" t="s">
+        <v>1029</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1020</v>
       </c>
+      <c r="B10" t="s">
+        <v>1030</v>
+      </c>
       <c r="C10" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1021</v>
       </c>
+      <c r="B11" t="s">
+        <v>1031</v>
+      </c>
       <c r="C11" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1022</v>
       </c>
+      <c r="B12" t="s">
+        <v>1034</v>
+      </c>
       <c r="C12" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1023</v>
       </c>
+      <c r="B13" t="s">
+        <v>1035</v>
+      </c>
       <c r="C13" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1024</v>
       </c>
+      <c r="B14" t="s">
+        <v>1036</v>
+      </c>
       <c r="C14" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C15" t="s">
+        <v>945</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1028</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{FDFA9BDF-72D2-4775-9CB4-5821BC7DD2D4}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{3AF8E709-B682-4918-B077-AD185D588107}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{0A1A33BD-1018-4569-AA02-3DC8D65E78AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271151D-412C-4831-82D9-FB505EDA48B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83E0E1-0D24-453D-8FA7-FFEF46B35DD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1159">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3465,6 +3465,230 @@
   </si>
   <si>
     <t>lizhq@hayao.com</t>
+  </si>
+  <si>
+    <t>哈飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public@catic.cn</t>
+  </si>
+  <si>
+    <t>chensz8571@163.com</t>
+  </si>
+  <si>
+    <t>zhangj1980_cool@163.com</t>
+  </si>
+  <si>
+    <t>afeizy2018@163.com</t>
+  </si>
+  <si>
+    <t>iaoyong73@126.com</t>
+  </si>
+  <si>
+    <t>lq9681@126.com</t>
+  </si>
+  <si>
+    <t>iyuqi2014@126.com</t>
+  </si>
+  <si>
+    <t>ublic@catic.cn</t>
+  </si>
+  <si>
+    <t>葵花药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khyy@khyy.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qichl@hayao.com</t>
+  </si>
+  <si>
+    <t>ul@hayao.com</t>
+  </si>
+  <si>
+    <t>iy@hayao.com</t>
+  </si>
+  <si>
+    <t>uanmr@hayao.com</t>
+  </si>
+  <si>
+    <t>wul@hayao.com</t>
+  </si>
+  <si>
+    <t>yangj@hayao.com</t>
+  </si>
+  <si>
+    <t>chaill@hayao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanmr@hayao.com</t>
+  </si>
+  <si>
+    <t>liy@hayao.com</t>
+  </si>
+  <si>
+    <t>724689128@qq.com</t>
+  </si>
+  <si>
+    <t>ghy772006@sohu.com</t>
+  </si>
+  <si>
+    <t>ichl@hayao.com</t>
+  </si>
+  <si>
+    <t>luanzhh@hayao.com</t>
+  </si>
+  <si>
+    <t>ongych@hayao.com</t>
+  </si>
+  <si>
+    <t>songych@hayao.com</t>
+  </si>
+  <si>
+    <t>yangqd@hayao.com</t>
+  </si>
+  <si>
+    <t>44595526@qq.com</t>
+  </si>
+  <si>
+    <t>zzhaopin2017@163.com</t>
+  </si>
+  <si>
+    <t>rmtt600829@163.com</t>
+  </si>
+  <si>
+    <t>第一医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-84924382office@csaa.org.cn</t>
+  </si>
+  <si>
+    <t>010-84924385zzb@csaa.org.cn</t>
+  </si>
+  <si>
+    <t>010-84924387yuce@csaa.org.cn</t>
+  </si>
+  <si>
+    <t>010-84924396kpb@csaa.org.cn</t>
+  </si>
+  <si>
+    <t>mail@wjec.cn</t>
+  </si>
+  <si>
+    <t>tianguang@east.net</t>
+  </si>
+  <si>
+    <t>postmaster@avicfinance.com.cn</t>
+  </si>
+  <si>
+    <t>info@hilite.com</t>
+  </si>
+  <si>
+    <t>hsdyyyyb@163.com</t>
+  </si>
+  <si>
+    <t>省医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzy@hrbzzy.com</t>
+  </si>
+  <si>
+    <t>wangliyan6509@126.com</t>
+  </si>
+  <si>
+    <t>lkhlj@sina.com</t>
+  </si>
+  <si>
+    <t>duanbh@163.com</t>
+  </si>
+  <si>
+    <t>drlvwei@163.com</t>
+  </si>
+  <si>
+    <t>jzx415@gmail.com</t>
+  </si>
+  <si>
+    <t>syylhb@126.com</t>
+  </si>
+  <si>
+    <t>wxyan730@163.com</t>
+  </si>
+  <si>
+    <t>zhangpeiyi@hotmail.com</t>
+  </si>
+  <si>
+    <t>zhaoxeni@126.com</t>
+  </si>
+  <si>
+    <t>weiguangkuan1583@126.com</t>
+  </si>
+  <si>
+    <t>zhuhong622@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>xysh1963@163.com</t>
+  </si>
+  <si>
+    <t>1243153992@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anliping1@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>wangliru@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>993097188@qq.com</t>
+  </si>
+  <si>
+    <t>879370362@qq.com</t>
+  </si>
+  <si>
+    <t>huakun_cheng@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>lixiurong1234@163.com</t>
+  </si>
+  <si>
+    <t>doctorwujun@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>lijinyuyisheng@163.com</t>
+  </si>
+  <si>
+    <t>chengxiaoxia@2008.sina.com</t>
+  </si>
+  <si>
+    <t>doctorwdw@126.com</t>
+  </si>
+  <si>
+    <t>zhjh05@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>506418802@qq.com</t>
+  </si>
+  <si>
+    <t>z5z9z@sina.com</t>
+  </si>
+  <si>
+    <t>chunweishi@126.com.cn</t>
+  </si>
+  <si>
+    <t>lijuanfu_126@126.com</t>
+  </si>
+  <si>
+    <t>zhangmin65310@163.com</t>
+  </si>
+  <si>
+    <t>exincom@163.com</t>
   </si>
 </sst>
 </file>
@@ -6472,7 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C1F511-334D-4E12-A233-F7746BD06617}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -7883,11 +8107,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC4E64-42FE-475D-A017-E756E3B324A0}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7898,10 +8122,14 @@
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>989</v>
       </c>
@@ -7926,8 +8154,20 @@
       <c r="H1" s="8" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -7952,8 +8192,20 @@
       <c r="H2" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1013</v>
       </c>
@@ -7978,8 +8230,17 @@
       <c r="H3" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -8001,8 +8262,14 @@
       <c r="H4" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1015</v>
       </c>
@@ -8021,8 +8288,14 @@
       <c r="H5" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -8041,8 +8314,14 @@
       <c r="H6" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1017</v>
       </c>
@@ -8061,8 +8340,14 @@
       <c r="H7" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1018</v>
       </c>
@@ -8081,8 +8366,14 @@
       <c r="H8" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
@@ -8101,8 +8392,14 @@
       <c r="H9" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1020</v>
       </c>
@@ -8121,8 +8418,14 @@
       <c r="H10" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1021</v>
       </c>
@@ -8138,8 +8441,14 @@
       <c r="H11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1022</v>
       </c>
@@ -8155,8 +8464,14 @@
       <c r="H12" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1023</v>
       </c>
@@ -8172,8 +8487,14 @@
       <c r="H13" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1024</v>
       </c>
@@ -8189,8 +8510,14 @@
       <c r="H14" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1025</v>
       </c>
@@ -8206,8 +8533,14 @@
       <c r="H15" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1026</v>
       </c>
@@ -8223,8 +8556,11 @@
       <c r="H16" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1027</v>
       </c>
@@ -8237,8 +8573,11 @@
       <c r="H17" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1028</v>
       </c>
@@ -8248,8 +8587,11 @@
       <c r="H18" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1032</v>
       </c>
@@ -8259,43 +8601,190 @@
       <c r="H19" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1038</v>
       </c>
       <c r="H20" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>1086</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -8304,6 +8793,10 @@
     <hyperlink ref="C9" r:id="rId1" xr:uid="{FDFA9BDF-72D2-4775-9CB4-5821BC7DD2D4}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{3AF8E709-B682-4918-B077-AD185D588107}"/>
     <hyperlink ref="B17" r:id="rId3" xr:uid="{0A1A33BD-1018-4569-AA02-3DC8D65E78AB}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{B3701E50-A796-418F-B136-B190E5672158}"/>
+    <hyperlink ref="H35" r:id="rId5" xr:uid="{2D0E332C-C5BA-4D1D-B265-BF8B9CC51DE2}"/>
+    <hyperlink ref="L14" r:id="rId6" xr:uid="{8572E04B-69AB-4868-B6B1-F220B5D76DB6}"/>
+    <hyperlink ref="L16" r:id="rId7" xr:uid="{E63FE720-11BB-4BC4-A201-CA81EEA957B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83E0E1-0D24-453D-8FA7-FFEF46B35DD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23BA91-921F-45A7-98B8-1590032C4CE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1170">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3689,6 +3689,39 @@
   </si>
   <si>
     <t>exincom@163.com</t>
+  </si>
+  <si>
+    <t>1033027908@qq.com</t>
+  </si>
+  <si>
+    <t>19953311@qq.com</t>
+  </si>
+  <si>
+    <t>282998593@qq.com</t>
+  </si>
+  <si>
+    <t>315985091@qq.com</t>
+  </si>
+  <si>
+    <t>375568092@qq.com</t>
+  </si>
+  <si>
+    <t>khcfxz@163.com</t>
+  </si>
+  <si>
+    <t>khpyzjb@163.com</t>
+  </si>
+  <si>
+    <t>kuihuazongban@163.com</t>
+  </si>
+  <si>
+    <t>sherry_xue_zl@sina.com</t>
+  </si>
+  <si>
+    <t>363yy@163.com</t>
+  </si>
+  <si>
+    <t>hyym@swzp.com</t>
   </si>
 </sst>
 </file>
@@ -8107,11 +8140,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC4E64-42FE-475D-A017-E756E3B324A0}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8124,7 +8157,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="30.21875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
     <col min="12" max="12" width="24.77734375" customWidth="1"/>
   </cols>
@@ -8265,6 +8298,9 @@
       <c r="I4" t="s">
         <v>1092</v>
       </c>
+      <c r="J4" t="s">
+        <v>1159</v>
+      </c>
       <c r="L4" t="s">
         <v>1131</v>
       </c>
@@ -8291,6 +8327,9 @@
       <c r="I5" t="s">
         <v>1093</v>
       </c>
+      <c r="J5" t="s">
+        <v>1160</v>
+      </c>
       <c r="L5" t="s">
         <v>1132</v>
       </c>
@@ -8317,6 +8356,9 @@
       <c r="I6" t="s">
         <v>1094</v>
       </c>
+      <c r="J6" t="s">
+        <v>1161</v>
+      </c>
       <c r="L6" t="s">
         <v>1133</v>
       </c>
@@ -8343,6 +8385,9 @@
       <c r="I7" t="s">
         <v>1095</v>
       </c>
+      <c r="J7" t="s">
+        <v>1162</v>
+      </c>
       <c r="L7" t="s">
         <v>1134</v>
       </c>
@@ -8369,6 +8414,9 @@
       <c r="I8" t="s">
         <v>1118</v>
       </c>
+      <c r="J8" t="s">
+        <v>1163</v>
+      </c>
       <c r="L8" t="s">
         <v>1135</v>
       </c>
@@ -8395,6 +8443,9 @@
       <c r="I9" t="s">
         <v>1119</v>
       </c>
+      <c r="J9" t="s">
+        <v>1164</v>
+      </c>
       <c r="L9" t="s">
         <v>1136</v>
       </c>
@@ -8421,6 +8472,9 @@
       <c r="I10" t="s">
         <v>1120</v>
       </c>
+      <c r="J10" t="s">
+        <v>1165</v>
+      </c>
       <c r="L10" t="s">
         <v>1137</v>
       </c>
@@ -8444,6 +8498,9 @@
       <c r="I11" t="s">
         <v>1121</v>
       </c>
+      <c r="J11" t="s">
+        <v>1166</v>
+      </c>
       <c r="L11" t="s">
         <v>1138</v>
       </c>
@@ -8467,6 +8524,9 @@
       <c r="I12" t="s">
         <v>1122</v>
       </c>
+      <c r="J12" t="s">
+        <v>1167</v>
+      </c>
       <c r="L12" t="s">
         <v>1139</v>
       </c>
@@ -8556,6 +8616,9 @@
       <c r="H16" t="s">
         <v>1076</v>
       </c>
+      <c r="I16" t="s">
+        <v>1168</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>1143</v>
       </c>
@@ -8785,6 +8848,11 @@
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>1116</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23BA91-921F-45A7-98B8-1590032C4CE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF065362-EDE8-4AD1-B82E-2D29C19B98F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1171">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -3722,6 +3722,9 @@
   </si>
   <si>
     <t>hyym@swzp.com</t>
+  </si>
+  <si>
+    <t>sbnyb@sohu.com</t>
   </si>
 </sst>
 </file>
@@ -8140,11 +8143,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC4E64-42FE-475D-A017-E756E3B324A0}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8855,6 +8858,11 @@
         <v>1169</v>
       </c>
     </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1518">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -4428,6 +4428,411 @@
   </si>
   <si>
     <t>vyou@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>shuxue@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>uli@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>huaxue@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>xyxypresident@126.com</t>
+  </si>
+  <si>
+    <t>ryg@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>iyu@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>dlmu_zyxw@163.com</t>
+  </si>
+  <si>
+    <t>chinesestudydmu@gmail.com</t>
+  </si>
+  <si>
+    <t>东软信息学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>president@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin@qiananhua.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaihongkun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>houqin@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>hufangyu@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>job@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangdi@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>neusoftxgb@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>sundezhi@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wangqiang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wangxiujuan@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujie@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangqian@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhaojingjing@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhaojingling@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>52529401@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caoxxin@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>dongyueli@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>jiangmin@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangling@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liudan_j@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liuzhenyu@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>renchangning@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunfengdong@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>sunwei@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>tengyingyan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wanghong@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>xiongyaohua@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangdongqing@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyong@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengchunjun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhengjunsheng@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>chentingbin@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>luyanxia@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wangxiaoyu@neusoft.edu</t>
+  </si>
+  <si>
+    <t>wudi@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>dulinbin@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>hanti@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>hanxue@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juernan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liujiagui@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liulong@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liushutian@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>luoliquan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>shenhua@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>songwenbin@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>songxz@sohu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunlifei@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>sunxiaoling@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wangqixuan@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangsen@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wangwei_q@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>wutong@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaojun@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangdechao@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangqiaoefen@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangyang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangyongfeng@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhengjijun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhouguoshun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>chengzhuo@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>jiayue@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>litingting@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>songguijuan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>ovo@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>lilianfu@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>songying@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>yinfengzhi@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>uhang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>yuhang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>hezhao@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neushimmer@outlook.com</t>
+  </si>
+  <si>
+    <t>himmer@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>info@dlut.edu.cn</t>
+  </si>
+  <si>
+    <t>jjwbgs@dlut.edu.cn</t>
+  </si>
+  <si>
+    <t>study@dlmu.edu.cn</t>
+  </si>
+  <si>
+    <t>tudy@dlmu.edu.cn</t>
+  </si>
+  <si>
+    <t>studyingdmu@dlmu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangli@neusoft.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain_cognition@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netcenter@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zb@lnnu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probgs@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>stzb@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>lsdjw@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>txfwzx@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>lsd8264@163.com</t>
+  </si>
+  <si>
+    <t>jsjyk@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>jwc_bgs@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>jwk@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>jxyjs@lnnu.edu.cn</t>
+  </si>
+  <si>
+    <t>lnulsl@163.com</t>
+  </si>
+  <si>
+    <t>ls_ysc@163.com</t>
+  </si>
+  <si>
+    <t>lvjianbo819@163.com</t>
+  </si>
+  <si>
+    <t>panli23@163.com</t>
+  </si>
+  <si>
+    <t>sjk@lnnu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlloffice@163.com</t>
+  </si>
+  <si>
+    <t>13614090213@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1461790916@qq.com</t>
+  </si>
+  <si>
+    <t>41869413@qq.com</t>
+  </si>
+  <si>
+    <t>54293873@qq.com</t>
+  </si>
+  <si>
+    <t>andy-wangqiang@163.com</t>
+  </si>
+  <si>
+    <t>baox1973@163.com</t>
+  </si>
+  <si>
+    <t>daben0209@163.com</t>
+  </si>
+  <si>
+    <t>dlmxj64@126.com</t>
+  </si>
+  <si>
+    <t>dlxiahong@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du_lh2008@yeah.net</t>
+  </si>
+  <si>
+    <t>liuguifu2233@sina.com</t>
+  </si>
+  <si>
+    <t>sally_ts_li@163.com</t>
+  </si>
+  <si>
+    <t>shuxuejiaoxue66@163.com</t>
+  </si>
+  <si>
+    <t>sun9199@163.com</t>
+  </si>
+  <si>
+    <t>suyanhong2494@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb84234163@126.com</t>
+  </si>
+  <si>
+    <t>xudan252@163.com</t>
+  </si>
+  <si>
+    <t>yangmeils@163.com</t>
+  </si>
+  <si>
+    <t>ysx618@163.com</t>
+  </si>
+  <si>
+    <t>yxmlnnu@126.com</t>
+  </si>
+  <si>
+    <t>zly75yd@163.com</t>
   </si>
 </sst>
 </file>
@@ -4855,7 +5260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9583,11 +9988,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9599,9 +10004,10 @@
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1171</v>
       </c>
@@ -9623,8 +10029,11 @@
       <c r="G1" s="10" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1172</v>
       </c>
@@ -9646,8 +10055,11 @@
       <c r="G2" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1173</v>
       </c>
@@ -9669,8 +10081,11 @@
       <c r="G3" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1174</v>
       </c>
@@ -9692,8 +10107,11 @@
       <c r="G4" s="1" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1175</v>
       </c>
@@ -9715,8 +10133,11 @@
       <c r="G5" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1176</v>
       </c>
@@ -9735,8 +10156,11 @@
       <c r="G6" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1177</v>
       </c>
@@ -9755,8 +10179,11 @@
       <c r="G7" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1178</v>
       </c>
@@ -9775,8 +10202,11 @@
       <c r="G8" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1179</v>
       </c>
@@ -9795,8 +10225,11 @@
       <c r="G9" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1180</v>
       </c>
@@ -9815,8 +10248,11 @@
       <c r="G10" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1268</v>
       </c>
@@ -9835,8 +10271,11 @@
       <c r="G11" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1323</v>
       </c>
@@ -9855,8 +10294,11 @@
       <c r="G12" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1342</v>
       </c>
@@ -9875,8 +10317,11 @@
       <c r="G13" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1355</v>
       </c>
@@ -9895,8 +10340,11 @@
       <c r="G14" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1379</v>
       </c>
@@ -9915,8 +10363,11 @@
       <c r="G15" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1380</v>
       </c>
@@ -9935,8 +10386,11 @@
       <c r="G16" s="1" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1381</v>
       </c>
@@ -9955,8 +10409,11 @@
       <c r="G17" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1382</v>
       </c>
@@ -9975,8 +10432,14 @@
       <c r="G18" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1473</v>
+      </c>
       <c r="B19" t="s">
         <v>1211</v>
       </c>
@@ -9992,8 +10455,14 @@
       <c r="G19" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1474</v>
+      </c>
       <c r="B20" t="s">
         <v>1212</v>
       </c>
@@ -10009,8 +10478,11 @@
       <c r="G20" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1213</v>
       </c>
@@ -10026,8 +10498,11 @@
       <c r="G21" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1214</v>
       </c>
@@ -10043,8 +10518,11 @@
       <c r="G22" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1215</v>
       </c>
@@ -10060,8 +10538,11 @@
       <c r="G23" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1216</v>
       </c>
@@ -10074,8 +10555,14 @@
       <c r="E24" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1217</v>
       </c>
@@ -10088,8 +10575,14 @@
       <c r="E25" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1218</v>
       </c>
@@ -10102,8 +10595,14 @@
       <c r="E26" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>1219</v>
       </c>
@@ -10116,8 +10615,14 @@
       <c r="E27" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1220</v>
       </c>
@@ -10130,8 +10635,14 @@
       <c r="E28" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>1221</v>
       </c>
@@ -10144,8 +10655,14 @@
       <c r="E29" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1222</v>
       </c>
@@ -10155,8 +10672,14 @@
       <c r="E30" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1223</v>
       </c>
@@ -10166,8 +10689,14 @@
       <c r="E31" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1224</v>
       </c>
@@ -10177,8 +10706,14 @@
       <c r="E32" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1225</v>
       </c>
@@ -10188,8 +10723,14 @@
       <c r="E33" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1226</v>
       </c>
@@ -10199,8 +10740,14 @@
       <c r="E34" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>1227</v>
       </c>
@@ -10210,229 +10757,469 @@
       <c r="E35" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>1228</v>
       </c>
       <c r="C36" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>1229</v>
       </c>
       <c r="C37" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>1230</v>
       </c>
       <c r="C38" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1231</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>1232</v>
       </c>
       <c r="C40" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>1233</v>
       </c>
       <c r="C41" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>1234</v>
       </c>
       <c r="C42" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1235</v>
       </c>
       <c r="C43" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G56" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G62" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H73" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1354</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -10445,8 +11232,30 @@
     <hyperlink ref="G4" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H7" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
+    <hyperlink ref="H21" r:id="rId13"/>
+    <hyperlink ref="H25" r:id="rId14"/>
+    <hyperlink ref="H31" r:id="rId15"/>
+    <hyperlink ref="H32" r:id="rId16"/>
+    <hyperlink ref="H41" r:id="rId17"/>
+    <hyperlink ref="H49" r:id="rId18"/>
+    <hyperlink ref="H52" r:id="rId19"/>
+    <hyperlink ref="H55" r:id="rId20"/>
+    <hyperlink ref="H56" r:id="rId21"/>
+    <hyperlink ref="H57" r:id="rId22"/>
+    <hyperlink ref="H73" r:id="rId23"/>
+    <hyperlink ref="H14" r:id="rId24"/>
+    <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G46" r:id="rId26"/>
+    <hyperlink ref="G48" r:id="rId27"/>
+    <hyperlink ref="G56" r:id="rId28"/>
+    <hyperlink ref="G62" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="h1" sheetId="4" r:id="rId4"/>
     <sheet name="h2" sheetId="5" r:id="rId5"/>
-    <sheet name="s1" sheetId="6" r:id="rId6"/>
+    <sheet name="L1" sheetId="6" r:id="rId6"/>
+    <sheet name="L2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1538">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -4459,6 +4460,9 @@
   </si>
   <si>
     <t>president@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>president@neusoft.edu.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4833,6 +4837,65 @@
   </si>
   <si>
     <t>zly75yd@163.com</t>
+  </si>
+  <si>
+    <t>jk@lnnu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>846809122@qq.com</t>
+  </si>
+  <si>
+    <t>aiwanyun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>sunyan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>yangtao@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangzhiliang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zouxiang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>ebmaster@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>eusoftxgb@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>nquiry@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>东北大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbdxjwc@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhonghuaz@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>ygcg@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>jjh@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>5590@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>euyouthnews@163.com</t>
+  </si>
+  <si>
+    <t>angy@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>85590@mail.neu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -9988,11 +10051,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10056,7 +10119,7 @@
         <v>1360</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -10082,7 +10145,7 @@
         <v>1361</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -10108,7 +10171,7 @@
         <v>1362</v>
       </c>
       <c r="H4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -10134,7 +10197,7 @@
         <v>1363</v>
       </c>
       <c r="H5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -10157,7 +10220,7 @@
         <v>1364</v>
       </c>
       <c r="H6" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -10180,7 +10243,7 @@
         <v>1365</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -10203,7 +10266,7 @@
         <v>1367</v>
       </c>
       <c r="H8" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -10226,7 +10289,7 @@
         <v>1368</v>
       </c>
       <c r="H9" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10249,7 +10312,7 @@
         <v>1369</v>
       </c>
       <c r="H10" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10272,7 +10335,7 @@
         <v>1370</v>
       </c>
       <c r="H11" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -10295,7 +10358,7 @@
         <v>819</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10318,7 +10381,7 @@
         <v>820</v>
       </c>
       <c r="H13" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10341,7 +10404,7 @@
         <v>1371</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10364,7 +10427,7 @@
         <v>1372</v>
       </c>
       <c r="H15" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -10387,7 +10450,7 @@
         <v>1383</v>
       </c>
       <c r="H16" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -10410,7 +10473,7 @@
         <v>1384</v>
       </c>
       <c r="H17" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -10433,12 +10496,12 @@
         <v>1385</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B19" t="s">
         <v>1211</v>
@@ -10456,12 +10519,12 @@
         <v>1386</v>
       </c>
       <c r="H19" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B20" t="s">
         <v>1212</v>
@@ -10479,7 +10542,7 @@
         <v>1387</v>
       </c>
       <c r="H20" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -10499,7 +10562,7 @@
         <v>1388</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -10519,7 +10582,7 @@
         <v>1389</v>
       </c>
       <c r="H22" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -10539,7 +10602,7 @@
         <v>1390</v>
       </c>
       <c r="H23" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -10559,7 +10622,7 @@
         <v>1391</v>
       </c>
       <c r="H24" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -10579,7 +10642,7 @@
         <v>1392</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -10599,7 +10662,7 @@
         <v>1393</v>
       </c>
       <c r="H26" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -10619,7 +10682,7 @@
         <v>1394</v>
       </c>
       <c r="H27" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -10639,7 +10702,7 @@
         <v>1395</v>
       </c>
       <c r="H28" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -10659,7 +10722,7 @@
         <v>1396</v>
       </c>
       <c r="H29" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -10673,10 +10736,10 @@
         <v>1366</v>
       </c>
       <c r="G30" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H30" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -10690,10 +10753,10 @@
         <v>1373</v>
       </c>
       <c r="G31" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -10707,10 +10770,10 @@
         <v>1374</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -10724,10 +10787,10 @@
         <v>1375</v>
       </c>
       <c r="G33" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H33" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -10741,10 +10804,10 @@
         <v>1376</v>
       </c>
       <c r="G34" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H34" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -10758,10 +10821,10 @@
         <v>1377</v>
       </c>
       <c r="G35" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H35" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -10772,10 +10835,10 @@
         <v>1339</v>
       </c>
       <c r="G36" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H36" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -10786,10 +10849,10 @@
         <v>1340</v>
       </c>
       <c r="G37" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H37" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -10800,10 +10863,10 @@
         <v>1341</v>
       </c>
       <c r="G38" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H38" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -10814,10 +10877,10 @@
         <v>1343</v>
       </c>
       <c r="G39" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H39" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -10828,10 +10891,10 @@
         <v>1351</v>
       </c>
       <c r="G40" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H40" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -10842,10 +10905,10 @@
         <v>1352</v>
       </c>
       <c r="G41" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -10856,10 +10919,10 @@
         <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H42" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -10870,10 +10933,10 @@
         <v>1378</v>
       </c>
       <c r="G43" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H43" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -10884,10 +10947,10 @@
         <v>1397</v>
       </c>
       <c r="G44" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H44" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -10898,10 +10961,10 @@
         <v>1398</v>
       </c>
       <c r="G45" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H45" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -10909,13 +10972,13 @@
         <v>1238</v>
       </c>
       <c r="C46" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H46" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -10923,13 +10986,13 @@
         <v>1239</v>
       </c>
       <c r="C47" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G47" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H47" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -10937,13 +11000,13 @@
         <v>1240</v>
       </c>
       <c r="C48" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H48" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -10951,10 +11014,10 @@
         <v>1241</v>
       </c>
       <c r="G49" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -10962,10 +11025,10 @@
         <v>1242</v>
       </c>
       <c r="G50" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H50" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -10973,10 +11036,10 @@
         <v>1243</v>
       </c>
       <c r="G51" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H51" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -10984,10 +11047,10 @@
         <v>1244</v>
       </c>
       <c r="G52" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -10995,10 +11058,10 @@
         <v>1245</v>
       </c>
       <c r="G53" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H53" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -11006,10 +11069,10 @@
         <v>1246</v>
       </c>
       <c r="G54" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H54" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -11017,10 +11080,10 @@
         <v>1247</v>
       </c>
       <c r="G55" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -11028,10 +11091,10 @@
         <v>1248</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -11039,10 +11102,10 @@
         <v>1249</v>
       </c>
       <c r="G57" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -11050,10 +11113,10 @@
         <v>1250</v>
       </c>
       <c r="G58" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H58" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -11061,10 +11124,10 @@
         <v>1269</v>
       </c>
       <c r="G59" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H59" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -11072,10 +11135,10 @@
         <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H60" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -11083,10 +11146,10 @@
         <v>1279</v>
       </c>
       <c r="G61" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H61" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -11094,10 +11157,10 @@
         <v>1280</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H62" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -11105,10 +11168,10 @@
         <v>1281</v>
       </c>
       <c r="G63" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H63" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -11116,10 +11179,10 @@
         <v>1282</v>
       </c>
       <c r="G64" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H64" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -11127,10 +11190,10 @@
         <v>1283</v>
       </c>
       <c r="G65" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H65" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -11138,10 +11201,10 @@
         <v>1284</v>
       </c>
       <c r="G66" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H66" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -11149,10 +11212,10 @@
         <v>1285</v>
       </c>
       <c r="G67" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H67" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -11160,26 +11223,32 @@
         <v>1286</v>
       </c>
       <c r="G68" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H68" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1287</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>1519</v>
+      </c>
       <c r="H69" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1288</v>
       </c>
+      <c r="G70" t="s">
+        <v>1520</v>
+      </c>
       <c r="H70" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -11187,7 +11256,7 @@
         <v>1293</v>
       </c>
       <c r="H71" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -11195,7 +11264,7 @@
         <v>1324</v>
       </c>
       <c r="H72" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -11203,7 +11272,7 @@
         <v>1325</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
@@ -11211,7 +11280,7 @@
         <v>1353</v>
       </c>
       <c r="H74" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -11219,7 +11288,47 @@
         <v>1354</v>
       </c>
       <c r="H75" t="s">
-        <v>1472</v>
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -11254,8 +11363,82 @@
     <hyperlink ref="G48" r:id="rId27"/>
     <hyperlink ref="G56" r:id="rId28"/>
     <hyperlink ref="G62" r:id="rId29"/>
+    <hyperlink ref="G69" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1555">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -4896,6 +4896,61 @@
   </si>
   <si>
     <t>85590@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>jiaoshisi@moe.edu.cn</t>
+  </si>
+  <si>
+    <t>mbls2018@163.com</t>
+  </si>
+  <si>
+    <t>辽宁大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyhlnu@126.com</t>
+  </si>
+  <si>
+    <t>2202250@lnu.edu.cn</t>
+  </si>
+  <si>
+    <t>library@lnu.edu.cn</t>
+  </si>
+  <si>
+    <t>xxgkjclnu@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxgklnu@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62202049@163.com</t>
+  </si>
+  <si>
+    <t>中国医科大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muxyh@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cmuiec@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cqcac@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>mqu@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>xxgk@mail.cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>lnuzbcg@163.com</t>
+  </si>
+  <si>
+    <t>shengjing@sj-hospital.org</t>
   </si>
 </sst>
 </file>
@@ -10053,9 +10108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11254,6 +11309,9 @@
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>1293</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1538</v>
       </c>
       <c r="H71" t="s">
         <v>1469</v>
@@ -11372,73 +11430,126 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1540</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1539</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1568">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -4951,6 +4951,45 @@
   </si>
   <si>
     <t>shengjing@sj-hospital.org</t>
+  </si>
+  <si>
+    <t>ianji@eol.cn</t>
+  </si>
+  <si>
+    <t>webmaster@eol.cn</t>
+  </si>
+  <si>
+    <t>chengyanpeng@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>engshixuan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangtingting@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>laiwanyun@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>liwei200511@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>ihaoyuan@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>yaoli@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>angxiaotang@neusoft.edu.cn</t>
+  </si>
+  <si>
+    <t>still_night@163.com</t>
+  </si>
+  <si>
+    <t>xy@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>neursc@mail.neu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -10106,11 +10145,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11387,6 +11426,56 @@
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
         <v>1528</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -11430,10 +11519,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11527,11 +11616,17 @@
       <c r="B8" t="s">
         <v>1553</v>
       </c>
+      <c r="C8" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
+      <c r="C9" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -11541,6 +11636,11 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1567</v>
       </c>
     </row>
   </sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1594">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -4990,6 +4990,85 @@
   </si>
   <si>
     <t>neursc@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>lzx56@163.com</t>
+  </si>
+  <si>
+    <t>zx56@163.com</t>
+  </si>
+  <si>
+    <t>392176792@qq.com</t>
+  </si>
+  <si>
+    <t>cmufzghc@126.com</t>
+  </si>
+  <si>
+    <t>辽宁工程技术大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>service@anymacro.com</t>
+  </si>
+  <si>
+    <t>lntuyzx@163.com</t>
+  </si>
+  <si>
+    <t>lngdxcb@163.com</t>
+  </si>
+  <si>
+    <t>xcb@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>xsc@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cmugs@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>liuwt@mail.cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>350462@163.com</t>
+  </si>
+  <si>
+    <t>6821606@qq.com</t>
+  </si>
+  <si>
+    <t>lnchenkai@163.com</t>
+  </si>
+  <si>
+    <t>tttzy99999@163.com</t>
+  </si>
+  <si>
+    <t>sie@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>wsc3351672@126.com</t>
+  </si>
+  <si>
+    <t>embalnu@sina.cn</t>
+  </si>
+  <si>
+    <t>network@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>xuling@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>xsg@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>yidaxiaobao@hotmail.com</t>
+  </si>
+  <si>
+    <t>bkzsb@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cmubyb@126.com</t>
   </si>
 </sst>
 </file>
@@ -11519,20 +11598,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -11542,8 +11623,11 @@
       <c r="C1" s="10" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -11553,8 +11637,11 @@
       <c r="C2" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -11564,8 +11651,11 @@
       <c r="C3" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -11575,8 +11665,11 @@
       <c r="C4" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
@@ -11586,8 +11679,11 @@
       <c r="C5" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
@@ -11597,8 +11693,11 @@
       <c r="C6" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -11608,8 +11707,11 @@
       <c r="C7" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -11619,28 +11721,93 @@
       <c r="C8" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
+      <c r="B9" t="s">
+        <v>1568</v>
+      </c>
       <c r="C9" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1567</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>1593</v>
       </c>
     </row>
   </sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1660">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -5069,6 +5069,208 @@
   </si>
   <si>
     <t>cmubyb@126.com</t>
+  </si>
+  <si>
+    <t>1766366174@qq.com</t>
+  </si>
+  <si>
+    <t>adilbisht@yahoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjhlnu@126.com</t>
+  </si>
+  <si>
+    <t>koreantony@hotmail.com</t>
+  </si>
+  <si>
+    <t>lwangny@yahoo.com</t>
+  </si>
+  <si>
+    <t>ray.sun@eduwo.com</t>
+  </si>
+  <si>
+    <t>sergeev@tdsergeev.ru</t>
+  </si>
+  <si>
+    <t>shengyi673@yahoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z.shengke@gmail.com</t>
+  </si>
+  <si>
+    <t>aganeu@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>yjjy@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>secretary@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>president@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>xydwsj@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>yejinyzxx@126.com</t>
+  </si>
+  <si>
+    <t>b1cmuiec@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>spyb@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>1095931916@qq.com</t>
+  </si>
+  <si>
+    <t>njytjcc@163.com</t>
+  </si>
+  <si>
+    <t>lnjytjcc@163.com</t>
+  </si>
+  <si>
+    <t>lnjytycc@163.com</t>
+  </si>
+  <si>
+    <t>cmuhr@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>mucareer@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>沈阳工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoban_sut@163.com</t>
+  </si>
+  <si>
+    <t>ynet@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>mba@sut.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysc303@163.com</t>
+  </si>
+  <si>
+    <t>xiaoyou@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>angying1127@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>chensong@pe.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>cmuxgh@163.com</t>
+  </si>
+  <si>
+    <t>muxgh@163.com</t>
+  </si>
+  <si>
+    <t>ella_1614@163.com</t>
+  </si>
+  <si>
+    <t>gdjyxy@lntu.edu.cn</t>
+  </si>
+  <si>
+    <t>zy-jx@163.com</t>
+  </si>
+  <si>
+    <t>cmuxyh@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>lgdyjscxzx@126.com</t>
+  </si>
+  <si>
+    <t>by3350464@126.com</t>
+  </si>
+  <si>
+    <t>13744811@qq.com</t>
+  </si>
+  <si>
+    <t>3350462@163.com</t>
+  </si>
+  <si>
+    <t>wyxy@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>zbgs@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>syhgxy@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>jjch@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>92440543@qq.com</t>
+  </si>
+  <si>
+    <t>cchen@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>lantai@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>gcss@tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>info@cird.org.cn</t>
+  </si>
+  <si>
+    <t>neuph@neupress.com</t>
+  </si>
+  <si>
+    <t>haoban_sut@163.com</t>
+  </si>
+  <si>
+    <t>ebmaster@pku.edu.cn</t>
+  </si>
+  <si>
+    <t>guanzhangxinxiang@126.com</t>
+  </si>
+  <si>
+    <t>library@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>lndxsjc@163.com</t>
+  </si>
+  <si>
+    <t>ldtzb879@sina.com</t>
+  </si>
+  <si>
+    <t>sygdxb@163.com</t>
+  </si>
+  <si>
+    <t>skbxb@126.com</t>
+  </si>
+  <si>
+    <t>menggentong@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>sunsm@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>cueb@mycoss.org</t>
+  </si>
+  <si>
+    <t>dbdx@mycoss.org</t>
+  </si>
+  <si>
+    <t>lnutw@126.com</t>
+  </si>
+  <si>
+    <t>wd@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>program@istic.ac.cn</t>
   </si>
 </sst>
 </file>
@@ -5496,7 +5698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11598,22 +11800,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -11626,8 +11829,11 @@
       <c r="D1" s="8" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -11640,8 +11846,11 @@
       <c r="D2" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -11654,8 +11863,11 @@
       <c r="D3" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -11668,12 +11880,15 @@
       <c r="D4" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>1544</v>
       </c>
       <c r="C5" t="s">
@@ -11682,12 +11897,15 @@
       <c r="D5" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>1545</v>
       </c>
       <c r="C6" t="s">
@@ -11696,8 +11914,11 @@
       <c r="D6" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -11710,8 +11931,11 @@
       <c r="D7" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -11724,8 +11948,11 @@
       <c r="D8" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
@@ -11738,8 +11965,11 @@
       <c r="D9" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
@@ -11752,8 +11982,11 @@
       <c r="D10" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
@@ -11766,8 +11999,11 @@
       <c r="D11" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1567</v>
       </c>
@@ -11780,24 +12016,51 @@
       <c r="D12" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1594</v>
+      </c>
       <c r="C13" t="s">
         <v>1580</v>
       </c>
       <c r="D13" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1595</v>
+      </c>
       <c r="C14" t="s">
         <v>1591</v>
       </c>
       <c r="D14" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1596</v>
+      </c>
       <c r="C15" t="s">
         <v>1592</v>
       </c>
@@ -11805,18 +12068,198 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1597</v>
+      </c>
       <c r="C16" t="s">
         <v>1593</v>
       </c>
+      <c r="D16" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>1646</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1727">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -5271,6 +5271,212 @@
   </si>
   <si>
     <t>program@istic.ac.cn</t>
+  </si>
+  <si>
+    <t>guxiaowei@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>大连工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>jjjc@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>xwb@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>iced@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>kjc@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>ib@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>bgb@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>sunhongbin@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>wangzhan@cutech.edu.cn</t>
+  </si>
+  <si>
+    <t>sygydxjw@163.com</t>
+  </si>
+  <si>
+    <t>zhaoban@sut.edu.cn</t>
+  </si>
+  <si>
+    <t>rss@moe.edu.cn</t>
+  </si>
+  <si>
+    <t>xyh@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>zsbgs@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>yjsxy@dlpu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzb@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>ceptc@lnu.edu.cn</t>
+  </si>
+  <si>
+    <t>沈阳大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sydxrszp@163.com</t>
+  </si>
+  <si>
+    <t>sydxxcb@126.com</t>
+  </si>
+  <si>
+    <t>rsrc@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>gh@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lndsxszdlgy@163.com</t>
+  </si>
+  <si>
+    <t>eijunxia@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>hongfeng-dl@163.com</t>
+  </si>
+  <si>
+    <t>dalianhengxin163@163.com</t>
+  </si>
+  <si>
+    <t>gzc@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib_circ@dlpu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib_docu@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib_info@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib_jour@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lib_tech@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>hxy@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>605311796@qq.com</t>
+  </si>
+  <si>
+    <t>weijunxia@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>jxm@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>gjjl@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>jjl@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>wty@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>sydxbys@163.com</t>
+  </si>
+  <si>
+    <t>djw6973@126.com</t>
+  </si>
+  <si>
+    <t>沈阳理工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syluxzxx@126.com</t>
+  </si>
+  <si>
+    <t>sylgzp@163.com</t>
+  </si>
+  <si>
+    <t>fengyongxin@263.net</t>
+  </si>
+  <si>
+    <t>liujun2699@126.com</t>
+  </si>
+  <si>
+    <t>missjiangyueqiu@sina.com</t>
+  </si>
+  <si>
+    <t>syithst@163.com</t>
+  </si>
+  <si>
+    <t>sylgbgb@163.com</t>
+  </si>
+  <si>
+    <t>xiaoyang_hu@163.com</t>
+  </si>
+  <si>
+    <t>yphsit@126.com</t>
+  </si>
+  <si>
+    <t>zbgc2003@aliyun.com</t>
+  </si>
+  <si>
+    <t>erwinaligam-ealigam@gmail.com</t>
+  </si>
+  <si>
+    <t>henyanglilin@sohu.com</t>
+  </si>
+  <si>
+    <t>sitlily@aliyun.com</t>
+  </si>
+  <si>
+    <t>sylggjhz@sina.com</t>
+  </si>
+  <si>
+    <t>metc@sylu.edu.cn</t>
+  </si>
+  <si>
+    <t>jwc@mail.sylu.edu.cn</t>
+  </si>
+  <si>
+    <t>jwcjfjs@sylu.edu.cn</t>
+  </si>
+  <si>
+    <t>wc@mail.sylu.edu.cn</t>
+  </si>
+  <si>
+    <t>24686098@163.com</t>
+  </si>
+  <si>
+    <t>syitnew@vip.sina.com</t>
+  </si>
+  <si>
+    <t>syluxy@yeah.net</t>
+  </si>
+  <si>
+    <t>mbasylu@163.com</t>
   </si>
 </sst>
 </file>
@@ -11800,11 +12006,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11814,9 +12020,12 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -11832,8 +12041,17 @@
       <c r="E1" s="10" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -11849,8 +12067,17 @@
       <c r="E2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -11866,8 +12093,17 @@
       <c r="E3" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -11883,8 +12119,17 @@
       <c r="E4" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
@@ -11900,8 +12145,17 @@
       <c r="E5" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
@@ -11917,8 +12171,14 @@
       <c r="E6" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -11934,8 +12194,14 @@
       <c r="E7" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -11951,8 +12217,14 @@
       <c r="E8" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
@@ -11968,8 +12240,14 @@
       <c r="E9" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
@@ -11985,8 +12263,14 @@
       <c r="E10" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
@@ -12002,8 +12286,14 @@
       <c r="E11" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1567</v>
       </c>
@@ -12019,8 +12309,14 @@
       <c r="E12" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1603</v>
       </c>
@@ -12036,8 +12332,14 @@
       <c r="E13" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1608</v>
       </c>
@@ -12053,8 +12355,14 @@
       <c r="E14" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1623</v>
       </c>
@@ -12067,8 +12375,17 @@
       <c r="D15" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1624</v>
       </c>
@@ -12081,8 +12398,17 @@
       <c r="D16" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1638</v>
       </c>
@@ -12095,8 +12421,14 @@
       <c r="D17" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1639</v>
       </c>
@@ -12109,8 +12441,14 @@
       <c r="D18" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -12123,8 +12461,14 @@
       <c r="D19" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1644</v>
       </c>
@@ -12137,8 +12481,14 @@
       <c r="D20" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1653</v>
       </c>
@@ -12151,8 +12501,14 @@
       <c r="D21" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1654</v>
       </c>
@@ -12165,8 +12521,14 @@
       <c r="D22" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1655</v>
       </c>
@@ -12179,8 +12541,14 @@
       <c r="D23" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1656</v>
       </c>
@@ -12193,73 +12561,119 @@
       <c r="D24" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1658</v>
       </c>
+      <c r="B25" t="s">
+        <v>1678</v>
+      </c>
       <c r="C25" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1660</v>
+      </c>
       <c r="C26" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1673</v>
+      </c>
       <c r="C27" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1685</v>
+      </c>
       <c r="C28" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1695</v>
+      </c>
       <c r="C29" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1696</v>
+      </c>
       <c r="C30" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1697</v>
+      </c>
       <c r="C31" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1698</v>
+      </c>
       <c r="C32" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1699</v>
+      </c>
       <c r="C33" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1700</v>
+      </c>
       <c r="C34" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1701</v>
+      </c>
       <c r="C35" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>1646</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="1740">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -5477,6 +5477,47 @@
   </si>
   <si>
     <t>mbasylu@163.com</t>
+  </si>
+  <si>
+    <t>lxsh@mail.neu.edu.cn</t>
+  </si>
+  <si>
+    <t>ib_info@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>24686162@163.com</t>
+  </si>
+  <si>
+    <t>jyb@jyb.com.cn</t>
+  </si>
+  <si>
+    <t>58004373@qq.com</t>
+  </si>
+  <si>
+    <t>mrchen370489175@qq.com</t>
+  </si>
+  <si>
+    <t>ieec-syu@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimuweb@126.com</t>
+  </si>
+  <si>
+    <t>sydxjyk@163.com</t>
+  </si>
+  <si>
+    <t>xscjygl@126.com</t>
+  </si>
+  <si>
+    <t>scjygl@126.com</t>
+  </si>
+  <si>
+    <t>xscqgzx@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsc@syu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -12009,8 +12050,8 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12020,7 +12061,7 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
@@ -12174,6 +12215,9 @@
       <c r="F6" t="s">
         <v>1666</v>
       </c>
+      <c r="G6" t="s">
+        <v>819</v>
+      </c>
       <c r="H6" t="s">
         <v>1709</v>
       </c>
@@ -12197,6 +12241,9 @@
       <c r="F7" t="s">
         <v>1667</v>
       </c>
+      <c r="G7" t="s">
+        <v>820</v>
+      </c>
       <c r="H7" t="s">
         <v>1710</v>
       </c>
@@ -12220,6 +12267,9 @@
       <c r="F8" t="s">
         <v>1668</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>1733</v>
+      </c>
       <c r="H8" t="s">
         <v>1711</v>
       </c>
@@ -12243,6 +12293,9 @@
       <c r="F9" t="s">
         <v>1669</v>
       </c>
+      <c r="G9" t="s">
+        <v>1734</v>
+      </c>
       <c r="H9" t="s">
         <v>1712</v>
       </c>
@@ -12266,6 +12319,9 @@
       <c r="F10" t="s">
         <v>1674</v>
       </c>
+      <c r="G10" t="s">
+        <v>1735</v>
+      </c>
       <c r="H10" t="s">
         <v>1713</v>
       </c>
@@ -12289,6 +12345,9 @@
       <c r="F11" t="s">
         <v>1675</v>
       </c>
+      <c r="G11" t="s">
+        <v>1736</v>
+      </c>
       <c r="H11" t="s">
         <v>1714</v>
       </c>
@@ -12312,6 +12371,9 @@
       <c r="F12" s="1" t="s">
         <v>1676</v>
       </c>
+      <c r="G12" t="s">
+        <v>1737</v>
+      </c>
       <c r="H12" t="s">
         <v>1715</v>
       </c>
@@ -12335,6 +12397,9 @@
       <c r="F13" t="s">
         <v>1677</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>1738</v>
+      </c>
       <c r="H13" t="s">
         <v>1716</v>
       </c>
@@ -12358,6 +12423,9 @@
       <c r="F14" t="s">
         <v>1682</v>
       </c>
+      <c r="G14" t="s">
+        <v>1739</v>
+      </c>
       <c r="H14" t="s">
         <v>1717</v>
       </c>
@@ -12564,6 +12632,9 @@
       <c r="F24" t="s">
         <v>1693</v>
       </c>
+      <c r="H24" t="s">
+        <v>1729</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -12581,6 +12652,9 @@
       <c r="F25" t="s">
         <v>1694</v>
       </c>
+      <c r="H25" t="s">
+        <v>1730</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -12589,6 +12663,12 @@
       <c r="C26" t="s">
         <v>1614</v>
       </c>
+      <c r="F26" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1731</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -12597,6 +12677,12 @@
       <c r="C27" t="s">
         <v>1615</v>
       </c>
+      <c r="F27" t="s">
+        <v>693</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -12605,6 +12691,9 @@
       <c r="C28" t="s">
         <v>1616</v>
       </c>
+      <c r="H28" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -12613,6 +12702,9 @@
       <c r="C29" t="s">
         <v>1625</v>
       </c>
+      <c r="H29" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -12663,6 +12755,9 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1727</v>
+      </c>
       <c r="C36" t="s">
         <v>1646</v>
       </c>
@@ -12672,8 +12767,10 @@
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1"/>
     <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="h2" sheetId="5" r:id="rId5"/>
     <sheet name="L1" sheetId="6" r:id="rId6"/>
     <sheet name="L2" sheetId="7" r:id="rId7"/>
+    <sheet name="L3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1962">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -5518,6 +5519,690 @@
   </si>
   <si>
     <t>xsc@syu.edu.cn</t>
+  </si>
+  <si>
+    <t>libdep@dhu.edu.cn</t>
+  </si>
+  <si>
+    <t>postdoctor@126.com</t>
+  </si>
+  <si>
+    <t>gq6552002@aliyun.com</t>
+  </si>
+  <si>
+    <t>houhongman@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhubeiwei@163.com</t>
+  </si>
+  <si>
+    <t>zhujingb@sina.com</t>
+  </si>
+  <si>
+    <t>rsc@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>webmaster@dlpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lnugrs@lnu.edu.cn</t>
+  </si>
+  <si>
+    <t>大连海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqx@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>fengduo@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>hyc@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>lshsong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>president@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wangyuqing@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wulianchen@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangguochen@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlt@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>uyujing@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ingguan@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>yscm@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>cnc@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>10158@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>xsc@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ebmaster@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>jiangjunhe08@163.com</t>
+  </si>
+  <si>
+    <t>syxmcxl@163.com</t>
+  </si>
+  <si>
+    <t>hot@nen.com.cn</t>
+  </si>
+  <si>
+    <t>wzx@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>iecd@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>liuxuesheng@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>qzlx@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>hpg@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zk@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>jjc@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>辽宁工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgxzemail@126.com</t>
+  </si>
+  <si>
+    <t>lgdxxgkb@163.com</t>
+  </si>
+  <si>
+    <t>lgjwb@163.com</t>
+  </si>
+  <si>
+    <t>market@chinawebber.com</t>
+  </si>
+  <si>
+    <t>lnutjwcmail@126.com</t>
+  </si>
+  <si>
+    <t>lgdjjy@126.com</t>
+  </si>
+  <si>
+    <t>ngydxkjc@163.com</t>
+  </si>
+  <si>
+    <t>gdxkjy@126.com</t>
+  </si>
+  <si>
+    <t>sydxxb@163.com</t>
+  </si>
+  <si>
+    <t>0158@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>hqjj@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>t@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ngydxyz@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>ngydxzs@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>ngydxjy@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>渤海大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhu@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>webmaster@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>rcyj@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>bdxxgk@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>bhuzzb@126.com</t>
+  </si>
+  <si>
+    <t>bd_zzb@126.com</t>
+  </si>
+  <si>
+    <t>bhukhch@gmail.com</t>
+  </si>
+  <si>
+    <t>bdjwjc20101019@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhugonghui@163.com</t>
+  </si>
+  <si>
+    <t>zst8111@163.com</t>
+  </si>
+  <si>
+    <t>bhdxtw@163.com</t>
+  </si>
+  <si>
+    <t>bhdxkjc@126.com</t>
+  </si>
+  <si>
+    <t>bhdxsjc2012@163.com</t>
+  </si>
+  <si>
+    <t>xgf998866@sina.com</t>
+  </si>
+  <si>
+    <t>885650064@qq.com</t>
+  </si>
+  <si>
+    <t>ztbb@sjtu.edu.cn</t>
+  </si>
+  <si>
+    <t>aspcms@aspcms.com</t>
+  </si>
+  <si>
+    <t>bohaihouqin@sian.com.cn</t>
+  </si>
+  <si>
+    <t>merrymtl@sina.com</t>
+  </si>
+  <si>
+    <t>gzx@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>xxgk@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>lgdxntg@126.com</t>
+  </si>
+  <si>
+    <t>lab@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>lab@scut.edu.cn</t>
+  </si>
+  <si>
+    <t>chenjian@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>woshi909@163.com</t>
+  </si>
+  <si>
+    <t>bhuteacher@163.com</t>
+  </si>
+  <si>
+    <t>3400187@163.com</t>
+  </si>
+  <si>
+    <t>wxgwyx@163.com</t>
+  </si>
+  <si>
+    <t>jinyilixiang@163.com</t>
+  </si>
+  <si>
+    <t>zsxy3400101@163.com</t>
+  </si>
+  <si>
+    <t>zsxyyzyx@163.com</t>
+  </si>
+  <si>
+    <t>yauzsb@126.com</t>
+  </si>
+  <si>
+    <t>hteacher163@.com</t>
+  </si>
+  <si>
+    <t>bd_art@126.com</t>
+  </si>
+  <si>
+    <t>fxyjzws@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>bdxxxy@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdxnyxy@163.com</t>
+  </si>
+  <si>
+    <t>gcj@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>jikui@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>liangkong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>mlzhang@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>yingliu@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>qczhao@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wqk320@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huje@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>hujianen@yahoo.cn</t>
+  </si>
+  <si>
+    <t>aisingioro@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>aisingioro@hotmail.com</t>
+  </si>
+  <si>
+    <t>isingioro@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdd@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzb@dlou.edu.dn</t>
+  </si>
+  <si>
+    <t>jinqiao43@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>qumin2008@163.com</t>
+  </si>
+  <si>
+    <t>changqingtong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>luhang@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>qiyanxia@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>haohui@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wulong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>hyh@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>liushu@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>syf@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>imeng@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>liying@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wanghaibo@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>songzhiyuan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zhouhui@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>dxjsjjyb@bhu.edu.cn</t>
+  </si>
+  <si>
+    <t>bhdxjyb@126.com</t>
+  </si>
+  <si>
+    <t>lgrsc@163.com</t>
+  </si>
+  <si>
+    <t>辽宁石油化工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>xiaozhang@webmail.lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>hdxrsc@163.com</t>
+  </si>
+  <si>
+    <t>15037334@qq.com</t>
+  </si>
+  <si>
+    <t>5037334@qq.com</t>
+  </si>
+  <si>
+    <t>1129380932@qq.com</t>
+  </si>
+  <si>
+    <t>244076813@qq.com</t>
+  </si>
+  <si>
+    <t>13941307370@163.com</t>
+  </si>
+  <si>
+    <t>shuji@webmail.lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>lshwsxmt@163.com</t>
+  </si>
+  <si>
+    <t>lnxuebao@126.com</t>
+  </si>
+  <si>
+    <t>lfjslt@163.com</t>
+  </si>
+  <si>
+    <t>165153622@qq.com</t>
+  </si>
+  <si>
+    <t>derrickyang@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>roberthuo@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>spnajun@aliyun.com</t>
+  </si>
+  <si>
+    <t>bhdxjyl@163.com</t>
+  </si>
+  <si>
+    <t>cwg@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>genglili@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>lhw@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>xuedongjuan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>yangzhou@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ycg@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zxb@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>renchen7@21cn.com</t>
+  </si>
+  <si>
+    <t>npujjh@163.com</t>
+  </si>
+  <si>
+    <t>jianminliang@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>wxcb_lnpu@163.com</t>
+  </si>
+  <si>
+    <t>yanjs@lnpu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnpu_xbbz@163.com</t>
+  </si>
+  <si>
+    <t>rachelleelut@126.com</t>
+  </si>
+  <si>
+    <t>kesioncms@hotmail.com</t>
+  </si>
+  <si>
+    <t>caojiangtao@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>houligang@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>378838165@126qq.com</t>
+  </si>
+  <si>
+    <t>378838165@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhcm1123@163.com</t>
+  </si>
+  <si>
+    <t>utomobile@lnut.edu.cn</t>
+  </si>
+  <si>
+    <t>aoyi@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>hangyingxuan@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>npumzjyxy@163.com</t>
+  </si>
+  <si>
+    <t>辽宁科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzxx@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>nkdxy_dwb@163.com</t>
+  </si>
+  <si>
+    <t>kdshurenwang@126.com</t>
+  </si>
+  <si>
+    <t>sec@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zjhyxysj@zjou.edu.cn</t>
+  </si>
+  <si>
+    <t>zjhyxyxz@zjou.edu.cn</t>
+  </si>
+  <si>
+    <t>xcb@gdou.edu.cn</t>
+  </si>
+  <si>
+    <t>xzb@gdou.edu.cn</t>
+  </si>
+  <si>
+    <t>zxx56860116@163.com</t>
+  </si>
+  <si>
+    <t>shdxjw@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkdyyxy@163.com</t>
+  </si>
+  <si>
+    <t>kjc@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>dkjy@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angtongzhan01@163.com</t>
+  </si>
+  <si>
+    <t>sjc@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>fanqinghua@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>lisongsong@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjm@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>jyb6860885@163.com</t>
+  </si>
+  <si>
+    <t>lnkdjw@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nkdjw@163.com</t>
+  </si>
+  <si>
+    <t>uhong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>xj@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zhang-jing@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>isongsong@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ixj@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>inyuanshan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>liudan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>gujunheng@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ww_wangwei@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ongjinyan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ealxin@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wl@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wying@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>aoye@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>ungeng@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>reebird@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>engjuan@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>fj@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>huanglu@dlou.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iran@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>zsp60123@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>xing1203@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>dg@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>jh@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>aoyp@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>miaoxinying@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>info@czdpc.net</t>
+  </si>
+  <si>
+    <t>lnkdsxh@163.com</t>
+  </si>
+  <si>
+    <t>wc@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>gyzcglc@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>yzcglc@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>44088920@qq.com</t>
+  </si>
+  <si>
+    <t>nkdzak@sina.com</t>
+  </si>
+  <si>
+    <t>2_hgxy@163.com</t>
   </si>
 </sst>
 </file>
@@ -12047,11 +12732,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12062,11 +12747,14 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -12091,8 +12779,17 @@
       <c r="H1" s="8" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -12117,8 +12814,17 @@
       <c r="H2" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -12143,8 +12849,17 @@
       <c r="H3" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -12169,8 +12884,17 @@
       <c r="H4" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
@@ -12195,8 +12919,17 @@
       <c r="H5" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
@@ -12221,8 +12954,17 @@
       <c r="H6" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -12247,8 +12989,17 @@
       <c r="H7" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -12267,14 +13018,23 @@
       <c r="F8" t="s">
         <v>1668</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>1733</v>
       </c>
       <c r="H8" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
@@ -12299,8 +13059,17 @@
       <c r="H9" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
@@ -12325,8 +13094,17 @@
       <c r="H10" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
@@ -12351,8 +13129,17 @@
       <c r="H11" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1567</v>
       </c>
@@ -12368,7 +13155,7 @@
       <c r="E12" t="s">
         <v>1186</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>1676</v>
       </c>
       <c r="G12" t="s">
@@ -12377,8 +13164,17 @@
       <c r="H12" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1603</v>
       </c>
@@ -12397,14 +13193,23 @@
       <c r="F13" t="s">
         <v>1677</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>1738</v>
       </c>
       <c r="H13" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1608</v>
       </c>
@@ -12429,8 +13234,17 @@
       <c r="H14" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1623</v>
       </c>
@@ -12449,11 +13263,23 @@
       <c r="F15" t="s">
         <v>1683</v>
       </c>
+      <c r="G15" t="s">
+        <v>1767</v>
+      </c>
       <c r="H15" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1624</v>
       </c>
@@ -12472,11 +13298,23 @@
       <c r="F16" t="s">
         <v>1684</v>
       </c>
+      <c r="G16" t="s">
+        <v>1768</v>
+      </c>
       <c r="H16" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1638</v>
       </c>
@@ -12492,11 +13330,23 @@
       <c r="F17" t="s">
         <v>1686</v>
       </c>
+      <c r="G17" t="s">
+        <v>1786</v>
+      </c>
       <c r="H17" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1639</v>
       </c>
@@ -12512,11 +13362,23 @@
       <c r="F18" t="s">
         <v>1687</v>
       </c>
+      <c r="G18" t="s">
+        <v>1826</v>
+      </c>
       <c r="H18" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -12535,8 +13397,17 @@
       <c r="H19" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1644</v>
       </c>
@@ -12555,8 +13426,17 @@
       <c r="H20" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1653</v>
       </c>
@@ -12569,14 +13449,23 @@
       <c r="D21" t="s">
         <v>1633</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>1690</v>
       </c>
       <c r="H21" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1654</v>
       </c>
@@ -12595,8 +13484,17 @@
       <c r="H22" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1655</v>
       </c>
@@ -12615,8 +13513,14 @@
       <c r="H23" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1656</v>
       </c>
@@ -12635,8 +13539,14 @@
       <c r="H24" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1658</v>
       </c>
@@ -12655,11 +13565,20 @@
       <c r="H25" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1660</v>
       </c>
+      <c r="B26" t="s">
+        <v>1748</v>
+      </c>
       <c r="C26" t="s">
         <v>1614</v>
       </c>
@@ -12669,8 +13588,14 @@
       <c r="H26" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1673</v>
       </c>
@@ -12683,94 +13608,751 @@
       <c r="H27" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1685</v>
       </c>
       <c r="C28" t="s">
         <v>1616</v>
       </c>
+      <c r="F28" t="s">
+        <v>1740</v>
+      </c>
       <c r="H28" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1695</v>
       </c>
       <c r="C29" t="s">
         <v>1625</v>
       </c>
+      <c r="F29" t="s">
+        <v>1741</v>
+      </c>
       <c r="H29" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1696</v>
       </c>
       <c r="C30" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1814</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1697</v>
       </c>
       <c r="C31" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1698</v>
       </c>
       <c r="C32" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1699</v>
       </c>
       <c r="C33" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1834</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1700</v>
       </c>
       <c r="C34" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1701</v>
       </c>
       <c r="C35" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1727</v>
       </c>
       <c r="C36" t="s">
         <v>1646</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="G13" r:id="rId4"/>
+    <hyperlink ref="I73" r:id="rId1"/>
+    <hyperlink ref="I93" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1982">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -6203,6 +6203,69 @@
   </si>
   <si>
     <t>2_hgxy@163.com</t>
+  </si>
+  <si>
+    <t>chenghan@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>沈阳建筑大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenzhaoxin1989@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inter@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>wb@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>wbsjzu@163.com</t>
+  </si>
+  <si>
+    <t>xcb@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>kjc@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>rsc@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>danganguan001@126.com</t>
+  </si>
+  <si>
+    <t>大连医科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin@mail.cin.gov.cn</t>
+  </si>
+  <si>
+    <t>3283638081@qq.com</t>
+  </si>
+  <si>
+    <t>hqjt@lnpu.edu.cn</t>
+  </si>
+  <si>
+    <t>dkyxy@126.com</t>
+  </si>
+  <si>
+    <t>dmunews@163.com</t>
+  </si>
+  <si>
+    <t>uff1ady_job@163.com</t>
+  </si>
+  <si>
+    <t>stl@ustl.edu.cn</t>
+  </si>
+  <si>
+    <t>lnxh01@163.com</t>
+  </si>
+  <si>
+    <t>jszs@sjzu.edu.cn</t>
   </si>
 </sst>
 </file>
@@ -12734,9 +12797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14122,107 +14185,166 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1864</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1865</v>
       </c>
       <c r="B2" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1866</v>
       </c>
       <c r="B3" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1867</v>
       </c>
       <c r="B4" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1868</v>
       </c>
       <c r="B5" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1869</v>
       </c>
       <c r="B6" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1870</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
       <c r="B8" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1872</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1873</v>
       </c>
       <c r="B10" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1874</v>
       </c>
       <c r="B11" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1875</v>
       </c>
@@ -14230,7 +14352,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1876</v>
       </c>
@@ -14238,7 +14360,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1889</v>
       </c>
@@ -14246,7 +14368,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1890</v>
       </c>
@@ -14254,7 +14376,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1891</v>
       </c>
@@ -14274,11 +14396,17 @@
       <c r="A18" s="1" t="s">
         <v>1893</v>
       </c>
+      <c r="B18" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1894</v>
       </c>
+      <c r="B19" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -14343,6 +14471,26 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1975</v>
       </c>
     </row>
   </sheetData>
@@ -14352,6 +14500,7 @@
     <hyperlink ref="A29" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="7"/>
+    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="L1" sheetId="6" r:id="rId6"/>
     <sheet name="L2" sheetId="7" r:id="rId7"/>
     <sheet name="L3" sheetId="8" r:id="rId8"/>
+    <sheet name="L4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2648">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -6266,6 +6267,2084 @@
   </si>
   <si>
     <t>jszs@sjzu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y24692695@163.com</t>
+  </si>
+  <si>
+    <t>cb@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>lnkdysxyyjx@sohu.com</t>
+  </si>
+  <si>
+    <t>zy307@sjzu.edu.cn</t>
+  </si>
+  <si>
+    <t>nmccn@cma.gov.cn</t>
+  </si>
+  <si>
+    <t>ooperation@cma.gov.cn</t>
+  </si>
+  <si>
+    <t>icsjzu@163.com</t>
+  </si>
+  <si>
+    <t>lht@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>wbsjzu@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlmedu_zfh@163.com</t>
+  </si>
+  <si>
+    <t>zzb@dlou.edu.cn</t>
+  </si>
+  <si>
+    <t>dygyzcglc@163.com</t>
+  </si>
+  <si>
+    <t>gonghui@dlmedu.edu.cn</t>
+  </si>
+  <si>
+    <t>dyhlxy2012@163.com</t>
+  </si>
+  <si>
+    <t>yhlxy2012@163.com</t>
+  </si>
+  <si>
+    <t>dy_zhongxiyijiehe@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlfbzy@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin.office@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>jsb@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>jsb@sict.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changjy@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>pengh@mail.las.ac.cn</t>
+  </si>
+  <si>
+    <t>rsc@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>lengmiao@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>feross@feross.org</t>
+  </si>
+  <si>
+    <t>service@nstl.gov.cn</t>
+  </si>
+  <si>
+    <t>dz@clas.ac.cn</t>
+  </si>
+  <si>
+    <t>jc@clas.ac.cn</t>
+  </si>
+  <si>
+    <t>uolin@rose.cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>xrui@sec.ac.cn</t>
+  </si>
+  <si>
+    <t>casholdingshr@rose.cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>zengzy@casam.com.cn</t>
+  </si>
+  <si>
+    <t>xmwang@cashim.cn</t>
+  </si>
+  <si>
+    <t>iangmt@zkzy.com.cn</t>
+  </si>
+  <si>
+    <t>kykefu@sky.ac.cn</t>
+  </si>
+  <si>
+    <t>gs@gic.ac.cn</t>
+  </si>
+  <si>
+    <t>careers@cashcapital.cn</t>
+  </si>
+  <si>
+    <t>healthcare@cashcapital.cn</t>
+  </si>
+  <si>
+    <t>tmt@cashcapital.cn</t>
+  </si>
+  <si>
+    <t>yangdan@ciccas.ac.cn</t>
+  </si>
+  <si>
+    <t>cb@ctex.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service@ctex.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院计算技术所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院自动化所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dflz@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>dflz@mail.syb.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jijianshen@sia.cn</t>
+  </si>
+  <si>
+    <t>siamaster@sia.cn</t>
+  </si>
+  <si>
+    <t>bliang@sia.cn</t>
+  </si>
+  <si>
+    <t>shuoli@sia.cn</t>
+  </si>
+  <si>
+    <t>sunlei@sia.cn</t>
+  </si>
+  <si>
+    <t>szg@sia.cn</t>
+  </si>
+  <si>
+    <t>yhb@sia.cn</t>
+  </si>
+  <si>
+    <t>zlshi@sia.cn</t>
+  </si>
+  <si>
+    <t>zs@sia.cn</t>
+  </si>
+  <si>
+    <t>siaxxgk@sia.cn</t>
+  </si>
+  <si>
+    <t>cyao@sia.cn</t>
+  </si>
+  <si>
+    <t>tongyiming@sia.cn</t>
+  </si>
+  <si>
+    <t>fficial@gz.sia.cn</t>
+  </si>
+  <si>
+    <t>ouyangyunxiong@gz.iscas.ac.cn</t>
+  </si>
+  <si>
+    <t>s@sia.cn</t>
+  </si>
+  <si>
+    <t>jqr@sia.cn</t>
+  </si>
+  <si>
+    <t>jintianyi@sia.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyang1@sia.cn</t>
+  </si>
+  <si>
+    <t>suoqing2018@sia.cn</t>
+  </si>
+  <si>
+    <t>ongxiangyuan@sia.cn</t>
+  </si>
+  <si>
+    <t>kongxiangyuan@sia.cn</t>
+  </si>
+  <si>
+    <t>cas_en@cas.cn</t>
+  </si>
+  <si>
+    <t>aspe@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>advice_bsc@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>ituixiu@cashq.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwxcb@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>liwen@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>ffice@njbas.ac.cn</t>
+  </si>
+  <si>
+    <t>njbas@njbas.ac.cn</t>
+  </si>
+  <si>
+    <t>whb@ms.whb.ac.cn</t>
+  </si>
+  <si>
+    <t>zwxx@gzb.ac.cn</t>
+  </si>
+  <si>
+    <t>c-us@cdb.ac.cn</t>
+  </si>
+  <si>
+    <t>ffice@mail.kmb.ac.cn</t>
+  </si>
+  <si>
+    <t>jjxx@xab.ac.cn</t>
+  </si>
+  <si>
+    <t>yzxx@xab.ac.cn</t>
+  </si>
+  <si>
+    <t>中科院生态研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alamusa@tom.com</t>
+  </si>
+  <si>
+    <t>baie78@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baizhen@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>biandongju@h163.com</t>
+  </si>
+  <si>
+    <t>burc@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>caowei@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>changyu@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>chengwx@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>chenwei@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>chenxin@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmjiang@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>fangyt@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>lcchen@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>ljchen@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>ljchenchina@hotmail.com</t>
+  </si>
+  <si>
+    <t>lmdai@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>min-long.cui@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>tiangao@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhchen@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>hansw@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>liuli@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>rvelaviciute@royalsoced.org.uk</t>
+  </si>
+  <si>
+    <t>xujin@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>ahsan_feroz2001@yahoo.com</t>
+  </si>
+  <si>
+    <t>sunsn@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>yehanfeng@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhuojc@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhaomanru@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>strawberry@ibcas.ac.cn</t>
+  </si>
+  <si>
+    <t>gaozhenrui@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>103161910@qq.com</t>
+  </si>
+  <si>
+    <t>17wfc@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>hehongbo@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>llzhang@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>xiaoyushi@hotmail.com</t>
+  </si>
+  <si>
+    <t>isotope@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>quanzhi@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>tuying@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhuff@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>sunyu@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>liumengting@casipm.ac.cn</t>
+  </si>
+  <si>
+    <t>wuyy@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>jcs_zdxmc@most.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niezw@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>huym@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>lium@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>liyh@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangpy@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>international.exchanges@royalsociety.org</t>
+  </si>
+  <si>
+    <t>liwc@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>bhamilto@nsf.gov</t>
+  </si>
+  <si>
+    <t>bschotte@nsf.gov</t>
+  </si>
+  <si>
+    <t>liuxp@nsfc.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenjie@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>newtonadvancedfellowships@royalsociety.org</t>
+  </si>
+  <si>
+    <t>qiuch@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>mattias.lowhagen@stint.se</t>
+  </si>
+  <si>
+    <t>baqiang@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>deborah.matterne@frs-fnrs.be</t>
+  </si>
+  <si>
+    <t>tase@nerc.ac.uk</t>
+  </si>
+  <si>
+    <t>wangxin@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>jerzy.fraczek@ncn.gov.pl</t>
+  </si>
+  <si>
+    <t>katarzyna.jarecka-stepien@ncn.gov.pl</t>
+  </si>
+  <si>
+    <t>magdalena.godowska@ncn.gov.pl</t>
+  </si>
+  <si>
+    <t>marta.buchalska@ncn.gov.pl</t>
+  </si>
+  <si>
+    <t>aozhenrui@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>revicka@kav.cas.cz</t>
+  </si>
+  <si>
+    <t>wangxl081924@126.com</t>
+  </si>
+  <si>
+    <t>yongjunwang@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>whding@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhuxiaoqi@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>yjyj@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>amel.feredj@cnrs-dir.fr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting@escience.cn</t>
+  </si>
+  <si>
+    <t>ndaodutech@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaufenggang@163.com</t>
+  </si>
+  <si>
+    <t>tiejun1104@163.com</t>
+  </si>
+  <si>
+    <t>ksv@rfbr.ru</t>
+  </si>
+  <si>
+    <t>uk-researcherlinks@britishcouncil.org</t>
+  </si>
+  <si>
+    <t>lizhiy219@126.com</t>
+  </si>
+  <si>
+    <t>amwangrui@126.com</t>
+  </si>
+  <si>
+    <t>jianv2008@nankai.edu.cn</t>
+  </si>
+  <si>
+    <t>angela.fong@oce-ontario.org</t>
+  </si>
+  <si>
+    <t>ciro.vasquez@vinnova.se</t>
+  </si>
+  <si>
+    <t>delegation-china-scitech@eeas.europa.eu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>klaus.jakobsen@innofond.dk</t>
+  </si>
+  <si>
+    <t>phil.packer@innovateuk.gov.uk</t>
+  </si>
+  <si>
+    <t>program@most.cn</t>
+  </si>
+  <si>
+    <t>shien.liu@riken.jp</t>
+  </si>
+  <si>
+    <t>ysorokot@rfbr.ru</t>
+  </si>
+  <si>
+    <t>rongnh@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>muenchau@sinogermanscience.org.cn</t>
+  </si>
+  <si>
+    <t>shixy@sinogermanscience.org.cn</t>
+  </si>
+  <si>
+    <t>ghc@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>gozhenrui@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiguanhua@126.com</t>
+  </si>
+  <si>
+    <t>pbh@forskningsradet.no</t>
+  </si>
+  <si>
+    <t>isabelle.verbaeys@fwo.be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xoc@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>chubanzizhu@126.com</t>
+  </si>
+  <si>
+    <t>nop@trf.or.th</t>
+  </si>
+  <si>
+    <t>claudia.bordach@dfg.de</t>
+  </si>
+  <si>
+    <t>wolfgang.wachter@dfg.de</t>
+  </si>
+  <si>
+    <t>sfs_zyhjc@most.cn</t>
+  </si>
+  <si>
+    <t>zhangqiang@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>jinghsh@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>wangwz@nsfc.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuailam@fdct.gov.mo</t>
+  </si>
+  <si>
+    <t>carmen.de-vicente-coll@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>duqs@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>fanyj@nsfc.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lixiang@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>b3xiaozhang@cashq.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinghsh@iae.ac.cn.</t>
+  </si>
+  <si>
+    <t>lzj1522@iae.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueqian@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zhaochuang@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>luojing@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>zhaogl@nsfc.gov.cn</t>
+  </si>
+  <si>
+    <t>qch@mail.iggcas.ac.cn</t>
+  </si>
+  <si>
+    <t>wangjf@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>stcs@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>casfellowship@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>chenxj@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>lianmeihua@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>shiyanan@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>zengxf@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>cfrost@nsf.gov</t>
+  </si>
+  <si>
+    <t>jwjones@nsf.gov</t>
+  </si>
+  <si>
+    <t>wanglingli@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>gxaqyz@163.com</t>
+  </si>
+  <si>
+    <t>hfnyjs@163.com</t>
+  </si>
+  <si>
+    <t>lsfczx@163.com</t>
+  </si>
+  <si>
+    <t>lyzycx@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzjswr@163.com</t>
+  </si>
+  <si>
+    <t>qdzwyz@163.com</t>
+  </si>
+  <si>
+    <t>xdsp@163.com</t>
+  </si>
+  <si>
+    <t>xdspjg@163.com</t>
+  </si>
+  <si>
+    <t>znnj@163.com</t>
+  </si>
+  <si>
+    <t>znnjzbzx@163.com</t>
+  </si>
+  <si>
+    <t>inghsh@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>kjtcdr@126.com</t>
+  </si>
+  <si>
+    <t>unyu@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>wangjingwei2004@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>esc@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>kp-esc@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>xs-esc@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>zz-esc@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>fubin@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>mlguo@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>jinghsh11@163.com</t>
+  </si>
+  <si>
+    <t>zhibinhu@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>service@weather.com.cn</t>
+  </si>
+  <si>
+    <t>webmaster@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>iga@iga.ac.cn</t>
+  </si>
+  <si>
+    <t>iss@issas.ac.cn</t>
+  </si>
+  <si>
+    <t>pwang@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>wangyh@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>research@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>yuzy@iae.ac.cn</t>
+  </si>
+  <si>
+    <t>中科院沈阳分院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yb@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>syb@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>ocas@qdio.ac.cn</t>
+  </si>
+  <si>
+    <t>director@qibebt.ac.cn</t>
+  </si>
+  <si>
+    <t>info@qibebt.ac.cn</t>
+  </si>
+  <si>
+    <t>jijian@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>suozhang@sict.ac.cn</t>
+  </si>
+  <si>
+    <t>skxyyzxx@shandong.cn</t>
+  </si>
+  <si>
+    <t>lzhou@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>klemb@qdio.ac.cn</t>
+  </si>
+  <si>
+    <t>ehhan@mail.syb.ac.cn</t>
+  </si>
+  <si>
+    <t>web@yic.ac.cn</t>
+  </si>
+  <si>
+    <t>cyhuang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>liubin81@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>hwxz@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>service@casmart.com.cn</t>
+  </si>
+  <si>
+    <t>yjban@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zhuxf@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>sbai@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>ybai@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>synl@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>lwallach@tms.org</t>
+  </si>
+  <si>
+    <t>webmaster@tms.org</t>
+  </si>
+  <si>
+    <t>maling@htrdc.com</t>
+  </si>
+  <si>
+    <t>gxbys@mohrss.gov.cn</t>
+  </si>
+  <si>
+    <t>rss_jglzc@163.com</t>
+  </si>
+  <si>
+    <t>piyavanice@gmail.com</t>
+  </si>
+  <si>
+    <t>tianxy@cstec.org.cn</t>
+  </si>
+  <si>
+    <t>snezana.vukotic@mna.gov.me</t>
+  </si>
+  <si>
+    <t>yfd@cstec.org.cn</t>
+  </si>
+  <si>
+    <t>jgjwxfjb@most.cn</t>
+  </si>
+  <si>
+    <t>program@most.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiucuo@most.cn</t>
+  </si>
+  <si>
+    <t>nostaxxc@mail.nosta.gov.cn</t>
+  </si>
+  <si>
+    <t>zhangp@most.cn</t>
+  </si>
+  <si>
+    <t>chenshuoyi@htrdc.com</t>
+  </si>
+  <si>
+    <t>huangling@htrdc.com</t>
+  </si>
+  <si>
+    <t>jin@htrdc.com</t>
+  </si>
+  <si>
+    <t>lid@htrdc.com</t>
+  </si>
+  <si>
+    <t>shidm@htrdc.com</t>
+  </si>
+  <si>
+    <t>zwd@htrdc.com</t>
+  </si>
+  <si>
+    <t>jhdz@most.cn</t>
+  </si>
+  <si>
+    <t>liwj@most.cn</t>
+  </si>
+  <si>
+    <t>fuhq1@ctp.gov.cn</t>
+  </si>
+  <si>
+    <t>xuml@most.cn</t>
+  </si>
+  <si>
+    <t>finance@most.cn</t>
+  </si>
+  <si>
+    <t>ncs_cyc@most.cn</t>
+  </si>
+  <si>
+    <t>rtdc_dfc@126.com</t>
+  </si>
+  <si>
+    <t>jianl1@ctp.gov.cn</t>
+  </si>
+  <si>
+    <t>gj973@vip.sina.com</t>
+  </si>
+  <si>
+    <t>ycb@cncbd.org.cn</t>
+  </si>
+  <si>
+    <t>jana.bystricka@msmt.cz</t>
+  </si>
+  <si>
+    <t>zbynek.vedral@msmt.cz</t>
+  </si>
+  <si>
+    <t>rss_jglzc@most.cn</t>
+  </si>
+  <si>
+    <t>wksyddzx@qq.com</t>
+  </si>
+  <si>
+    <t>30207544@qq.com</t>
+  </si>
+  <si>
+    <t>cgssyzx@126.com</t>
+  </si>
+  <si>
+    <t>geocloud@mail.cgs.gov.cn</t>
+  </si>
+  <si>
+    <t>sdb-service@cnic.cn</t>
+  </si>
+  <si>
+    <t>data@cma.gov.cn</t>
+  </si>
+  <si>
+    <t>zyu@mail.cgs.gov.cn</t>
+  </si>
+  <si>
+    <t>eputougao@cgl.org.cn</t>
+  </si>
+  <si>
+    <t>keputougao@cgl.org.cn</t>
+  </si>
+  <si>
+    <t>qdcgzb0532@163.com</t>
+  </si>
+  <si>
+    <t>zccugb@163.com</t>
+  </si>
+  <si>
+    <t>qzxzhaopin@163.com</t>
+  </si>
+  <si>
+    <t>yqzxzhaopin@163.com</t>
+  </si>
+  <si>
+    <t>hangxiaohai@cgl.org.cn</t>
+  </si>
+  <si>
+    <t>angff@mail.cigem.gov.cn</t>
+  </si>
+  <si>
+    <t>wangff@mail.cigem.gov.cn</t>
+  </si>
+  <si>
+    <t>support@beian.gov.cn</t>
+  </si>
+  <si>
+    <t>ksyddzx@qq.com</t>
+  </si>
+  <si>
+    <t>dt@ngcc.cn</t>
+  </si>
+  <si>
+    <t>office@ngcc.cn</t>
+  </si>
+  <si>
+    <t>upport@sbsm.gov.cn</t>
+  </si>
+  <si>
+    <t>sdata@cnic.cn</t>
+  </si>
+  <si>
+    <t>syp@xtbg.org.cn</t>
+  </si>
+  <si>
+    <t>maxg@lasg.iap.ac.cn</t>
+  </si>
+  <si>
+    <t>xiaoyi@rcees.ac.cn</t>
+  </si>
+  <si>
+    <t>huidan@iscas.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fujian@mail.sic.ac.cn</t>
+  </si>
+  <si>
+    <t>wanghl@nanoctr.cn</t>
+  </si>
+  <si>
+    <t>wjye@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>wei.jia@fds.org.cn</t>
+  </si>
+  <si>
+    <t>zhangcy@irsa.ac.cn</t>
+  </si>
+  <si>
+    <t>zhanghaocol@163.com</t>
+  </si>
+  <si>
+    <t>cheng@ihep.ac.cn</t>
+  </si>
+  <si>
+    <t>hmzhang@ihep.ac.cn</t>
+  </si>
+  <si>
+    <t>ji@ioz.ac.cn</t>
+  </si>
+  <si>
+    <t>ma@im.ac.cn</t>
+  </si>
+  <si>
+    <t>yangyp@igsnrr.ac.cn</t>
+  </si>
+  <si>
+    <t>xiongyan@cnic.cn</t>
+  </si>
+  <si>
+    <t>jdxu@niglas.ac.cn</t>
+  </si>
+  <si>
+    <t>zhangz@scib.ac.cn</t>
+  </si>
+  <si>
+    <t>zhangping@qdio.ac.cn</t>
+  </si>
+  <si>
+    <t>daijf@mail.sioc.ac.cn</t>
+  </si>
+  <si>
+    <t>scsodb@scsio.ac.cn</t>
+  </si>
+  <si>
+    <t>krd@mails.gyig.ac.cn</t>
+  </si>
+  <si>
+    <t>wangyp@gig.ac.cnsuhua</t>
+  </si>
+  <si>
+    <t>wangyuhau@mail.kib.ac.cn</t>
+  </si>
+  <si>
+    <t>cuiqiu@qibebt.ac.cn</t>
+  </si>
+  <si>
+    <t>liwc@ntsc.ac.cn</t>
+  </si>
+  <si>
+    <t>archive@nao.cas.cn</t>
+  </si>
+  <si>
+    <t>hwen@home.ipe.ac.cn</t>
+  </si>
+  <si>
+    <t>yaonan@lzb.ac.cn</t>
+  </si>
+  <si>
+    <t>tangbx@big.ac.cn</t>
+  </si>
+  <si>
+    <t>landsat@cnic.cn</t>
+  </si>
+  <si>
+    <t>data@cnic.cn</t>
+  </si>
+  <si>
+    <t>yx@fingerpass.net.cn</t>
+  </si>
+  <si>
+    <t>liuyan@nlpr.ia.ac.cn</t>
+  </si>
+  <si>
+    <t>wusp@nipc.org.cn</t>
+  </si>
+  <si>
+    <t>zhenm99@cnic.cn</t>
+  </si>
+  <si>
+    <t>mzou@nssc.ac.cn</t>
+  </si>
+  <si>
+    <t>ongjz@nssc.ac.cn</t>
+  </si>
+  <si>
+    <t>jkshi@center.cssar.ac.cn</t>
+  </si>
+  <si>
+    <t>mzou@cssar.ac.cn</t>
+  </si>
+  <si>
+    <t>ongjz@cssar.ac.cn</t>
+  </si>
+  <si>
+    <t>songlm@ihep.ac.cn</t>
+  </si>
+  <si>
+    <t>wuli@wbgcas.cn</t>
+  </si>
+  <si>
+    <t>ata@cma.gov.cn</t>
+  </si>
+  <si>
+    <t>沈阳材料科学国家（联合）实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国地质调查局沈阳地质调查中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院金属研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>lu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>hidan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>squ@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>tfuli@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>u@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>liumeng@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>中科院大连化学物理研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuefeng@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>jingqian@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>facilities@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zhaoxu@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>iaoxue@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>hankp@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zhankp@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iuye@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zhaowenjia@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uangxinl@bamo-tech.com</t>
+  </si>
+  <si>
+    <t>ao@ucas.ac.cn</t>
+  </si>
+  <si>
+    <t>ueji@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>jiaoxue@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>yang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>89197lwj@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tqian@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>engtianshi@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>xueke@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>yanghua@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zywen@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>wj@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>xuek@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>libin2018@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>uewei@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>uikui@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inov_renliziyuan@126.com</t>
+  </si>
+  <si>
+    <t>jiuye@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>nov_renliziyuan@126.com</t>
+  </si>
+  <si>
+    <t>shddzp@inovpu.com</t>
+  </si>
+  <si>
+    <t>uchuang@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuchuang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>iongbh@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>campus@hisunpharm.com</t>
+  </si>
+  <si>
+    <t>zhaopin2013@hisunpharm.com</t>
+  </si>
+  <si>
+    <t>ywen@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>leeyuxuan@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>lj2016@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zhaosheng@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenwei@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>yanqilee@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>hd@daad.org.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iajh@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>ufq@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>ihongbo@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>liuhuijuan@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>phtp@cashq.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fengtianshi@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>guanliya@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>liuwf@dicp.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunjun@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>ipo@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>jiawb@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>unjun@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>xiongcn@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>yangmeng16@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>izhang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>ueke@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>hangjun2012@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>iuzl@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>abuse@cstnet.cn</t>
+  </si>
+  <si>
+    <t>support@cstnet.cn</t>
+  </si>
+  <si>
+    <t>webmaster@cstnet.cn</t>
+  </si>
+  <si>
+    <t>xhma@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>xhma@cashq.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlzg@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>lihongbo@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>lizhang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>qiaodz@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>wendywang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>zengli@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>pengli@imr.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rszp@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jinxiangshi@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>lliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>cpang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>cyin@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>fangliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>yxliu@imr.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hguan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>xliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>58812000@cstnet.cn</t>
+  </si>
+  <si>
+    <t>忠旺集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amandaxu@zhongwang.com</t>
+  </si>
+  <si>
+    <t>konglin@zhongwang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin@zhongwang.com</t>
+  </si>
+  <si>
+    <t>chenjing@zhongwang.com</t>
+  </si>
+  <si>
+    <t>hr@zhongwang.com</t>
+  </si>
+  <si>
+    <t>sales@zhongwang.com</t>
+  </si>
+  <si>
+    <t>info@alunnatubes.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mryzb@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>wenfeili@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>yanliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>nkp_synu@126.com</t>
+  </si>
+  <si>
+    <t>dsic@dsic.cn</t>
+  </si>
+  <si>
+    <t>大连船舶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwjcb@dsic.cn</t>
+  </si>
+  <si>
+    <t>dsicxzgs@126.com</t>
+  </si>
+  <si>
+    <t>gangcaipeisong@163.com</t>
+  </si>
+  <si>
+    <t>guhongxing@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>bys@dlewri.com</t>
+  </si>
+  <si>
+    <t>sales@dstic.cn</t>
+  </si>
+  <si>
+    <t>dm-dalian@300.cn</t>
+  </si>
+  <si>
+    <t>maohangongsi@163.com</t>
+  </si>
+  <si>
+    <t>zhaopin@dsic.cn</t>
+  </si>
+  <si>
+    <t>1517341978@qq.com</t>
+  </si>
+  <si>
+    <t>hr@dsic-offshore.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing@dsic-offshore.cn</t>
+  </si>
+  <si>
+    <t>purchasing@dsic-offshore.cn</t>
+  </si>
+  <si>
+    <t>postmaster@dsic-marine.com</t>
+  </si>
+  <si>
+    <t>dfvc1907@163.com</t>
+  </si>
+  <si>
+    <t>wendywang@dicp.qc.cn</t>
+  </si>
+  <si>
+    <t>gs@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>sun@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>endywang@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>13610628347@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruikui@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>liudz@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>cheng@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>plu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>qili@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>iwu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jcyuan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>qszang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>sxli@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>hwei@imr.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrsun@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>xfsun@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jgli@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>lihui@imr.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzz@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>yzzhou@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>qzheng@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>zhengzhi@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>ysyang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>ychao@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>chycui@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>gpli@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>lxu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>yycui@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>ljrong@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jshzhang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>hnchen@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jzzhao@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>zzhao@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>hdu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>tyxiong@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>kyang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>yyshan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>uandl@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crrc@crrcgc.cc</t>
+  </si>
+  <si>
+    <t>ehhan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>wangjianqiu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>zhywang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>fcliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>dkxu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>chengsun@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>rschen@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>ygzheng@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>dyshan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>jhdong@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>whan@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>byin@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>fsjc@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>h2s@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>fzhang@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>大连大商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kepu@dicp.ac.cn</t>
+  </si>
+  <si>
+    <t>sjtxcb@163.com</t>
+  </si>
+  <si>
+    <t>2o@51tiangou.com</t>
+  </si>
+  <si>
+    <t>arketing@51tiangou.com</t>
+  </si>
+  <si>
+    <t>service@dsjttea.com</t>
+  </si>
+  <si>
+    <t>dshr_lingshou@126.com</t>
+  </si>
+  <si>
+    <t>dashangzhaopin@126.com</t>
+  </si>
+  <si>
+    <t>dshr_china@126.com</t>
+  </si>
+  <si>
+    <t>shr_lingshou@126.com</t>
+  </si>
+  <si>
+    <t>jubao@12377.cn</t>
+  </si>
+  <si>
+    <t>cinsabj@163.com</t>
+  </si>
+  <si>
+    <t>大连东软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin.hamburg@de.neusoft.com</t>
+  </si>
+  <si>
+    <t>hr@us.neusoft.com</t>
+  </si>
+  <si>
+    <t>liuwanj@neusoft.com</t>
+  </si>
+  <si>
+    <t>marketing@us.neusoft.com</t>
+  </si>
+  <si>
+    <t>nmsusa@us.neusoft.com</t>
+  </si>
+  <si>
+    <t>sales@us.neusoft.com</t>
+  </si>
+  <si>
+    <t>service.eu@neusoft.com</t>
+  </si>
+  <si>
+    <t>silta@neusoft.com</t>
+  </si>
+  <si>
+    <t>yanghw@neusoft.com</t>
+  </si>
+  <si>
+    <t>yu.xm@neusoft.com</t>
+  </si>
+  <si>
+    <t>zhang-dan@neusoft.com</t>
+  </si>
+  <si>
+    <t>medicalitint@neusoft.com</t>
+  </si>
+  <si>
+    <t>sales.hamburg@de.neusoft.com</t>
+  </si>
+  <si>
+    <t>anliu@imr.ac.cn</t>
+  </si>
+  <si>
+    <t>mofzwgk@163.com</t>
+  </si>
+  <si>
+    <t>ncg@neusoft.com</t>
+  </si>
+  <si>
+    <t>bpo@neusoft.com</t>
+  </si>
+  <si>
+    <t>investor@neusoft.com</t>
+  </si>
+  <si>
+    <t>亿达集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yida@pordahavas.com</t>
+  </si>
+  <si>
+    <t>hbslft@163.com</t>
+  </si>
+  <si>
+    <t>hbcztgzw@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwztjjz@yeah.net</t>
+  </si>
+  <si>
+    <t>abuse@12321.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinsa@163.com</t>
+  </si>
+  <si>
+    <t>insabj@163.com</t>
+  </si>
+  <si>
+    <t>fgwjjz@sina.com</t>
+  </si>
+  <si>
+    <t>gzxx@cggc.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ikang-service@neusoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-marketing@neusoft.com</t>
+  </si>
+  <si>
+    <t>training@neusoft.com</t>
+  </si>
+  <si>
+    <t>wei-xin@neusoft.com</t>
+  </si>
+  <si>
+    <t>tangyi@neusoft.com</t>
+  </si>
+  <si>
+    <t>新松机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market@siasun.com</t>
+  </si>
+  <si>
+    <t>zhuwenlu@siasun.com</t>
+  </si>
+  <si>
+    <t>xikang-service@neusoft.com</t>
+  </si>
+  <si>
+    <t>r-xk@neusoft.com</t>
+  </si>
+  <si>
+    <t>xk-marketing@neusoft.com</t>
+  </si>
+  <si>
+    <t>沈飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr.sacc@sacc.com.cn</t>
+  </si>
+  <si>
+    <t>52529401@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>254564507@qq.com</t>
+  </si>
+  <si>
+    <t>bgs89302560@163.com</t>
+  </si>
+  <si>
+    <t>dy25806622@163.com</t>
+  </si>
+  <si>
+    <t>lin.xu@sdfc-cn.com</t>
+  </si>
+  <si>
+    <t>nepgbio@163.com</t>
+  </si>
+  <si>
+    <t>teyaobaobiao@126.com</t>
+  </si>
+  <si>
+    <t>dbzyrlzyb@163.com</t>
+  </si>
+  <si>
+    <t>baocheng.wang@sdfc-cn.com</t>
+  </si>
+  <si>
+    <t>nebusiness@nepharm.com</t>
+  </si>
+  <si>
+    <t>nequality@nepharm.com</t>
+  </si>
+  <si>
+    <t>neservice@nepharm.com</t>
+  </si>
+  <si>
+    <t>neuedu@neusoft.com</t>
+  </si>
+  <si>
+    <t>lihuixuan@neusoft.com</t>
+  </si>
+  <si>
+    <t>bix@neusoft.com</t>
+  </si>
+  <si>
+    <t>ongjy@neusoft.com</t>
+  </si>
+  <si>
+    <t>songjy@neusoft.com</t>
+  </si>
+  <si>
+    <t>hann@neusoft.com</t>
+  </si>
+  <si>
+    <t>zhougj@neusoft.com</t>
+  </si>
+  <si>
+    <t>1481280278@qq.com</t>
+  </si>
+  <si>
+    <t>yzhnews@sina.cn</t>
+  </si>
+  <si>
+    <t>jubao@contact.sohu.com</t>
+  </si>
+  <si>
+    <t>nbtvcn@sohu.com</t>
+  </si>
+  <si>
+    <t>b3songjy@neusoft.com</t>
+  </si>
+  <si>
+    <t>loub@neusoft.com</t>
+  </si>
+  <si>
+    <t>wujunjia@neusoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghzb_ghzb@sina.com</t>
+  </si>
+  <si>
+    <t>whf720522@163.com</t>
+  </si>
+  <si>
+    <t>lncht_01@163.com</t>
+  </si>
+  <si>
+    <t>zpf0603@163.com</t>
+  </si>
+  <si>
+    <t>dm-shenyang@300.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w690407@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sydysj@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydysj@126.com</t>
+  </si>
+  <si>
+    <t>service@39yst.com</t>
+  </si>
+  <si>
+    <t>格微软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software@ge-soft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuzl@ge-soft.com</t>
+  </si>
+  <si>
+    <t>zengzw@ge-soft.com</t>
+  </si>
+  <si>
+    <t>lichunhui@ge-soft.com</t>
+  </si>
+  <si>
+    <t>lianpeng@ge-soft.com</t>
+  </si>
+  <si>
+    <t>ybs@ge-soft.com</t>
+  </si>
+  <si>
+    <t>tsc@ge-soft.com</t>
+  </si>
+  <si>
+    <t>zhaopin@ge-soft.com</t>
+  </si>
+  <si>
+    <t>417891235@qq.com</t>
+  </si>
+  <si>
+    <t>968556240@qq.com</t>
+  </si>
+  <si>
+    <t>xiadw_public@163.com</t>
+  </si>
+  <si>
+    <t>晨讯科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen.chan@sim.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qijin.xu@sim.com</t>
+  </si>
+  <si>
+    <t>3proof@sim.com</t>
+  </si>
+  <si>
+    <t>4aged@sim.com</t>
+  </si>
+  <si>
+    <t>haiping.feng@sim.com</t>
+  </si>
+  <si>
+    <t>iot@sim.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simcom@sim.com</t>
+  </si>
+  <si>
+    <t>yongjun.feng@sim.com</t>
+  </si>
+  <si>
+    <t>zhirong.liu@sim.com</t>
+  </si>
+  <si>
+    <t>jennysy.lam@sprg.com.hk</t>
+  </si>
+  <si>
+    <t>katrina.keung@sprg.com.hk</t>
+  </si>
+  <si>
+    <t>ennysy.lam@sprg.com.hk</t>
+  </si>
+  <si>
+    <t>richard.chan@sim.com</t>
+  </si>
+  <si>
+    <t>tikia.wong@sim.com</t>
+  </si>
+  <si>
+    <t>qi.zhu@sim.com</t>
+  </si>
+  <si>
+    <t>katrina.leung@sprg.com.hk</t>
+  </si>
+  <si>
+    <t>56327249@qq.com</t>
+  </si>
+  <si>
+    <t>iaohu.li@sim.com</t>
+  </si>
+  <si>
+    <t>hanjie.yang@sim.com</t>
+  </si>
+  <si>
+    <t>minjin.lv@sim.com</t>
   </si>
 </sst>
 </file>
@@ -6693,7 +8772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12795,11 +14874,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14033,7 +16112,7 @@
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -14133,7 +16212,7 @@
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -14172,23 +16251,30 @@
         <v>1953</v>
       </c>
     </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>1992</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I73" r:id="rId1"/>
-    <hyperlink ref="I93" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14196,10 +16282,16 @@
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1864</v>
       </c>
@@ -14212,22 +16304,58 @@
       <c r="D1" s="8" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2226</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>2347</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1865</v>
       </c>
       <c r="B2" t="s">
         <v>1907</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>1964</v>
       </c>
       <c r="D2" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1866</v>
       </c>
@@ -14240,8 +16368,26 @@
       <c r="D3" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1867</v>
       </c>
@@ -14254,8 +16400,26 @@
       <c r="D4" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1868</v>
       </c>
@@ -14268,8 +16432,26 @@
       <c r="D5" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1869</v>
       </c>
@@ -14282,12 +16464,30 @@
       <c r="D6" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1870</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>1919</v>
       </c>
       <c r="C7" t="s">
@@ -14296,8 +16496,26 @@
       <c r="D7" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
@@ -14310,19 +16528,58 @@
       <c r="D8" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2249</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1872</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>1926</v>
       </c>
       <c r="C9" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1873</v>
       </c>
@@ -14332,8 +16589,29 @@
       <c r="C10" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="I10" t="s">
+        <v>748</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1874</v>
       </c>
@@ -14343,165 +16621,2628 @@
       <c r="C11" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1875</v>
       </c>
       <c r="B12" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1876</v>
       </c>
       <c r="B13" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1889</v>
       </c>
       <c r="B14" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2253</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1890</v>
       </c>
       <c r="B15" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1891</v>
       </c>
       <c r="B16" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2237</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2255</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1892</v>
       </c>
       <c r="B17" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>1893</v>
       </c>
       <c r="B18" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2257</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1894</v>
       </c>
       <c r="B19" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2239</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2258</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2259</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2262</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2244</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2263</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D28" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2266</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2271</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2095</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1975</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>2101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>2102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2279</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J66" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2619</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2542</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2458</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2532</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2534</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2624</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2548</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2586</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2553</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2554</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2568</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2613</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2569</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>2451</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
-    <hyperlink ref="A29" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B25" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="B36" r:id="rId6"/>
+    <hyperlink ref="B44" r:id="rId7"/>
+    <hyperlink ref="B47" r:id="rId8"/>
+    <hyperlink ref="B52" r:id="rId9"/>
+    <hyperlink ref="B53" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
+    <hyperlink ref="B71" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="A18" r:id="rId14"/>
+    <hyperlink ref="C3" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="B83" r:id="rId18"/>
+    <hyperlink ref="A37" r:id="rId19"/>
+    <hyperlink ref="A41" r:id="rId20"/>
+    <hyperlink ref="H4" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="H7" r:id="rId23"/>
+    <hyperlink ref="G18" r:id="rId24"/>
+    <hyperlink ref="G26" r:id="rId25"/>
+    <hyperlink ref="G45" r:id="rId26"/>
+    <hyperlink ref="K3" r:id="rId27"/>
+    <hyperlink ref="K2" r:id="rId28"/>
+    <hyperlink ref="K19" r:id="rId29"/>
+    <hyperlink ref="L2" r:id="rId30"/>
+    <hyperlink ref="M2" r:id="rId31"/>
+    <hyperlink ref="M7" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="2724">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -8345,6 +8345,249 @@
   </si>
   <si>
     <t>minjin.lv@sim.com</t>
+  </si>
+  <si>
+    <t>沈阳红药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erve@syhy.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syhy.job@163.com</t>
+  </si>
+  <si>
+    <t>清华同方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartcity@thtf.com.cn</t>
+  </si>
+  <si>
+    <t>00100@thtf.com.cn</t>
+  </si>
+  <si>
+    <t>ddgt@thtf.com.cn</t>
+  </si>
+  <si>
+    <t>yp@thtf.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tucsu@tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>600100@thtf.com.cn</t>
+  </si>
+  <si>
+    <t>wanzhijun888@outlook.com</t>
+  </si>
+  <si>
+    <t>channel-egov@thtf.com.cn</t>
+  </si>
+  <si>
+    <t>47671144@qq.com</t>
+  </si>
+  <si>
+    <t>3324611@qq.com</t>
+  </si>
+  <si>
+    <t>5899716@qq.com</t>
+  </si>
+  <si>
+    <t>8976603@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang.zhou@jzat.com.cn</t>
+  </si>
+  <si>
+    <t>xianfeng.wu@sim.com</t>
+  </si>
+  <si>
+    <t>yue.chen@sim.com</t>
+  </si>
+  <si>
+    <t>沈阳科技条件平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sykjgxzx@163.com</t>
+  </si>
+  <si>
+    <t>mly20021010@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyanyan@gftest.cn</t>
+  </si>
+  <si>
+    <t>zgb@syzjy.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15640200869@163.com</t>
+  </si>
+  <si>
+    <t>15840435522@163.com</t>
+  </si>
+  <si>
+    <t>32295997@qq.com</t>
+  </si>
+  <si>
+    <t>81550710@qq.com</t>
+  </si>
+  <si>
+    <t>syhjgxjs@126.com</t>
+  </si>
+  <si>
+    <t>sykjcxfw@sina.com</t>
+  </si>
+  <si>
+    <t>147302973@qq.com</t>
+  </si>
+  <si>
+    <t>qiuyan@ctc.ac.cn</t>
+  </si>
+  <si>
+    <t>xiny@pdwy.com.cn</t>
+  </si>
+  <si>
+    <t>flag870711@163.com</t>
+  </si>
+  <si>
+    <t>liuyd@ustbtc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liujing@bigc.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongyidai@163.com</t>
+  </si>
+  <si>
+    <t>chenxh@imm.ac.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjw@ncepu.edu.cn</t>
+  </si>
+  <si>
+    <t>kjckfs2@bjut.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangblue0903@126.com</t>
+  </si>
+  <si>
+    <t>duansn@epri.sgcc.com.cn</t>
+  </si>
+  <si>
+    <t>robben@ncut.edu.cn</t>
+  </si>
+  <si>
+    <t>changcy@bnu.edu.cn</t>
+  </si>
+  <si>
+    <t>shihungbing@aliyun.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzt@ittc.com.cn</t>
+  </si>
+  <si>
+    <t>liuq@cheari.com</t>
+  </si>
+  <si>
+    <t>wucb@cheari.com</t>
+  </si>
+  <si>
+    <t>mj@labpku.com</t>
+  </si>
+  <si>
+    <t>hengyang@bjtu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhanglj@cashq.ac.cn</t>
+  </si>
+  <si>
+    <t>service_aw@163.com</t>
+  </si>
+  <si>
+    <t>fengxiuyan@bmtbj.cn</t>
+  </si>
+  <si>
+    <t>sdkjtjpt@sina.cn</t>
+  </si>
+  <si>
+    <t>liuyiting@buaa.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skjjptc@163.com</t>
+  </si>
+  <si>
+    <t>lims@qwings.cn</t>
+  </si>
+  <si>
+    <t>syspjys@163.com</t>
+  </si>
+  <si>
+    <t>ywfzb@syzjy.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49193811@qq.com</t>
+  </si>
+  <si>
+    <t>s-ins@escience.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niulin@cti-cert.com</t>
+  </si>
+  <si>
+    <t>hzhang2005@163.com</t>
+  </si>
+  <si>
+    <t>wd18102416088@163.com</t>
+  </si>
+  <si>
+    <t>j15640237931@qq.com</t>
+  </si>
+  <si>
+    <t>sns@syzjy.net</t>
+  </si>
+  <si>
+    <t>lucia@chofn.com</t>
+  </si>
+  <si>
+    <t>tzhgrj@sina.com</t>
+  </si>
+  <si>
+    <t>503403203@qq.com</t>
+  </si>
+  <si>
+    <t>qgs@syzjy.net</t>
+  </si>
+  <si>
+    <t>jjs@syzjy.net</t>
+  </si>
+  <si>
+    <t>hgs@syzjy.net</t>
+  </si>
+  <si>
+    <t>feihu-1981@163.com</t>
+  </si>
+  <si>
+    <t>weishengxmz@163.com</t>
+  </si>
+  <si>
+    <t>12260725@qq.com</t>
+  </si>
+  <si>
+    <t>13840003235@126.com</t>
   </si>
 </sst>
 </file>
@@ -18051,11 +18294,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18072,10 +18315,13 @@
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="15" width="23.75" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2349</v>
       </c>
@@ -18115,8 +18361,17 @@
       <c r="M1" s="10" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="8" t="s">
+        <v>2648</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>2651</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2026</v>
       </c>
@@ -18147,24 +18402,33 @@
       <c r="J2" t="s">
         <v>2578</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>2611</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>2616</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2219</v>
       </c>
       <c r="B3" t="s">
         <v>2358</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>2442</v>
       </c>
       <c r="D3" t="s">
@@ -18182,7 +18446,7 @@
       <c r="I3" t="s">
         <v>2573</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>2610</v>
       </c>
       <c r="L3" t="s">
@@ -18191,8 +18455,17 @@
       <c r="M3" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2350</v>
       </c>
@@ -18211,7 +18484,7 @@
       <c r="G4" t="s">
         <v>2540</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>2559</v>
       </c>
       <c r="K4" t="s">
@@ -18223,8 +18496,17 @@
       <c r="M4" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2654</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2351</v>
       </c>
@@ -18255,8 +18537,17 @@
       <c r="M5" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2352</v>
       </c>
@@ -18287,8 +18578,17 @@
       <c r="M6" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2353</v>
       </c>
@@ -18307,7 +18607,7 @@
       <c r="G7" t="s">
         <v>2543</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>2565</v>
       </c>
       <c r="K7" t="s">
@@ -18316,18 +18616,27 @@
       <c r="L7" t="s">
         <v>2621</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2354</v>
       </c>
       <c r="B8" t="s">
         <v>2026</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>2447</v>
       </c>
       <c r="D8" t="s">
@@ -18348,8 +18657,14 @@
       <c r="M8" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2355</v>
       </c>
@@ -18374,8 +18689,14 @@
       <c r="M9" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>2659</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2356</v>
       </c>
@@ -18400,9 +18721,12 @@
       <c r="M10" t="s">
         <v>2636</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="P10" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2429</v>
       </c>
       <c r="B11" t="s">
@@ -18426,8 +18750,11 @@
       <c r="M11" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2430</v>
       </c>
@@ -18437,7 +18764,7 @@
       <c r="D12" t="s">
         <v>2463</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>2561</v>
       </c>
       <c r="G12" t="s">
@@ -18452,15 +18779,18 @@
       <c r="M12" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2431</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>2364</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>2464</v>
       </c>
       <c r="F13" t="s">
@@ -18475,8 +18805,11 @@
       <c r="M13" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2432</v>
       </c>
@@ -18498,12 +18831,15 @@
       <c r="M14" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2433</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>2366</v>
       </c>
       <c r="D15" t="s">
@@ -18518,8 +18854,11 @@
       <c r="M15" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2434</v>
       </c>
@@ -18538,8 +18877,11 @@
       <c r="M16" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P16" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2435</v>
       </c>
@@ -18558,15 +18900,18 @@
       <c r="M17" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>2436</v>
       </c>
       <c r="B18" t="s">
         <v>2369</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>2566</v>
       </c>
       <c r="K18" t="s">
@@ -18575,8 +18920,11 @@
       <c r="M18" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2437</v>
       </c>
@@ -18586,14 +18934,17 @@
       <c r="G19" t="s">
         <v>2567</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>2612</v>
       </c>
       <c r="M19" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P19" s="1" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2438</v>
       </c>
@@ -18609,12 +18960,15 @@
       <c r="M20" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2418</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>2372</v>
       </c>
       <c r="G21" t="s">
@@ -18626,8 +18980,11 @@
       <c r="M21" t="s">
         <v>2647</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2419</v>
       </c>
@@ -18640,8 +18997,14 @@
       <c r="K22" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>2664</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2439</v>
       </c>
@@ -18651,8 +19014,14 @@
       <c r="G23" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>2665</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2420</v>
       </c>
@@ -18662,30 +19031,42 @@
       <c r="G24" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>2666</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2421</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>2376</v>
       </c>
       <c r="G25" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2448</v>
       </c>
       <c r="B26" t="s">
         <v>2377</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P26" s="1" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2449</v>
       </c>
@@ -18695,8 +19076,11 @@
       <c r="G27" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2450</v>
       </c>
@@ -18706,8 +19090,11 @@
       <c r="G28" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2451</v>
       </c>
@@ -18717,8 +19104,11 @@
       <c r="G29" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2476</v>
       </c>
@@ -18728,19 +19118,25 @@
       <c r="G30" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2477</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>2382</v>
       </c>
       <c r="G31" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2478</v>
       </c>
@@ -18750,8 +19146,11 @@
       <c r="G32" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2479</v>
       </c>
@@ -18761,8 +19160,11 @@
       <c r="G33" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2480</v>
       </c>
@@ -18772,8 +19174,11 @@
       <c r="G34" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2481</v>
       </c>
@@ -18783,20 +19188,26 @@
       <c r="G35" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2482</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>2387</v>
       </c>
       <c r="G36" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="P36" s="1" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>2483</v>
       </c>
       <c r="B37" t="s">
@@ -18805,8 +19216,11 @@
       <c r="G37" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2484</v>
       </c>
@@ -18816,8 +19230,11 @@
       <c r="G38" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2485</v>
       </c>
@@ -18827,8 +19244,11 @@
       <c r="G39" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2486</v>
       </c>
@@ -18838,9 +19258,12 @@
       <c r="G40" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="P40" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>2487</v>
       </c>
       <c r="B41" t="s">
@@ -18849,8 +19272,11 @@
       <c r="G41" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2488</v>
       </c>
@@ -18860,8 +19286,11 @@
       <c r="G42" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2489</v>
       </c>
@@ -18871,134 +19300,182 @@
       <c r="G43" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P43" s="1" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2490</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>2395</v>
       </c>
       <c r="G44" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2491</v>
       </c>
       <c r="B45" t="s">
         <v>2396</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2492</v>
       </c>
       <c r="B46" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2493</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2494</v>
       </c>
       <c r="B48" t="s">
         <v>2399</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2495</v>
       </c>
       <c r="B49" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2496</v>
       </c>
       <c r="B50" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2497</v>
       </c>
       <c r="B51" t="s">
         <v>2402</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2498</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>2403</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2499</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2500</v>
       </c>
       <c r="B54" t="s">
         <v>2405</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P54" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2501</v>
       </c>
       <c r="B55" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P55" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2502</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>2407</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2503</v>
       </c>
       <c r="B57" t="s">
         <v>2408</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P57" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2504</v>
       </c>
       <c r="B58" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="P58" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2505</v>
       </c>
@@ -19006,7 +19483,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2506</v>
       </c>
@@ -19014,7 +19491,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2507</v>
       </c>
@@ -19022,7 +19499,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2510</v>
       </c>
@@ -19030,7 +19507,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2511</v>
       </c>
@@ -19038,7 +19515,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2512</v>
       </c>
@@ -19098,7 +19575,7 @@
       <c r="A71" t="s">
         <v>2519</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>2422</v>
       </c>
     </row>
@@ -19182,7 +19659,7 @@
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>2473</v>
       </c>
     </row>
@@ -19209,40 +19686,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B25" r:id="rId4"/>
-    <hyperlink ref="B31" r:id="rId5"/>
-    <hyperlink ref="B36" r:id="rId6"/>
-    <hyperlink ref="B44" r:id="rId7"/>
-    <hyperlink ref="B47" r:id="rId8"/>
-    <hyperlink ref="B52" r:id="rId9"/>
-    <hyperlink ref="B53" r:id="rId10"/>
-    <hyperlink ref="B56" r:id="rId11"/>
-    <hyperlink ref="B71" r:id="rId12"/>
-    <hyperlink ref="A11" r:id="rId13"/>
-    <hyperlink ref="A18" r:id="rId14"/>
-    <hyperlink ref="C3" r:id="rId15"/>
-    <hyperlink ref="C8" r:id="rId16"/>
-    <hyperlink ref="D13" r:id="rId17"/>
-    <hyperlink ref="B83" r:id="rId18"/>
-    <hyperlink ref="A37" r:id="rId19"/>
-    <hyperlink ref="A41" r:id="rId20"/>
-    <hyperlink ref="H4" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="H7" r:id="rId23"/>
-    <hyperlink ref="G18" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G45" r:id="rId26"/>
-    <hyperlink ref="K3" r:id="rId27"/>
-    <hyperlink ref="K2" r:id="rId28"/>
-    <hyperlink ref="K19" r:id="rId29"/>
-    <hyperlink ref="L2" r:id="rId30"/>
-    <hyperlink ref="M2" r:id="rId31"/>
-    <hyperlink ref="M7" r:id="rId32"/>
+    <hyperlink ref="N7" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId3"/>
+    <hyperlink ref="P16" r:id="rId4"/>
+    <hyperlink ref="P17" r:id="rId5"/>
+    <hyperlink ref="P19" r:id="rId6"/>
+    <hyperlink ref="P26" r:id="rId7"/>
+    <hyperlink ref="P36" r:id="rId8"/>
+    <hyperlink ref="P40" r:id="rId9"/>
+    <hyperlink ref="P43" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67725F-573C-49A0-8AB1-51445CBBD5F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="8"/>
+    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -16,6 +17,7 @@
     <sheet name="L2" sheetId="7" r:id="rId7"/>
     <sheet name="L3" sheetId="8" r:id="rId8"/>
     <sheet name="L4" sheetId="9" r:id="rId9"/>
+    <sheet name="L5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="2724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="2843">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -8588,12 +8590,387 @@
   </si>
   <si>
     <t>13840003235@126.com</t>
+  </si>
+  <si>
+    <t>辽中医附属医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnzyrsc@163.com</t>
+  </si>
+  <si>
+    <t>lnzyxtyy@163.com</t>
+  </si>
+  <si>
+    <t>nzy_gaohong@163.com</t>
+  </si>
+  <si>
+    <t>1638261762@qq.com</t>
+  </si>
+  <si>
+    <t>jydm17@sina.com</t>
+  </si>
+  <si>
+    <t>13897915569@163.com</t>
+  </si>
+  <si>
+    <t>vmaxwfy@163.com</t>
+  </si>
+  <si>
+    <t>人民医院骨肿瘤科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olfsh@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>unhewl@163.com</t>
+  </si>
+  <si>
+    <t>one_tumor_ln@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>hr@panguweb.cn</t>
+  </si>
+  <si>
+    <t>anghao04@panguweb.cn</t>
+  </si>
+  <si>
+    <t>angjie@panguweb.cn</t>
+  </si>
+  <si>
+    <t>haolina01@panguweb.cn</t>
+  </si>
+  <si>
+    <t>hixiyang@panguweb.cn</t>
+  </si>
+  <si>
+    <t>ingweina@panguweb.cn</t>
+  </si>
+  <si>
+    <t>inpeipei@panguweb.cn</t>
+  </si>
+  <si>
+    <t>ishuang010@panguweb.cn</t>
+  </si>
+  <si>
+    <t>iyixuan@panguweb.cn</t>
+  </si>
+  <si>
+    <t>iyuwei@panguweb.cn</t>
+  </si>
+  <si>
+    <t>ulina@panguweb.cn</t>
+  </si>
+  <si>
+    <t>unjie@panguweb.cn</t>
+  </si>
+  <si>
+    <t>uqian@panguweb.cn</t>
+  </si>
+  <si>
+    <t>大连中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyyllwyh@126.com</t>
+  </si>
+  <si>
+    <t>guibing365@163.com</t>
+  </si>
+  <si>
+    <t>沈阳第五医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医大四院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmu4htjzx@126.com</t>
+  </si>
+  <si>
+    <t>sys5yw@163.com</t>
+  </si>
+  <si>
+    <t>其他医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhang@ng.lntcn.com.cn</t>
+  </si>
+  <si>
+    <t>zyxyfsry@163.com</t>
+  </si>
+  <si>
+    <t>dxvip@dayi100.com</t>
+  </si>
+  <si>
+    <t>master@hozgyy.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cieboy@163.com</t>
+  </si>
+  <si>
+    <t>cmdl@mail.dlptt.ln.cn</t>
+  </si>
+  <si>
+    <t>cyy88@163.com</t>
+  </si>
+  <si>
+    <t>ed@dlhospital.com</t>
+  </si>
+  <si>
+    <t>fyaym@263.net</t>
+  </si>
+  <si>
+    <t>gydkqyy@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>hang@ng.lntcn.com.cn</t>
+  </si>
+  <si>
+    <t>hzyy@126.com</t>
+  </si>
+  <si>
+    <t>iaof024@39.net</t>
+  </si>
+  <si>
+    <t>yiyuan@fuxin.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljhb@dljhb.com</t>
+  </si>
+  <si>
+    <t>llmmm@263.net</t>
+  </si>
+  <si>
+    <t>l-qy@tom.com</t>
+  </si>
+  <si>
+    <t>lsyyyb@mail.tlptt.ln.cn</t>
+  </si>
+  <si>
+    <t>lzxyy@pub.da.lnpta.net.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@boaieye.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@dleye.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@fskwjzyy.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@shqzyy.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@zhongxinyiyuan.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsfybjy@hotmail.com</t>
+  </si>
+  <si>
+    <t>ongyh@lnph.com</t>
+  </si>
+  <si>
+    <t>rbyy@ctiwt.com</t>
+  </si>
+  <si>
+    <t>rince_9521@163.com</t>
+  </si>
+  <si>
+    <t>xy@ykwsj.gov.cn</t>
+  </si>
+  <si>
+    <t>y@mail.sy.ln.cn</t>
+  </si>
+  <si>
+    <t>y2hos@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>ygkyy2004@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>yqin@39.net</t>
+  </si>
+  <si>
+    <t>ysyoffice@163.com</t>
+  </si>
+  <si>
+    <t>yxyfsry@163.com</t>
+  </si>
+  <si>
+    <t>yyy3411@sina.com</t>
+  </si>
+  <si>
+    <t>其他医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64675732@qq.com</t>
+  </si>
+  <si>
+    <t>lhtcm@126.com</t>
+  </si>
+  <si>
+    <t>xyy@public.cc.jl.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunzhijun66@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl_wjyy@sohu.com</t>
+  </si>
+  <si>
+    <t>jljhy01@hotmail.com</t>
+  </si>
+  <si>
+    <t>qsch203@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>ccjisui@ccjisui.com</t>
+  </si>
+  <si>
+    <t>jl_hqyy@tom.com</t>
+  </si>
+  <si>
+    <t>mail@yssyy.com</t>
+  </si>
+  <si>
+    <t>jlszyy@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>service@datachina.com.cn</t>
+  </si>
+  <si>
+    <t>lhyy01@sina.com</t>
+  </si>
+  <si>
+    <t>ccsx_net2008@126.com</t>
+  </si>
+  <si>
+    <t>bohua@bohuahospital.com</t>
+  </si>
+  <si>
+    <t>fyyy@spfyyy.cn</t>
+  </si>
+  <si>
+    <t>wsz@jilin.gov.cn</t>
+  </si>
+  <si>
+    <t>webmaster@dcqyy.com</t>
+  </si>
+  <si>
+    <t>hpncb@sina.com</t>
+  </si>
+  <si>
+    <t>ddfh13579@sina.com</t>
+  </si>
+  <si>
+    <t>fjl@39.net</t>
+  </si>
+  <si>
+    <t>changchun120120@sina.com</t>
+  </si>
+  <si>
+    <t>jlcckn@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009281620@qq.com</t>
+  </si>
+  <si>
+    <t>73673317@qq.com</t>
+  </si>
+  <si>
+    <t>jiayixuebaike@gmail.com</t>
+  </si>
+  <si>
+    <t>orksam@qq.com</t>
+  </si>
+  <si>
+    <t>wanghongyan@innostic.com</t>
+  </si>
+  <si>
+    <t>xiaomifeng713@sina.cn</t>
+  </si>
+  <si>
+    <t>wjclw@126.com</t>
+  </si>
+  <si>
+    <t>liyaowang@126.com</t>
+  </si>
+  <si>
+    <t>zhangyajuan080519@163.com</t>
+  </si>
+  <si>
+    <t>sy94217@sina.com</t>
+  </si>
+  <si>
+    <t>sydalong05@sina.com</t>
+  </si>
+  <si>
+    <t>songchangfu912@163.com</t>
+  </si>
+  <si>
+    <t>caoaahui@163.com</t>
+  </si>
+  <si>
+    <t>Songyh@lnph.com</t>
+  </si>
+  <si>
+    <t>xiaof024@39.net</t>
+  </si>
+  <si>
+    <t>ddsdeyy@online.ln.cn</t>
+  </si>
+  <si>
+    <t>tlsyyyb@mail.tlptt.ln.cn</t>
+  </si>
+  <si>
+    <t>syqin@39.net</t>
+  </si>
+  <si>
+    <t>ccieboy@163.com</t>
+  </si>
+  <si>
+    <t>sysyoffice@163.com</t>
+  </si>
+  <si>
+    <t>kdetyyo2@online.in.cn</t>
+  </si>
+  <si>
+    <t>yz@plahome.com</t>
+  </si>
+  <si>
+    <t>lnsfybjy@hotmail.com</t>
+  </si>
+  <si>
+    <t>yyyy@dlyyyy.com</t>
+  </si>
+  <si>
+    <t>dl-qy@tom.com</t>
+  </si>
+  <si>
+    <t>tcmdl@mail.dlptt.ln.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8768,7 +9145,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CDFABE"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9015,14 +9392,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -9032,19 +9409,19 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -9070,7 +9447,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9096,7 +9473,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -9122,7 +9499,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -9148,7 +9525,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9551,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9196,7 +9573,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -9218,7 +9595,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -9240,7 +9617,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9262,7 +9639,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -9284,7 +9661,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -9306,7 +9683,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -9328,7 +9705,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -9350,7 +9727,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -9372,7 +9749,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -9394,7 +9771,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -9416,7 +9793,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -9438,7 +9815,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -9460,7 +9837,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -9482,7 +9859,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -9502,7 +9879,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -9522,7 +9899,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -9542,7 +9919,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -9562,7 +9939,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -9582,7 +9959,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -9602,7 +9979,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -9620,7 +9997,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -9638,7 +10015,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -9656,7 +10033,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
@@ -9674,7 +10051,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
@@ -9692,7 +10069,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -9710,7 +10087,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -9728,7 +10105,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
@@ -9746,7 +10123,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
@@ -9764,7 +10141,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -9782,7 +10159,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -9800,7 +10177,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
@@ -9815,7 +10192,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
@@ -9830,7 +10207,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
@@ -9845,7 +10222,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
@@ -9860,7 +10237,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -9875,7 +10252,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>0</v>
       </c>
@@ -9890,7 +10267,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -9903,7 +10280,7 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -9916,7 +10293,7 @@
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -9929,7 +10306,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -9942,7 +10319,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -9955,7 +10332,7 @@
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -9968,7 +10345,7 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -9981,7 +10358,7 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -9994,7 +10371,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -10007,7 +10384,7 @@
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -10020,7 +10397,7 @@
       </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -10033,7 +10410,7 @@
       </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -10046,7 +10423,7 @@
       </c>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -10059,7 +10436,7 @@
       </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -10072,7 +10449,7 @@
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -10083,7 +10460,7 @@
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -10094,7 +10471,7 @@
       </c>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -10105,7 +10482,7 @@
       </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -10116,7 +10493,7 @@
       </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -10127,7 +10504,7 @@
       </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -10145,8 +10522,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD3629-BA2C-4660-9114-100693C38AE0}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{BB99C7BB-ED32-4675-A710-B337C8A52A91}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{E89B23A5-E131-4E88-838D-A9E7B972A3AA}"/>
+    <hyperlink ref="F20" r:id="rId3" xr:uid="{C71EC7E3-FEA0-414A-8155-81FC1269F938}"/>
+    <hyperlink ref="F21" r:id="rId4" xr:uid="{EBD8C6AA-1EC9-4901-9FE8-FFAFBD4CECF9}"/>
+    <hyperlink ref="F22" r:id="rId5" xr:uid="{230E0AA4-7523-48B1-BCFD-5CEFC6DDCAF5}"/>
+    <hyperlink ref="F23" r:id="rId6" xr:uid="{6F58639A-E55E-447C-BE2F-46D48E5E1AFD}"/>
+    <hyperlink ref="F24" r:id="rId7" xr:uid="{9D8DECFD-20F9-4B28-96C8-D6C7A534D1FB}"/>
+    <hyperlink ref="F25" r:id="rId8" xr:uid="{5DE9C195-0FDE-4222-9868-B8B3AB4C2342}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K102"/>
   <sheetViews>
@@ -10156,21 +10948,21 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="29.75" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="31.75" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="30.375" customWidth="1"/>
-    <col min="11" max="11" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>251</v>
       </c>
@@ -10205,7 +10997,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>250</v>
       </c>
@@ -10240,7 +11032,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>252</v>
       </c>
@@ -10275,7 +11067,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>253</v>
       </c>
@@ -10310,7 +11102,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>254</v>
       </c>
@@ -10345,7 +11137,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>79</v>
       </c>
@@ -10380,7 +11172,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>255</v>
       </c>
@@ -10413,7 +11205,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>256</v>
       </c>
@@ -10446,7 +11238,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>257</v>
       </c>
@@ -10479,7 +11271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>258</v>
       </c>
@@ -10512,7 +11304,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -10543,7 +11335,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -10569,7 +11361,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>337</v>
       </c>
@@ -10595,7 +11387,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>338</v>
       </c>
@@ -10621,7 +11413,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>340</v>
       </c>
@@ -10647,7 +11439,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>341</v>
       </c>
@@ -10673,7 +11465,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -10699,7 +11491,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>350</v>
       </c>
@@ -10725,7 +11517,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>351</v>
       </c>
@@ -10751,7 +11543,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>352</v>
       </c>
@@ -10774,7 +11566,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>353</v>
       </c>
@@ -10797,7 +11589,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>354</v>
       </c>
@@ -10820,7 +11612,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -10840,7 +11632,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -10860,7 +11652,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>361</v>
       </c>
@@ -10880,7 +11672,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>364</v>
       </c>
@@ -10900,7 +11692,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -10920,7 +11712,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10940,7 +11732,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>367</v>
       </c>
@@ -10960,7 +11752,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -10980,7 +11772,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>369</v>
       </c>
@@ -10997,7 +11789,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -11014,7 +11806,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -11031,7 +11823,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -11048,7 +11840,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>373</v>
       </c>
@@ -11065,7 +11857,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>374</v>
       </c>
@@ -11082,7 +11874,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>375</v>
       </c>
@@ -11099,7 +11891,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>380</v>
       </c>
@@ -11116,7 +11908,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>381</v>
       </c>
@@ -11133,7 +11925,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -11150,7 +11942,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -11164,7 +11956,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>396</v>
       </c>
@@ -11178,7 +11970,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -11192,7 +11984,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -11206,7 +11998,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -11220,7 +12012,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -11234,7 +12026,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -11245,7 +12037,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -11256,7 +12048,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>403</v>
       </c>
@@ -11267,7 +12059,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -11275,7 +12067,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -11283,7 +12075,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>406</v>
       </c>
@@ -11291,7 +12083,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -11299,7 +12091,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -11307,7 +12099,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -11315,7 +12107,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -11323,7 +12115,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>411</v>
       </c>
@@ -11331,7 +12123,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -11339,7 +12131,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>413</v>
       </c>
@@ -11347,7 +12139,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -11355,7 +12147,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -11363,7 +12155,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>416</v>
       </c>
@@ -11371,7 +12163,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>417</v>
       </c>
@@ -11379,197 +12171,197 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
         <v>631</v>
       </c>
@@ -11577,14 +12369,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1"/>
-    <hyperlink ref="J14" r:id="rId2"/>
-    <hyperlink ref="K28" r:id="rId3"/>
-    <hyperlink ref="I37" r:id="rId4"/>
-    <hyperlink ref="I61" r:id="rId5"/>
-    <hyperlink ref="I62" r:id="rId6"/>
-    <hyperlink ref="K35" r:id="rId7"/>
-    <hyperlink ref="K41" r:id="rId8"/>
+    <hyperlink ref="K11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K28" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I37" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I61" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I62" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K35" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="K41" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11592,28 +12384,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>644</v>
       </c>
@@ -11641,8 +12434,11 @@
       <c r="I1" s="10" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="8" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>646</v>
       </c>
@@ -11670,8 +12466,11 @@
       <c r="I2" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>647</v>
       </c>
@@ -11699,8 +12498,11 @@
       <c r="I3" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>666</v>
       </c>
@@ -11719,8 +12521,11 @@
       <c r="H4" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>667</v>
       </c>
@@ -11739,8 +12544,11 @@
       <c r="H5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>668</v>
       </c>
@@ -11759,8 +12567,11 @@
       <c r="H6" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>672</v>
       </c>
@@ -11779,8 +12590,11 @@
       <c r="H7" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>675</v>
       </c>
@@ -11799,8 +12613,11 @@
       <c r="H8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>676</v>
       </c>
@@ -11819,8 +12636,11 @@
       <c r="H9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>677</v>
       </c>
@@ -11836,8 +12656,11 @@
       <c r="E10" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>678</v>
       </c>
@@ -11853,8 +12676,11 @@
       <c r="E11" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>679</v>
       </c>
@@ -11864,8 +12690,11 @@
       <c r="D12" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>695</v>
       </c>
@@ -11875,8 +12704,11 @@
       <c r="D13" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>696</v>
       </c>
@@ -11886,8 +12718,11 @@
       <c r="D14" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>697</v>
       </c>
@@ -11897,8 +12732,11 @@
       <c r="D15" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>743</v>
       </c>
@@ -11908,8 +12746,11 @@
       <c r="D16" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -11919,206 +12760,248 @@
       <c r="D17" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>700</v>
       </c>
       <c r="D18" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>739</v>
       </c>
@@ -12126,11 +13009,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B26" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="J5" r:id="rId6" xr:uid="{EFA28FBE-3863-4548-B90B-F5DC5B9F9D90}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{91C5B3A2-F0AF-4B21-B75A-BFDECBD7289B}"/>
+    <hyperlink ref="J24" r:id="rId8" xr:uid="{2F8A7A16-4253-4EA5-97D5-042D9F7642E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12138,7 +13024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12146,19 +13032,19 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>765</v>
       </c>
@@ -12187,7 +13073,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -12216,7 +13102,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>774</v>
       </c>
@@ -12245,7 +13131,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -12274,7 +13160,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -12300,7 +13186,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -12326,7 +13212,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -12352,7 +13238,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>779</v>
       </c>
@@ -12378,7 +13264,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>780</v>
       </c>
@@ -12401,7 +13287,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>781</v>
       </c>
@@ -12421,7 +13307,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -12438,7 +13324,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -12449,7 +13335,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -12460,7 +13346,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -12471,7 +13357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -12482,7 +13368,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>787</v>
       </c>
@@ -12493,7 +13379,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>788</v>
       </c>
@@ -12504,7 +13390,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -12515,7 +13401,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -12526,7 +13412,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>791</v>
       </c>
@@ -12537,7 +13423,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>792</v>
       </c>
@@ -12548,7 +13434,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>794</v>
       </c>
@@ -12556,7 +13442,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -12564,7 +13450,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>799</v>
       </c>
@@ -12572,7 +13458,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>800</v>
       </c>
@@ -12580,7 +13466,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>801</v>
       </c>
@@ -12588,7 +13474,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>803</v>
       </c>
@@ -12596,7 +13482,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>806</v>
       </c>
@@ -12604,7 +13490,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>808</v>
       </c>
@@ -12612,7 +13498,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>811</v>
       </c>
@@ -12620,7 +13506,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>812</v>
       </c>
@@ -12628,7 +13514,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>821</v>
       </c>
@@ -12636,7 +13522,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>822</v>
       </c>
@@ -12644,7 +13530,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>823</v>
       </c>
@@ -12652,7 +13538,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>824</v>
       </c>
@@ -12660,7 +13546,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>825</v>
       </c>
@@ -12668,7 +13554,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>826</v>
       </c>
@@ -12676,7 +13562,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>827</v>
       </c>
@@ -12684,7 +13570,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>828</v>
       </c>
@@ -12692,7 +13578,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>829</v>
       </c>
@@ -12700,7 +13586,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>830</v>
       </c>
@@ -12708,7 +13594,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>831</v>
       </c>
@@ -12716,7 +13602,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>832</v>
       </c>
@@ -12724,7 +13610,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>833</v>
       </c>
@@ -12732,7 +13618,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>836</v>
       </c>
@@ -12740,7 +13626,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>837</v>
       </c>
@@ -12748,7 +13634,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>838</v>
       </c>
@@ -12756,7 +13642,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>841</v>
       </c>
@@ -12764,7 +13650,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>842</v>
       </c>
@@ -12772,7 +13658,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>844</v>
       </c>
@@ -12780,7 +13666,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>845</v>
       </c>
@@ -12788,207 +13674,207 @@
         <v>892</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>947</v>
       </c>
@@ -12996,7 +13882,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13004,7 +13890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -13012,22 +13898,22 @@
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="30.25" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>989</v>
       </c>
@@ -13065,7 +13951,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -13103,7 +13989,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1013</v>
       </c>
@@ -13138,7 +14024,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -13170,7 +14056,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1015</v>
       </c>
@@ -13199,7 +14085,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -13228,7 +14114,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1017</v>
       </c>
@@ -13257,7 +14143,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1018</v>
       </c>
@@ -13286,7 +14172,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
@@ -13315,7 +14201,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1020</v>
       </c>
@@ -13344,7 +14230,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1021</v>
       </c>
@@ -13370,7 +14256,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1022</v>
       </c>
@@ -13396,7 +14282,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1023</v>
       </c>
@@ -13419,7 +14305,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1024</v>
       </c>
@@ -13442,7 +14328,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1025</v>
       </c>
@@ -13465,7 +14351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1026</v>
       </c>
@@ -13488,7 +14374,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1027</v>
       </c>
@@ -13505,7 +14391,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1028</v>
       </c>
@@ -13519,7 +14405,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1032</v>
       </c>
@@ -13533,7 +14419,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1038</v>
       </c>
@@ -13544,7 +14430,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>1081</v>
       </c>
@@ -13552,7 +14438,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>1082</v>
       </c>
@@ -13560,7 +14446,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>1083</v>
       </c>
@@ -13568,7 +14454,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>1084</v>
       </c>
@@ -13576,7 +14462,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>1085</v>
       </c>
@@ -13584,7 +14470,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>1086</v>
       </c>
@@ -13592,7 +14478,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>1089</v>
       </c>
@@ -13600,7 +14486,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>1090</v>
       </c>
@@ -13608,7 +14494,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>1098</v>
       </c>
@@ -13616,7 +14502,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>1099</v>
       </c>
@@ -13624,7 +14510,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>1100</v>
       </c>
@@ -13632,7 +14518,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>1101</v>
       </c>
@@ -13640,87 +14526,87 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>1170</v>
       </c>
@@ -13728,13 +14614,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B17" r:id="rId3"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="H35" r:id="rId5"/>
-    <hyperlink ref="L14" r:id="rId6"/>
-    <hyperlink ref="L16" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="H35" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="L16" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13742,7 +14628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -13750,19 +14636,19 @@
       <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1171</v>
       </c>
@@ -13788,7 +14674,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1172</v>
       </c>
@@ -13814,7 +14700,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1173</v>
       </c>
@@ -13840,7 +14726,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1174</v>
       </c>
@@ -13866,7 +14752,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1175</v>
       </c>
@@ -13892,7 +14778,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1176</v>
       </c>
@@ -13915,7 +14801,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1177</v>
       </c>
@@ -13938,7 +14824,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1178</v>
       </c>
@@ -13961,7 +14847,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1179</v>
       </c>
@@ -13984,7 +14870,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1180</v>
       </c>
@@ -14007,7 +14893,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1268</v>
       </c>
@@ -14030,7 +14916,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1323</v>
       </c>
@@ -14053,7 +14939,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1342</v>
       </c>
@@ -14076,7 +14962,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1355</v>
       </c>
@@ -14099,7 +14985,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1379</v>
       </c>
@@ -14122,7 +15008,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1380</v>
       </c>
@@ -14145,7 +15031,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1381</v>
       </c>
@@ -14168,7 +15054,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1382</v>
       </c>
@@ -14191,7 +15077,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1474</v>
       </c>
@@ -14214,7 +15100,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1475</v>
       </c>
@@ -14237,7 +15123,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1213</v>
       </c>
@@ -14257,7 +15143,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1214</v>
       </c>
@@ -14277,7 +15163,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1215</v>
       </c>
@@ -14297,7 +15183,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1216</v>
       </c>
@@ -14317,7 +15203,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1217</v>
       </c>
@@ -14337,7 +15223,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1218</v>
       </c>
@@ -14357,7 +15243,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1219</v>
       </c>
@@ -14377,7 +15263,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1220</v>
       </c>
@@ -14397,7 +15283,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1221</v>
       </c>
@@ -14417,7 +15303,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1222</v>
       </c>
@@ -14434,7 +15320,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1223</v>
       </c>
@@ -14451,7 +15337,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1224</v>
       </c>
@@ -14468,7 +15354,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1225</v>
       </c>
@@ -14485,7 +15371,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1226</v>
       </c>
@@ -14502,7 +15388,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1227</v>
       </c>
@@ -14519,7 +15405,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1228</v>
       </c>
@@ -14533,7 +15419,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1229</v>
       </c>
@@ -14547,7 +15433,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1230</v>
       </c>
@@ -14561,7 +15447,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1231</v>
       </c>
@@ -14575,7 +15461,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1232</v>
       </c>
@@ -14589,7 +15475,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1233</v>
       </c>
@@ -14603,7 +15489,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1234</v>
       </c>
@@ -14617,7 +15503,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>1235</v>
       </c>
@@ -14631,7 +15517,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1236</v>
       </c>
@@ -14645,7 +15531,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>1237</v>
       </c>
@@ -14659,7 +15545,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1238</v>
       </c>
@@ -14673,7 +15559,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1239</v>
       </c>
@@ -14687,7 +15573,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1240</v>
       </c>
@@ -14701,7 +15587,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1241</v>
       </c>
@@ -14712,7 +15598,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1242</v>
       </c>
@@ -14723,7 +15609,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1243</v>
       </c>
@@ -14734,7 +15620,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>1244</v>
       </c>
@@ -14745,7 +15631,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1245</v>
       </c>
@@ -14756,7 +15642,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>1246</v>
       </c>
@@ -14767,7 +15653,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>1247</v>
       </c>
@@ -14778,7 +15664,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1248</v>
       </c>
@@ -14789,7 +15675,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1249</v>
       </c>
@@ -14800,7 +15686,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1250</v>
       </c>
@@ -14811,7 +15697,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>1269</v>
       </c>
@@ -14822,7 +15708,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1278</v>
       </c>
@@ -14833,7 +15719,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>1279</v>
       </c>
@@ -14844,7 +15730,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1280</v>
       </c>
@@ -14855,7 +15741,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1281</v>
       </c>
@@ -14866,7 +15752,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1282</v>
       </c>
@@ -14877,7 +15763,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1283</v>
       </c>
@@ -14888,7 +15774,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1284</v>
       </c>
@@ -14899,7 +15785,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1285</v>
       </c>
@@ -14910,7 +15796,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>1286</v>
       </c>
@@ -14921,7 +15807,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>1287</v>
       </c>
@@ -14932,7 +15818,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>1288</v>
       </c>
@@ -14943,7 +15829,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>1293</v>
       </c>
@@ -14954,7 +15840,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>1324</v>
       </c>
@@ -14962,7 +15848,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>1325</v>
       </c>
@@ -14970,7 +15856,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1353</v>
       </c>
@@ -14978,7 +15864,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1354</v>
       </c>
@@ -14986,92 +15872,92 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>1564</v>
       </c>
@@ -15079,36 +15965,36 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="C39" r:id="rId2"/>
-    <hyperlink ref="E23" r:id="rId3"/>
-    <hyperlink ref="E24" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G16" r:id="rId7"/>
-    <hyperlink ref="H2" r:id="rId8"/>
-    <hyperlink ref="H3" r:id="rId9"/>
-    <hyperlink ref="H7" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H18" r:id="rId12"/>
-    <hyperlink ref="H21" r:id="rId13"/>
-    <hyperlink ref="H25" r:id="rId14"/>
-    <hyperlink ref="H31" r:id="rId15"/>
-    <hyperlink ref="H32" r:id="rId16"/>
-    <hyperlink ref="H41" r:id="rId17"/>
-    <hyperlink ref="H49" r:id="rId18"/>
-    <hyperlink ref="H52" r:id="rId19"/>
-    <hyperlink ref="H55" r:id="rId20"/>
-    <hyperlink ref="H56" r:id="rId21"/>
-    <hyperlink ref="H57" r:id="rId22"/>
-    <hyperlink ref="H73" r:id="rId23"/>
-    <hyperlink ref="H14" r:id="rId24"/>
-    <hyperlink ref="G32" r:id="rId25"/>
-    <hyperlink ref="G46" r:id="rId26"/>
-    <hyperlink ref="G48" r:id="rId27"/>
-    <hyperlink ref="G56" r:id="rId28"/>
-    <hyperlink ref="G62" r:id="rId29"/>
-    <hyperlink ref="G69" r:id="rId30"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C39" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="H2" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="H18" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="H25" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="H31" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="H32" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="H41" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="H49" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="H52" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="H55" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="H56" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="H57" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="H73" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="H14" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="G32" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="G46" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="G48" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="G56" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="G62" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="G69" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
@@ -15116,7 +16002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15124,22 +16010,22 @@
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -15174,7 +16060,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -15209,7 +16095,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -15244,7 +16130,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -15279,7 +16165,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
@@ -15314,7 +16200,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
@@ -15349,7 +16235,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -15384,7 +16270,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -15419,7 +16305,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
@@ -15454,7 +16340,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
@@ -15489,7 +16375,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
@@ -15524,7 +16410,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1567</v>
       </c>
@@ -15559,7 +16445,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1603</v>
       </c>
@@ -15594,7 +16480,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1608</v>
       </c>
@@ -15629,7 +16515,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1623</v>
       </c>
@@ -15664,7 +16550,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1624</v>
       </c>
@@ -15699,7 +16585,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1638</v>
       </c>
@@ -15731,7 +16617,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1639</v>
       </c>
@@ -15763,7 +16649,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -15792,7 +16678,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1644</v>
       </c>
@@ -15821,7 +16707,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1653</v>
       </c>
@@ -15850,7 +16736,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1654</v>
       </c>
@@ -15879,7 +16765,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1655</v>
       </c>
@@ -15905,7 +16791,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1656</v>
       </c>
@@ -15931,7 +16817,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1658</v>
       </c>
@@ -15957,7 +16843,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1660</v>
       </c>
@@ -15980,7 +16866,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1673</v>
       </c>
@@ -16000,7 +16886,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1685</v>
       </c>
@@ -16020,7 +16906,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1695</v>
       </c>
@@ -16040,7 +16926,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1696</v>
       </c>
@@ -16060,7 +16946,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1697</v>
       </c>
@@ -16077,7 +16963,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1698</v>
       </c>
@@ -16094,7 +16980,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1699</v>
       </c>
@@ -16111,7 +16997,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1700</v>
       </c>
@@ -16128,7 +17014,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1701</v>
       </c>
@@ -16145,7 +17031,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1727</v>
       </c>
@@ -16162,7 +17048,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>1838</v>
       </c>
@@ -16170,7 +17056,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>1839</v>
       </c>
@@ -16178,7 +17064,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>1840</v>
       </c>
@@ -16186,7 +17072,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>1841</v>
       </c>
@@ -16194,312 +17080,312 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>1936</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
         <v>1992</v>
       </c>
@@ -16512,7 +17398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16520,21 +17406,21 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1864</v>
       </c>
@@ -16566,7 +17452,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1865</v>
       </c>
@@ -16598,7 +17484,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1866</v>
       </c>
@@ -16630,7 +17516,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1867</v>
       </c>
@@ -16662,7 +17548,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1868</v>
       </c>
@@ -16694,7 +17580,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1869</v>
       </c>
@@ -16726,7 +17612,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1870</v>
       </c>
@@ -16758,7 +17644,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
@@ -16790,7 +17676,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1872</v>
       </c>
@@ -16822,7 +17708,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1873</v>
       </c>
@@ -16854,7 +17740,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1874</v>
       </c>
@@ -16886,7 +17772,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1875</v>
       </c>
@@ -16918,7 +17804,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1876</v>
       </c>
@@ -16950,7 +17836,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1889</v>
       </c>
@@ -16982,7 +17868,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1890</v>
       </c>
@@ -17014,7 +17900,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1891</v>
       </c>
@@ -17046,7 +17932,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1892</v>
       </c>
@@ -17075,7 +17961,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1893</v>
       </c>
@@ -17104,7 +17990,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1894</v>
       </c>
@@ -17133,7 +18019,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1897</v>
       </c>
@@ -17162,7 +18048,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1898</v>
       </c>
@@ -17191,7 +18077,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1899</v>
       </c>
@@ -17220,7 +18106,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1900</v>
       </c>
@@ -17246,7 +18132,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1901</v>
       </c>
@@ -17272,7 +18158,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1903</v>
       </c>
@@ -17298,7 +18184,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1904</v>
       </c>
@@ -17318,7 +18204,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1905</v>
       </c>
@@ -17338,7 +18224,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1915</v>
       </c>
@@ -17358,7 +18244,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1916</v>
       </c>
@@ -17378,7 +18264,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1921</v>
       </c>
@@ -17398,7 +18284,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1925</v>
       </c>
@@ -17418,7 +18304,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1954</v>
       </c>
@@ -17438,7 +18324,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1962</v>
       </c>
@@ -17458,7 +18344,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1971</v>
       </c>
@@ -17478,7 +18364,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1974</v>
       </c>
@@ -17498,7 +18384,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1975</v>
       </c>
@@ -17518,7 +18404,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>1376</v>
       </c>
@@ -17535,7 +18421,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>1377</v>
       </c>
@@ -17549,7 +18435,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>2100</v>
       </c>
@@ -17560,7 +18446,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>2101</v>
       </c>
@@ -17571,7 +18457,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>2102</v>
       </c>
@@ -17582,7 +18468,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>2103</v>
       </c>
@@ -17593,7 +18479,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>2104</v>
       </c>
@@ -17601,7 +18487,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>2105</v>
       </c>
@@ -17609,7 +18495,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>2106</v>
       </c>
@@ -17617,7 +18503,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>2107</v>
       </c>
@@ -17625,7 +18511,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>2108</v>
       </c>
@@ -17633,7 +18519,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>2004</v>
       </c>
@@ -17641,7 +18527,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>2109</v>
       </c>
@@ -17649,7 +18535,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>2110</v>
       </c>
@@ -17657,7 +18543,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>2111</v>
       </c>
@@ -17665,7 +18551,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>2112</v>
       </c>
@@ -17673,7 +18559,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>2113</v>
       </c>
@@ -17681,7 +18567,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>2114</v>
       </c>
@@ -17689,7 +18575,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>2115</v>
       </c>
@@ -17697,7 +18583,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>2116</v>
       </c>
@@ -17705,7 +18591,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>2117</v>
       </c>
@@ -17713,7 +18599,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>2118</v>
       </c>
@@ -17721,7 +18607,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>2119</v>
       </c>
@@ -17729,7 +18615,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>2120</v>
       </c>
@@ -17737,7 +18623,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>2121</v>
       </c>
@@ -17745,7 +18631,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>2122</v>
       </c>
@@ -17753,7 +18639,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>2123</v>
       </c>
@@ -17761,7 +18647,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>2124</v>
       </c>
@@ -17769,7 +18655,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>2125</v>
       </c>
@@ -17777,7 +18663,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>2126</v>
       </c>
@@ -17785,7 +18671,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>2127</v>
       </c>
@@ -17793,7 +18679,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>2128</v>
       </c>
@@ -17801,487 +18687,487 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>2134</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>2164</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
         <v>2215</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
         <v>2216</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
         <v>2218</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G164" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
         <v>2225</v>
       </c>
@@ -18293,35 +19179,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.375" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="27.25" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.77734375" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2349</v>
       </c>
@@ -18371,7 +19258,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2026</v>
       </c>
@@ -18421,7 +19308,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2219</v>
       </c>
@@ -18465,7 +19352,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2350</v>
       </c>
@@ -18506,7 +19393,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2351</v>
       </c>
@@ -18547,7 +19434,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2352</v>
       </c>
@@ -18588,7 +19475,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2353</v>
       </c>
@@ -18629,7 +19516,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2354</v>
       </c>
@@ -18664,7 +19551,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2355</v>
       </c>
@@ -18696,7 +19583,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2356</v>
       </c>
@@ -18725,7 +19612,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2429</v>
       </c>
@@ -18754,7 +19641,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2430</v>
       </c>
@@ -18783,7 +19670,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2431</v>
       </c>
@@ -18809,7 +19696,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2432</v>
       </c>
@@ -18835,7 +19722,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2433</v>
       </c>
@@ -18858,7 +19745,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2434</v>
       </c>
@@ -18881,7 +19768,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2435</v>
       </c>
@@ -18904,7 +19791,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2436</v>
       </c>
@@ -18924,7 +19811,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2437</v>
       </c>
@@ -18944,7 +19831,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2438</v>
       </c>
@@ -18964,7 +19851,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2418</v>
       </c>
@@ -18984,7 +19871,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2419</v>
       </c>
@@ -19004,7 +19891,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2439</v>
       </c>
@@ -19021,7 +19908,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2420</v>
       </c>
@@ -19038,7 +19925,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2421</v>
       </c>
@@ -19052,7 +19939,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2448</v>
       </c>
@@ -19066,7 +19953,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2449</v>
       </c>
@@ -19080,7 +19967,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2450</v>
       </c>
@@ -19094,7 +19981,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2451</v>
       </c>
@@ -19108,7 +19995,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2476</v>
       </c>
@@ -19122,7 +20009,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2477</v>
       </c>
@@ -19136,7 +20023,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2478</v>
       </c>
@@ -19150,7 +20037,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2479</v>
       </c>
@@ -19164,7 +20051,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2480</v>
       </c>
@@ -19178,7 +20065,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2481</v>
       </c>
@@ -19192,7 +20079,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2482</v>
       </c>
@@ -19206,7 +20093,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2483</v>
       </c>
@@ -19220,7 +20107,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2484</v>
       </c>
@@ -19234,7 +20121,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2485</v>
       </c>
@@ -19248,7 +20135,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2486</v>
       </c>
@@ -19262,7 +20149,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2487</v>
       </c>
@@ -19276,7 +20163,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2488</v>
       </c>
@@ -19290,7 +20177,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2489</v>
       </c>
@@ -19304,7 +20191,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2490</v>
       </c>
@@ -19318,7 +20205,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2491</v>
       </c>
@@ -19332,7 +20219,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2492</v>
       </c>
@@ -19343,7 +20230,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2493</v>
       </c>
@@ -19354,7 +20241,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2494</v>
       </c>
@@ -19365,7 +20252,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2495</v>
       </c>
@@ -19376,7 +20263,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2496</v>
       </c>
@@ -19387,7 +20274,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2497</v>
       </c>
@@ -19398,7 +20285,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2498</v>
       </c>
@@ -19409,7 +20296,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2499</v>
       </c>
@@ -19420,7 +20307,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2500</v>
       </c>
@@ -19431,7 +20318,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2501</v>
       </c>
@@ -19442,7 +20329,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2502</v>
       </c>
@@ -19453,7 +20340,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2503</v>
       </c>
@@ -19464,7 +20351,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2504</v>
       </c>
@@ -19475,7 +20362,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2505</v>
       </c>
@@ -19483,7 +20370,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2506</v>
       </c>
@@ -19491,7 +20378,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2507</v>
       </c>
@@ -19499,7 +20386,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2510</v>
       </c>
@@ -19507,7 +20394,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2511</v>
       </c>
@@ -19515,7 +20402,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2512</v>
       </c>
@@ -19523,7 +20410,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2513</v>
       </c>
@@ -19531,7 +20418,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2514</v>
       </c>
@@ -19539,7 +20426,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2515</v>
       </c>
@@ -19547,7 +20434,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2516</v>
       </c>
@@ -19555,7 +20442,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2517</v>
       </c>
@@ -19563,7 +20450,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2518</v>
       </c>
@@ -19571,7 +20458,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2519</v>
       </c>
@@ -19579,7 +20466,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2520</v>
       </c>
@@ -19587,7 +20474,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2521</v>
       </c>
@@ -19595,7 +20482,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2522</v>
       </c>
@@ -19603,7 +20490,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2523</v>
       </c>
@@ -19611,7 +20498,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2524</v>
       </c>
@@ -19619,7 +20506,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2285</v>
       </c>
@@ -19627,7 +20514,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2551</v>
       </c>
@@ -19635,7 +20522,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2552</v>
       </c>
@@ -19643,42 +20530,42 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>2470</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>2472</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>2473</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>2451</v>
       </c>
@@ -19686,16 +20573,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-    <hyperlink ref="P5" r:id="rId3"/>
-    <hyperlink ref="P16" r:id="rId4"/>
-    <hyperlink ref="P17" r:id="rId5"/>
-    <hyperlink ref="P19" r:id="rId6"/>
-    <hyperlink ref="P26" r:id="rId7"/>
-    <hyperlink ref="P36" r:id="rId8"/>
-    <hyperlink ref="P40" r:id="rId9"/>
-    <hyperlink ref="P43" r:id="rId10"/>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="P16" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="P17" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="P19" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="P26" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="P36" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="P40" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="P43" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67725F-573C-49A0-8AB1-51445CBBD5F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0758D6-9DE0-4016-AAD1-DC30F3463264}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="2843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="2879">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -8965,6 +8965,116 @@
   </si>
   <si>
     <t>tcmdl@mail.dlptt.ln.cn</t>
+  </si>
+  <si>
+    <t>liye56@163.com</t>
+  </si>
+  <si>
+    <t>lnxcmdf@sina.com</t>
+  </si>
+  <si>
+    <t>sylr2011@126.com</t>
+  </si>
+  <si>
+    <t>yjh5ygyy@126.com</t>
+  </si>
+  <si>
+    <t>ail@yssyy.com</t>
+  </si>
+  <si>
+    <t>angguan@ccng.gov.cn</t>
+  </si>
+  <si>
+    <t>angyan197866@126.com</t>
+  </si>
+  <si>
+    <t>cjisui@ccjisui.com</t>
+  </si>
+  <si>
+    <t>csx_net2008@126.com</t>
+  </si>
+  <si>
+    <t>dfh13579@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@dcqyy.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangchun120120@sina.com</t>
+  </si>
+  <si>
+    <t>hyy01@sina.com</t>
+  </si>
+  <si>
+    <t>jl@39.net</t>
+  </si>
+  <si>
+    <t>l_hqyy@tom.com</t>
+  </si>
+  <si>
+    <t>lcckn@163.com</t>
+  </si>
+  <si>
+    <t>lccypyy@39.net</t>
+  </si>
+  <si>
+    <t>ljhy01@hotmail.com</t>
+  </si>
+  <si>
+    <t>lszyy@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>ohua@bohuahospital.com</t>
+  </si>
+  <si>
+    <t>pncb@sina.com</t>
+  </si>
+  <si>
+    <t>sch203@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>tywx@163.com</t>
+  </si>
+  <si>
+    <t>yyy@spfyyy.cn</t>
+  </si>
+  <si>
+    <t>zy@wzg.cn</t>
+  </si>
+  <si>
+    <t>l_wjyy@sohu.com</t>
+  </si>
+  <si>
+    <t>aihe_liangjing@hotmail.com</t>
+  </si>
+  <si>
+    <t>bs@39.net</t>
+  </si>
+  <si>
+    <t>engcheng@pcyy.net</t>
+  </si>
+  <si>
+    <t>lhuifengeye@163.com</t>
+  </si>
+  <si>
+    <t>pw@39.net</t>
+  </si>
+  <si>
+    <t>tbjy2005@163.com</t>
+  </si>
+  <si>
+    <t>ttnbyy@126.com</t>
+  </si>
+  <si>
+    <t>080519@163.com</t>
+  </si>
+  <si>
+    <t>iyaowang@126.com</t>
+  </si>
+  <si>
+    <t>ylmr@126.com</t>
   </si>
 </sst>
 </file>
@@ -10524,10 +10634,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD3629-BA2C-4660-9114-100693C38AE0}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10537,7 +10647,7 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10685,6 +10795,9 @@
       <c r="B10" t="s">
         <v>2741</v>
       </c>
+      <c r="D10" t="s">
+        <v>2843</v>
+      </c>
       <c r="F10" t="s">
         <v>2766</v>
       </c>
@@ -10693,6 +10806,9 @@
       <c r="B11" t="s">
         <v>2742</v>
       </c>
+      <c r="D11" t="s">
+        <v>2844</v>
+      </c>
       <c r="F11" t="s">
         <v>2767</v>
       </c>
@@ -10701,6 +10817,9 @@
       <c r="B12" t="s">
         <v>2743</v>
       </c>
+      <c r="D12" t="s">
+        <v>2845</v>
+      </c>
       <c r="F12" t="s">
         <v>2768</v>
       </c>
@@ -10709,6 +10828,9 @@
       <c r="B13" t="s">
         <v>2744</v>
       </c>
+      <c r="D13" t="s">
+        <v>2846</v>
+      </c>
       <c r="F13" t="s">
         <v>2769</v>
       </c>
@@ -10717,6 +10839,9 @@
       <c r="B14" t="s">
         <v>2745</v>
       </c>
+      <c r="D14" t="s">
+        <v>2876</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>2770</v>
       </c>
@@ -10725,6 +10850,9 @@
       <c r="B15" t="s">
         <v>2746</v>
       </c>
+      <c r="D15" t="s">
+        <v>2877</v>
+      </c>
       <c r="F15" t="s">
         <v>1373</v>
       </c>
@@ -10733,6 +10861,9 @@
       <c r="B16" t="s">
         <v>2747</v>
       </c>
+      <c r="D16" t="s">
+        <v>2878</v>
+      </c>
       <c r="F16" t="s">
         <v>2771</v>
       </c>
@@ -10882,42 +11013,47 @@
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>2758</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>2841</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>2842</v>
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>2841</v>
       </c>
     </row>
   </sheetData>
@@ -12385,11 +12521,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12875,135 +13011,261 @@
       <c r="B31" t="s">
         <v>713</v>
       </c>
+      <c r="J31" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>739</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -13017,6 +13279,8 @@
     <hyperlink ref="J5" r:id="rId6" xr:uid="{EFA28FBE-3863-4548-B90B-F5DC5B9F9D90}"/>
     <hyperlink ref="J4" r:id="rId7" xr:uid="{91C5B3A2-F0AF-4B21-B75A-BFDECBD7289B}"/>
     <hyperlink ref="J24" r:id="rId8" xr:uid="{2F8A7A16-4253-4EA5-97D5-042D9F7642E6}"/>
+    <hyperlink ref="J43" r:id="rId9" xr:uid="{39CF73B5-F712-4443-A06B-85D85E38E351}"/>
+    <hyperlink ref="J44" r:id="rId10" xr:uid="{B158BAAC-2EA1-41AC-836F-32B3FBF91DC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0758D6-9DE0-4016-AAD1-DC30F3463264}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4B8A9-D39D-4290-BA89-E6030DD8BB78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="2879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="2882">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -9075,6 +9075,15 @@
   </si>
   <si>
     <t>ylmr@126.com</t>
+  </si>
+  <si>
+    <t>zhengdiankui@163.com</t>
+  </si>
+  <si>
+    <t>sychengqing@126.com</t>
+  </si>
+  <si>
+    <t>service@haodf.com</t>
   </si>
 </sst>
 </file>
@@ -10637,7 +10646,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10872,16 +10881,25 @@
       <c r="B17" t="s">
         <v>2748</v>
       </c>
+      <c r="D17" t="s">
+        <v>2879</v>
+      </c>
       <c r="F17" t="s">
         <v>2772</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>2880</v>
+      </c>
       <c r="F18" t="s">
         <v>2773</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>2881</v>
+      </c>
       <c r="F19" t="s">
         <v>2774</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4B8A9-D39D-4290-BA89-E6030DD8BB78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E18589-4E5C-4C8E-9651-7784F649AC46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="2882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="2882">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -10646,7 +10646,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10905,6 +10905,9 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1554</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>2775</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E18589-4E5C-4C8E-9651-7784F649AC46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF62EA2-A613-47B2-94BC-D140C2718301}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="2882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="2896">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -9084,6 +9084,53 @@
   </si>
   <si>
     <t>service@haodf.com</t>
+  </si>
+  <si>
+    <t>其他医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11hospital@163.com</t>
+  </si>
+  <si>
+    <t>master@syjt.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@54dr.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web@dqxinli.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webmaster@mail.hrbmush.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrui001@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>erver@hrb242.com</t>
+  </si>
+  <si>
+    <t>ikaoni@yeah.net</t>
+  </si>
+  <si>
+    <t>ljskfyy@126.com</t>
+  </si>
+  <si>
+    <t>qeyy@dqeyy.com</t>
+  </si>
+  <si>
+    <t>thosp3@163.com</t>
+  </si>
+  <si>
+    <t>ushnagke@163.com</t>
+  </si>
+  <si>
+    <t>zc@nkzyy.com.cn</t>
   </si>
 </sst>
 </file>
@@ -10645,7 +10692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD3629-BA2C-4660-9114-100693C38AE0}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -14176,11 +14223,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14195,10 +14242,11 @@
     <col min="9" max="9" width="30.21875" customWidth="1"/>
     <col min="10" max="10" width="24.44140625" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>989</v>
       </c>
@@ -14235,8 +14283,11 @@
       <c r="L1" s="8" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="10" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -14273,8 +14324,11 @@
       <c r="L2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1013</v>
       </c>
@@ -14308,8 +14362,11 @@
       <c r="L3" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -14340,8 +14397,11 @@
       <c r="L4" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1015</v>
       </c>
@@ -14369,8 +14429,11 @@
       <c r="L5" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -14398,8 +14461,11 @@
       <c r="L6" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1017</v>
       </c>
@@ -14427,8 +14493,11 @@
       <c r="L7" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1018</v>
       </c>
@@ -14456,8 +14525,11 @@
       <c r="L8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
@@ -14485,8 +14557,11 @@
       <c r="L9" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1020</v>
       </c>
@@ -14514,8 +14589,11 @@
       <c r="L10" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1021</v>
       </c>
@@ -14540,8 +14618,11 @@
       <c r="L11" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1022</v>
       </c>
@@ -14566,8 +14647,11 @@
       <c r="L12" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1023</v>
       </c>
@@ -14589,8 +14673,11 @@
       <c r="L13" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1024</v>
       </c>
@@ -14612,8 +14699,11 @@
       <c r="L14" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1025</v>
       </c>
@@ -14635,8 +14725,11 @@
       <c r="L15" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1026</v>
       </c>
@@ -14658,8 +14751,11 @@
       <c r="L16" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1027</v>
       </c>
@@ -14675,8 +14771,11 @@
       <c r="L17" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1028</v>
       </c>
@@ -14689,8 +14788,11 @@
       <c r="L18" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1032</v>
       </c>
@@ -14703,8 +14805,11 @@
       <c r="L19" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1038</v>
       </c>
@@ -14715,7 +14820,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>1081</v>
       </c>
@@ -14723,7 +14828,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>1082</v>
       </c>
@@ -14731,7 +14836,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>1083</v>
       </c>
@@ -14739,7 +14844,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>1084</v>
       </c>
@@ -14747,7 +14852,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>1085</v>
       </c>
@@ -14755,7 +14860,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>1086</v>
       </c>
@@ -14763,7 +14868,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>1089</v>
       </c>
@@ -14771,7 +14876,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>1090</v>
       </c>
@@ -14779,7 +14884,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>1098</v>
       </c>
@@ -14787,7 +14892,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>1099</v>
       </c>
@@ -14795,7 +14900,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>1100</v>
       </c>
@@ -14803,7 +14908,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>1101</v>
       </c>
@@ -14906,6 +15011,10 @@
     <hyperlink ref="H35" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
     <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
     <hyperlink ref="L16" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="M3" r:id="rId8" xr:uid="{63734E29-FF71-4F31-8AA7-759DF19569F0}"/>
+    <hyperlink ref="M5" r:id="rId9" xr:uid="{AFC806EA-EC89-4F49-9F60-248808E3AAD1}"/>
+    <hyperlink ref="M4" r:id="rId10" xr:uid="{3485339E-AA95-4D7F-B079-13A5A3BB8C82}"/>
+    <hyperlink ref="M6" r:id="rId11" xr:uid="{D1F04AE1-517C-4141-AE1E-10090D32E8EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF62EA2-A613-47B2-94BC-D140C2718301}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7669B817-EA2E-4D26-8D0E-86B3CAC022B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="h1" sheetId="4" r:id="rId4"/>
-    <sheet name="h2" sheetId="5" r:id="rId5"/>
-    <sheet name="L1" sheetId="6" r:id="rId6"/>
-    <sheet name="L2" sheetId="7" r:id="rId7"/>
-    <sheet name="L3" sheetId="8" r:id="rId8"/>
-    <sheet name="L4" sheetId="9" r:id="rId9"/>
-    <sheet name="L5" sheetId="10" r:id="rId10"/>
+    <sheet name="4" sheetId="11" r:id="rId4"/>
+    <sheet name="h1" sheetId="4" r:id="rId5"/>
+    <sheet name="h2" sheetId="5" r:id="rId6"/>
+    <sheet name="L1" sheetId="6" r:id="rId7"/>
+    <sheet name="L2" sheetId="7" r:id="rId8"/>
+    <sheet name="L3" sheetId="8" r:id="rId9"/>
+    <sheet name="L4" sheetId="9" r:id="rId10"/>
+    <sheet name="L5" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="2896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="2923">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -9131,6 +9132,95 @@
   </si>
   <si>
     <t>zc@nkzyy.com.cn</t>
+  </si>
+  <si>
+    <t>吉林敖东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林华康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000623@jlaod.com</t>
+  </si>
+  <si>
+    <t>jlhkrlzyb@126.com</t>
+  </si>
+  <si>
+    <t>website@east.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>henwenhu@east.net</t>
+  </si>
+  <si>
+    <t>webmaster@adyy.com</t>
+  </si>
+  <si>
+    <t>xs-jladly@163.com</t>
+  </si>
+  <si>
+    <t>zl-jladly@163.com</t>
+  </si>
+  <si>
+    <t>jladsh@126.com</t>
+  </si>
+  <si>
+    <t>gs@jlaodtn.com</t>
+  </si>
+  <si>
+    <t>sales@east.net</t>
+  </si>
+  <si>
+    <t>长白山制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbs_adr@163.com</t>
+  </si>
+  <si>
+    <t>s1c1b1@163.com</t>
+  </si>
+  <si>
+    <t>长春银诺克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cynkyy@163.com</t>
+  </si>
+  <si>
+    <t>红旗制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongqi@hongqipharma.com</t>
+  </si>
+  <si>
+    <t>hongqi@hqyy.com</t>
+  </si>
+  <si>
+    <t>双鼎制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office@shuangding.com.cn</t>
+  </si>
+  <si>
+    <t>诺维诺制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaopin@lnnvn.com</t>
+  </si>
+  <si>
+    <t>office@lnnvn.com</t>
+  </si>
+  <si>
+    <t>contadm@netsun.com</t>
+  </si>
+  <si>
+    <t>yangxue@netsun.com</t>
   </si>
 </sst>
 </file>
@@ -9569,7 +9659,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
@@ -10689,11 +10779,1422 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.77734375" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>2627</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>2648</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>2651</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2630</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2654</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2619</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2631</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2542</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2632</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2458</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2532</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2565</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2633</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2534</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2635</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2659</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2624</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2636</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2588</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2637</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2548</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2626</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2638</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2586</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2639</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2585</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2640</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2553</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2641</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2554</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2642</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2643</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2566</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2644</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2612</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2645</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2568</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2613</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2646</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2569</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2647</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2614</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2664</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2665</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2666</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2576</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2579</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2592</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1400</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2594</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2595</v>
+      </c>
+      <c r="P31" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2596</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2597</v>
+      </c>
+      <c r="P33" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2598</v>
+      </c>
+      <c r="P34" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P35" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2600</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2601</v>
+      </c>
+      <c r="P37" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2602</v>
+      </c>
+      <c r="P38" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P39" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1557</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1558</v>
+      </c>
+      <c r="P41" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2603</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2604</v>
+      </c>
+      <c r="P44" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2605</v>
+      </c>
+      <c r="P45" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P46" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2398</v>
+      </c>
+      <c r="P47" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2399</v>
+      </c>
+      <c r="P48" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2400</v>
+      </c>
+      <c r="P49" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2401</v>
+      </c>
+      <c r="P50" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2402</v>
+      </c>
+      <c r="P51" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2403</v>
+      </c>
+      <c r="P52" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2404</v>
+      </c>
+      <c r="P53" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2405</v>
+      </c>
+      <c r="P54" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2406</v>
+      </c>
+      <c r="P55" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2407</v>
+      </c>
+      <c r="P56" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2408</v>
+      </c>
+      <c r="P57" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2241</v>
+      </c>
+      <c r="P58" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="P16" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="P17" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="P19" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="P26" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="P36" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="P40" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="P43" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD3629-BA2C-4660-9114-100693C38AE0}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10704,9 +12205,12 @@
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2724</v>
       </c>
@@ -10725,8 +12229,17 @@
       <c r="F1" s="8" t="s">
         <v>2756</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2916</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2725</v>
       </c>
@@ -10745,8 +12258,17 @@
       <c r="F2" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2726</v>
       </c>
@@ -10762,8 +12284,14 @@
       <c r="F3" t="s">
         <v>2758</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2727</v>
       </c>
@@ -10779,8 +12307,11 @@
       <c r="F4" s="1" t="s">
         <v>2760</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2728</v>
       </c>
@@ -10793,8 +12324,11 @@
       <c r="F5" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2729</v>
       </c>
@@ -10808,7 +12342,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2730</v>
       </c>
@@ -10822,7 +12356,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2731</v>
       </c>
@@ -10836,7 +12370,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2740</v>
       </c>
@@ -10847,7 +12381,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2741</v>
       </c>
@@ -10858,7 +12392,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2742</v>
       </c>
@@ -10869,7 +12403,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2743</v>
       </c>
@@ -10880,7 +12414,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2744</v>
       </c>
@@ -10891,7 +12425,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2745</v>
       </c>
@@ -10902,7 +12436,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2746</v>
       </c>
@@ -10913,7 +12447,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2747</v>
       </c>
@@ -12591,9 +14125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13356,6 +14890,97 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946E87AE-E8EA-4A0A-8098-8A1AC93DC2A8}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D005D2C7-3A40-43C0-A50D-E6B0248092F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
@@ -14221,11 +15846,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
@@ -15021,11 +16646,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
@@ -16395,7 +18020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
@@ -17791,7 +19416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J165"/>
   <sheetViews>
@@ -19570,1415 +21195,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="15" width="23.77734375" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2440</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2453</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2508</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>2525</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2537</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>2556</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2571</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>2577</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>2580</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>2615</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>2627</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>2648</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>2651</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2441</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2452</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2509</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2527</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2538</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2572</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2578</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2611</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2616</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2628</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2649</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2652</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2442</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2454</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2528</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2573</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2610</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2617</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2629</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2650</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2653</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2350</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2443</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2455</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2529</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2540</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2559</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2609</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2618</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2630</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2660</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2654</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2351</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2444</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2530</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2541</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2560</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2608</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2619</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2631</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2661</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2655</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2445</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2457</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2531</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2542</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2564</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2607</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2620</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2632</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2662</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2656</v>
-      </c>
-      <c r="P6" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2353</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2458</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2532</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2543</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2565</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2606</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2621</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2633</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2657</v>
-      </c>
-      <c r="P7" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2459</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2544</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2622</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2634</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2658</v>
-      </c>
-      <c r="P8" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2360</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2460</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2534</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2545</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2590</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2623</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2635</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2659</v>
-      </c>
-      <c r="P9" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2461</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2535</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2546</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2589</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2624</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2636</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2362</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2536</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2547</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2588</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2625</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2637</v>
-      </c>
-      <c r="P11" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2363</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2463</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2561</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2548</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2587</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2626</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2638</v>
-      </c>
-      <c r="P12" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2464</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2562</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2586</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2639</v>
-      </c>
-      <c r="P13" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2365</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2465</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2563</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2550</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2585</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2640</v>
-      </c>
-      <c r="P14" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2366</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2466</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2553</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2584</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2641</v>
-      </c>
-      <c r="P15" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2367</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2467</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2554</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2581</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2642</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2368</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2555</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2582</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2643</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2369</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2566</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2583</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2644</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2370</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2567</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2612</v>
-      </c>
-      <c r="M19" t="s">
-        <v>2645</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2371</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2568</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2613</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2646</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2372</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2569</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1973</v>
-      </c>
-      <c r="M21" t="s">
-        <v>2647</v>
-      </c>
-      <c r="P21" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2419</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2373</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2570</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2614</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2664</v>
-      </c>
-      <c r="P22" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2374</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M23" t="s">
-        <v>2665</v>
-      </c>
-      <c r="P23" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2375</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2666</v>
-      </c>
-      <c r="P24" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2376</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2576</v>
-      </c>
-      <c r="P25" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2377</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2579</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2378</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2592</v>
-      </c>
-      <c r="P27" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2379</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1400</v>
-      </c>
-      <c r="P28" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2593</v>
-      </c>
-      <c r="P29" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2381</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2594</v>
-      </c>
-      <c r="P30" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2382</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2595</v>
-      </c>
-      <c r="P31" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2383</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2596</v>
-      </c>
-      <c r="P32" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2384</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2597</v>
-      </c>
-      <c r="P33" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2385</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2598</v>
-      </c>
-      <c r="P34" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2386</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2599</v>
-      </c>
-      <c r="P35" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2387</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2600</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2388</v>
-      </c>
-      <c r="G37" t="s">
-        <v>2601</v>
-      </c>
-      <c r="P37" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2484</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2389</v>
-      </c>
-      <c r="G38" t="s">
-        <v>2602</v>
-      </c>
-      <c r="P38" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2390</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P39" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2486</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2391</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1557</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2392</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1558</v>
-      </c>
-      <c r="P41" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2488</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2393</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1559</v>
-      </c>
-      <c r="P42" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2394</v>
-      </c>
-      <c r="G43" t="s">
-        <v>2603</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2395</v>
-      </c>
-      <c r="G44" t="s">
-        <v>2604</v>
-      </c>
-      <c r="P44" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2396</v>
-      </c>
-      <c r="G45" t="s">
-        <v>2605</v>
-      </c>
-      <c r="P45" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2397</v>
-      </c>
-      <c r="P46" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2493</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2398</v>
-      </c>
-      <c r="P47" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2399</v>
-      </c>
-      <c r="P48" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2495</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2400</v>
-      </c>
-      <c r="P49" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2401</v>
-      </c>
-      <c r="P50" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2497</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2402</v>
-      </c>
-      <c r="P51" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2403</v>
-      </c>
-      <c r="P52" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2404</v>
-      </c>
-      <c r="P53" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2500</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2405</v>
-      </c>
-      <c r="P54" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2501</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2406</v>
-      </c>
-      <c r="P55" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2407</v>
-      </c>
-      <c r="P56" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2503</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2408</v>
-      </c>
-      <c r="P57" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2504</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2241</v>
-      </c>
-      <c r="P58" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2513</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2515</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2517</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>2519</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2523</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2285</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="P16" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="P17" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="P19" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="P26" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="P36" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="P40" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="P43" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-</worksheet>
 </file>
--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7669B817-EA2E-4D26-8D0E-86B3CAC022B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="552" windowWidth="20736" windowHeight="11760" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="j1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="3102">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -9221,12 +9220,572 @@
   </si>
   <si>
     <t>yangxue@netsun.com</t>
+  </si>
+  <si>
+    <t>中医药大学附属医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛肠医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzxx@gcyy.com</t>
+  </si>
+  <si>
+    <t>lnsgcyz@163.com</t>
+  </si>
+  <si>
+    <t>414931760@qq.com</t>
+  </si>
+  <si>
+    <t>793359386@qq.com</t>
+  </si>
+  <si>
+    <t>gc31323628@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3zygcxh@126.com</t>
+  </si>
+  <si>
+    <t>mxm18940156783@163.com</t>
+  </si>
+  <si>
+    <t>lnzyydxjw@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhrdc@hhrdc.com</t>
+  </si>
+  <si>
+    <t>lnsgcyyrsk@163.com</t>
+  </si>
+  <si>
+    <t>nsgcyyrsk@163.com</t>
+  </si>
+  <si>
+    <t>lnsnfm@126.com</t>
+  </si>
+  <si>
+    <t>176857529@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>815671680@qq.com</t>
+  </si>
+  <si>
+    <t>gangchangyixue@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zygcxh@126.com</t>
+  </si>
+  <si>
+    <t>zchgc@163.com</t>
+  </si>
+  <si>
+    <t>jxjyfh@cma.org.cn</t>
+  </si>
+  <si>
+    <t>jxjy@cma.org.cn</t>
+  </si>
+  <si>
+    <t>shulanfund@163.com</t>
+  </si>
+  <si>
+    <t>3062505@163.com</t>
+  </si>
+  <si>
+    <t>bianjibu2005@sina.com</t>
+  </si>
+  <si>
+    <t>bio-x@cma.org.cn</t>
+  </si>
+  <si>
+    <t>bxblbl@163.com</t>
+  </si>
+  <si>
+    <t>cadrj@sina.com</t>
+  </si>
+  <si>
+    <t>cdtm@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cccm@em120.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_gisj@vip.163.com</t>
+  </si>
+  <si>
+    <t>cja@vip.163.com</t>
+  </si>
+  <si>
+    <t>cjbme@vip.tom.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjc@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjcn1993@imicams.ac.cn</t>
+  </si>
+  <si>
+    <t>cje2005@163.com</t>
+  </si>
+  <si>
+    <t>cjem@vip.163.com</t>
+  </si>
+  <si>
+    <t>cjes@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjge@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjgp@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjhfc@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjibd@vip.163.com</t>
+  </si>
+  <si>
+    <t>cjim@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjlm@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjmia@163.com</t>
+  </si>
+  <si>
+    <t>cjmn@cjmn.net</t>
+  </si>
+  <si>
+    <t>cjns65113169@sina.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjo@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjobjb@gmail.com</t>
+  </si>
+  <si>
+    <t>cjog@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjoofd@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>cjorl@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjot61641748@163.com</t>
+  </si>
+  <si>
+    <t>cjp@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjpa@cma.org.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjpls@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjpm@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjpmpvip@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjpmr@tjh.tjmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cjpo@cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cjpo@mail.cmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cjps@cma.org.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjr@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjron@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjst1953@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cjt@cjtrauma.com</t>
+  </si>
+  <si>
+    <t>cmabmj@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cmac9@vip.sohu.com</t>
+  </si>
+  <si>
+    <t>cmacjs@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cmafsb@163.com</t>
+  </si>
+  <si>
+    <t>cmahx@cma.org.cn</t>
+  </si>
+  <si>
+    <t>cmaszb@mail.sysu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmj@cma.org.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnblood82@163.com</t>
+  </si>
+  <si>
+    <t>cnjournal@126.com</t>
+  </si>
+  <si>
+    <t>cs@hebmu.edu.cn</t>
+  </si>
+  <si>
+    <t>cvjc@cma.org.cn</t>
+  </si>
+  <si>
+    <t>daobao@cma.org.cn</t>
+  </si>
+  <si>
+    <t>digsurg@zhxhwk.com</t>
+  </si>
+  <si>
+    <t>gene@vip.163.com</t>
+  </si>
+  <si>
+    <t>genetics2006@163.com</t>
+  </si>
+  <si>
+    <t>gjbdxzz@126.com</t>
+  </si>
+  <si>
+    <t>gjekxzz@163.com</t>
+  </si>
+  <si>
+    <t>gjfh2006@sina.com</t>
+  </si>
+  <si>
+    <t>gjhlxzz@126.com</t>
+  </si>
+  <si>
+    <t>gjlczz@gmail.com</t>
+  </si>
+  <si>
+    <t>gjmnxtzz@163.vip.com</t>
+  </si>
+  <si>
+    <t>gjmzyfs@163.com</t>
+  </si>
+  <si>
+    <t>gjswzp@163.com</t>
+  </si>
+  <si>
+    <t>gjsxxy@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gjzlxjn@126.com</t>
+  </si>
+  <si>
+    <t>gktougao@126.com</t>
+  </si>
+  <si>
+    <t>guojihuxi@163.com</t>
+  </si>
+  <si>
+    <t>guojimianyi@126.com</t>
+  </si>
+  <si>
+    <t>guowaiyixue@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>hkbjb@sina.com</t>
+  </si>
+  <si>
+    <t>huli@yizhe.net</t>
+  </si>
+  <si>
+    <t>imhgn@vip.sina.com</t>
+  </si>
+  <si>
+    <t>journal@126.com</t>
+  </si>
+  <si>
+    <t>jzyx@mail.hz.zj.cn</t>
+  </si>
+  <si>
+    <t>jp@pumch.cn</t>
+  </si>
+  <si>
+    <t>kgzz@bjmu.edu.cn</t>
+  </si>
+  <si>
+    <t>mnzz@263.net.cn</t>
+  </si>
+  <si>
+    <t>nfmfc@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfmwk2705@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmjc1915@263.net</t>
+  </si>
+  <si>
+    <t>pain-clinic@vip.163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puwai@sina.com</t>
+  </si>
+  <si>
+    <t>randc@cma.org.cn</t>
+  </si>
+  <si>
+    <t>randc@sippr.org.cn</t>
+  </si>
+  <si>
+    <t>rmyyjksj@163.com</t>
+  </si>
+  <si>
+    <t>shaoshangzazhi@163.com</t>
+  </si>
+  <si>
+    <t>syqk@chinajournal.net.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wjo@cma.org.cn</t>
+  </si>
+  <si>
+    <t>wxy1988@263.net</t>
+  </si>
+  <si>
+    <t>xhnj@xhnj.com</t>
+  </si>
+  <si>
+    <t>xiaohuaediting@126.com</t>
+  </si>
+  <si>
+    <t>xinshenger1122@126.com</t>
+  </si>
+  <si>
+    <t>xwyxbjb@163169.net</t>
+  </si>
+  <si>
+    <t>yishi@zgysjxzz.com</t>
+  </si>
+  <si>
+    <t>yixianbingxue@163.com</t>
+  </si>
+  <si>
+    <t>ywszz3497@126.com</t>
+  </si>
+  <si>
+    <t>zazhi@bjmu.edu.cn</t>
+  </si>
+  <si>
+    <t>zgjsczz@vip.163.com</t>
+  </si>
+  <si>
+    <t>zglcsyyx@126.com</t>
+  </si>
+  <si>
+    <t>zgsyyk@163.com</t>
+  </si>
+  <si>
+    <t>zgxejjyx@163.com</t>
+  </si>
+  <si>
+    <t>zgyszz@163.com</t>
+  </si>
+  <si>
+    <t>zgzhlc@heuu.edu.cn</t>
+  </si>
+  <si>
+    <t>zhcrb@sohu.com</t>
+  </si>
+  <si>
+    <t>zhcszz@163.com</t>
+  </si>
+  <si>
+    <t>zhgdwkzz@vip.163.com</t>
+  </si>
+  <si>
+    <t>zhgrb@126.com</t>
+  </si>
+  <si>
+    <t>zhgz@vip.163.com</t>
+  </si>
+  <si>
+    <t>zhhyxzz@163.com</t>
+  </si>
+  <si>
+    <t>zhjkgl@cma.org.cn</t>
+  </si>
+  <si>
+    <t>zhlxb1981@sina.com</t>
+  </si>
+  <si>
+    <t>zhonghuafangshe@163.com</t>
+  </si>
+  <si>
+    <t>zhonghuayishizz@126.com</t>
+  </si>
+  <si>
+    <t>zhonghuazhongliu@163.com</t>
+  </si>
+  <si>
+    <t>zhsjkzz@126.com</t>
+  </si>
+  <si>
+    <t>zhswkzz@sina.com</t>
+  </si>
+  <si>
+    <t>zhsyykzz@163.com</t>
+  </si>
+  <si>
+    <t>zhtnb@cma.org.cn</t>
+  </si>
+  <si>
+    <t>zhxewk@263.net</t>
+  </si>
+  <si>
+    <t>zhxgwkzz@sina.com</t>
+  </si>
+  <si>
+    <t>zhxwwk@mail.sysu.edu.cn</t>
+  </si>
+  <si>
+    <t>zh-xxx@126.com</t>
+  </si>
+  <si>
+    <t>zhysgx@vip.126.com</t>
+  </si>
+  <si>
+    <t>zhyxjyts@126.com</t>
+  </si>
+  <si>
+    <t>zhyyglzz@126.com</t>
+  </si>
+  <si>
+    <t>zhzz@cdctj.gov.cn</t>
+  </si>
+  <si>
+    <t>zlyjylc@163.com</t>
+  </si>
+  <si>
+    <t>lub.ph@cma.org.cn</t>
+  </si>
+  <si>
+    <t>nmjc@cma.org.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanglp@cma.org.cn</t>
+  </si>
+  <si>
+    <t>liuweizhu@cma.org.cn</t>
+  </si>
+  <si>
+    <t>medcon@126.com</t>
+  </si>
+  <si>
+    <t>club.ph@cma.org.cn</t>
+  </si>
+  <si>
+    <t>lnutcm-jwc@hotmail.com</t>
+  </si>
+  <si>
+    <t>346830526@qq.com</t>
+  </si>
+  <si>
+    <t>kylntcm@tom.com</t>
+  </si>
+  <si>
+    <t>zyyxqlm@163.com</t>
+  </si>
+  <si>
+    <t>lnzyrsc@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q81305298@163.com</t>
+  </si>
+  <si>
+    <t>辽宁省肿瘤医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywk610626@163.com</t>
+  </si>
+  <si>
+    <t>lailin@cancerhosp-ln-cmu.com</t>
+  </si>
+  <si>
+    <t>nzlhulibu@163.com</t>
+  </si>
+  <si>
+    <t>zhengzhichao@hotmail.com</t>
+  </si>
+  <si>
+    <t>lvshen1956@yahoo.com.cn</t>
+  </si>
+  <si>
+    <t>zhangxiangmiao@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzrrr1234@sina.com</t>
+  </si>
+  <si>
+    <t>2690960111@qq.com</t>
+  </si>
+  <si>
+    <t>zhangqiang8220@163.com</t>
+  </si>
+  <si>
+    <t>maomao751007@126.com</t>
+  </si>
+  <si>
+    <t>2328901858@qq.com</t>
+  </si>
+  <si>
+    <t>xh4015@163.com</t>
+  </si>
+  <si>
+    <t>13940066477@163.com</t>
+  </si>
+  <si>
+    <t>earbingbing@163.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9401,7 +9960,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="CDFABE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9648,14 +10207,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -9665,19 +10224,19 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -9703,7 +10262,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9729,7 +10288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -9755,7 +10314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -9781,7 +10340,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -9807,7 +10366,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9829,7 +10388,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -9851,7 +10410,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -9873,7 +10432,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9895,7 +10454,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -9917,7 +10476,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -9939,7 +10498,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -9961,7 +10520,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -9983,7 +10542,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -10005,7 +10564,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -10027,7 +10586,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -10049,7 +10608,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -10071,7 +10630,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -10093,7 +10652,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -10115,7 +10674,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -10135,7 +10694,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -10155,7 +10714,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -10175,7 +10734,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -10195,7 +10754,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -10215,7 +10774,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -10235,7 +10794,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -10253,7 +10812,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -10271,7 +10830,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -10289,7 +10848,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
@@ -10307,7 +10866,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
@@ -10325,7 +10884,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -10343,7 +10902,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -10361,7 +10920,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
@@ -10379,7 +10938,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
@@ -10397,7 +10956,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -10415,7 +10974,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10433,7 +10992,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
@@ -10448,7 +11007,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
@@ -10463,7 +11022,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
@@ -10478,7 +11037,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
@@ -10493,7 +11052,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -10508,7 +11067,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>0</v>
       </c>
@@ -10523,7 +11082,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -10536,7 +11095,7 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -10549,7 +11108,7 @@
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -10562,7 +11121,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -10575,7 +11134,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -10588,7 +11147,7 @@
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -10601,7 +11160,7 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -10614,7 +11173,7 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -10627,7 +11186,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -10640,7 +11199,7 @@
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -10653,7 +11212,7 @@
       </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -10666,7 +11225,7 @@
       </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -10679,7 +11238,7 @@
       </c>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -10692,7 +11251,7 @@
       </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -10705,7 +11264,7 @@
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -10716,7 +11275,7 @@
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -10727,7 +11286,7 @@
       </c>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -10738,7 +11297,7 @@
       </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -10749,7 +11308,7 @@
       </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -10760,7 +11319,7 @@
       </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -10779,7 +11338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10787,28 +11346,28 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="15" width="23.77734375" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="15" width="23.75" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2349</v>
       </c>
@@ -10858,7 +11417,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2026</v>
       </c>
@@ -10908,7 +11467,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2219</v>
       </c>
@@ -10952,7 +11511,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2350</v>
       </c>
@@ -10993,7 +11552,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2351</v>
       </c>
@@ -11034,7 +11593,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2352</v>
       </c>
@@ -11075,7 +11634,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2353</v>
       </c>
@@ -11116,7 +11675,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2354</v>
       </c>
@@ -11151,7 +11710,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2355</v>
       </c>
@@ -11183,7 +11742,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2356</v>
       </c>
@@ -11212,7 +11771,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2429</v>
       </c>
@@ -11241,7 +11800,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2430</v>
       </c>
@@ -11270,7 +11829,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2431</v>
       </c>
@@ -11296,7 +11855,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2432</v>
       </c>
@@ -11322,7 +11881,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2433</v>
       </c>
@@ -11345,7 +11904,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2434</v>
       </c>
@@ -11368,7 +11927,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2435</v>
       </c>
@@ -11391,7 +11950,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2436</v>
       </c>
@@ -11411,7 +11970,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2437</v>
       </c>
@@ -11431,7 +11990,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2438</v>
       </c>
@@ -11451,7 +12010,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2418</v>
       </c>
@@ -11471,7 +12030,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2419</v>
       </c>
@@ -11491,7 +12050,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2439</v>
       </c>
@@ -11508,7 +12067,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2420</v>
       </c>
@@ -11525,7 +12084,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2421</v>
       </c>
@@ -11539,7 +12098,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2448</v>
       </c>
@@ -11553,7 +12112,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2449</v>
       </c>
@@ -11567,7 +12126,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2450</v>
       </c>
@@ -11581,7 +12140,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2451</v>
       </c>
@@ -11595,7 +12154,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2476</v>
       </c>
@@ -11609,7 +12168,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2477</v>
       </c>
@@ -11623,7 +12182,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2478</v>
       </c>
@@ -11637,7 +12196,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2479</v>
       </c>
@@ -11651,7 +12210,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2480</v>
       </c>
@@ -11665,7 +12224,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2481</v>
       </c>
@@ -11679,7 +12238,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2482</v>
       </c>
@@ -11693,7 +12252,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2483</v>
       </c>
@@ -11707,7 +12266,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2484</v>
       </c>
@@ -11721,7 +12280,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2485</v>
       </c>
@@ -11735,7 +12294,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2486</v>
       </c>
@@ -11749,7 +12308,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2487</v>
       </c>
@@ -11763,7 +12322,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2488</v>
       </c>
@@ -11777,7 +12336,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2489</v>
       </c>
@@ -11791,7 +12350,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2490</v>
       </c>
@@ -11805,7 +12364,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2491</v>
       </c>
@@ -11819,7 +12378,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2492</v>
       </c>
@@ -11830,7 +12389,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2493</v>
       </c>
@@ -11841,7 +12400,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2494</v>
       </c>
@@ -11852,7 +12411,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2495</v>
       </c>
@@ -11863,7 +12422,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2496</v>
       </c>
@@ -11874,7 +12433,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2497</v>
       </c>
@@ -11885,7 +12444,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2498</v>
       </c>
@@ -11896,7 +12455,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2499</v>
       </c>
@@ -11907,7 +12466,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2500</v>
       </c>
@@ -11918,7 +12477,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2501</v>
       </c>
@@ -11929,7 +12488,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2502</v>
       </c>
@@ -11940,7 +12499,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2503</v>
       </c>
@@ -11951,7 +12510,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2504</v>
       </c>
@@ -11962,7 +12521,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2505</v>
       </c>
@@ -11970,7 +12529,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2506</v>
       </c>
@@ -11978,7 +12537,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2507</v>
       </c>
@@ -11986,7 +12545,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2510</v>
       </c>
@@ -11994,7 +12553,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2511</v>
       </c>
@@ -12002,7 +12561,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2512</v>
       </c>
@@ -12010,7 +12569,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2513</v>
       </c>
@@ -12018,7 +12577,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2514</v>
       </c>
@@ -12026,7 +12585,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2515</v>
       </c>
@@ -12034,7 +12593,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2516</v>
       </c>
@@ -12042,7 +12601,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2517</v>
       </c>
@@ -12050,7 +12609,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2518</v>
       </c>
@@ -12058,7 +12617,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2519</v>
       </c>
@@ -12066,7 +12625,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2520</v>
       </c>
@@ -12074,7 +12633,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2521</v>
       </c>
@@ -12082,7 +12641,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2522</v>
       </c>
@@ -12090,7 +12649,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2523</v>
       </c>
@@ -12098,7 +12657,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2524</v>
       </c>
@@ -12106,7 +12665,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2285</v>
       </c>
@@ -12114,7 +12673,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2551</v>
       </c>
@@ -12122,7 +12681,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2552</v>
       </c>
@@ -12130,42 +12689,42 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>2470</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>2472</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>2473</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>2451</v>
       </c>
@@ -12173,16 +12732,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="P16" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="P17" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="P19" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="P26" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="P36" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="P40" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="P43" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="N7" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId3"/>
+    <hyperlink ref="P16" r:id="rId4"/>
+    <hyperlink ref="P17" r:id="rId5"/>
+    <hyperlink ref="P19" r:id="rId6"/>
+    <hyperlink ref="P26" r:id="rId7"/>
+    <hyperlink ref="P36" r:id="rId8"/>
+    <hyperlink ref="P40" r:id="rId9"/>
+    <hyperlink ref="P43" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -12190,27 +12749,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD3629-BA2C-4660-9114-100693C38AE0}">
-  <dimension ref="A1:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2724</v>
       </c>
@@ -12223,23 +12782,32 @@
       <c r="D1" s="8" t="s">
         <v>2752</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2753</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>2756</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>2913</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>2916</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>2918</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2725</v>
       </c>
@@ -12253,22 +12821,31 @@
         <v>2755</v>
       </c>
       <c r="E2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="H2" t="s">
         <v>2754</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>2757</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>2914</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>2917</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>2919</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2726</v>
       </c>
@@ -12281,17 +12858,26 @@
       <c r="D3" t="s">
         <v>2823</v>
       </c>
+      <c r="E3" t="s">
+        <v>3089</v>
+      </c>
       <c r="F3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="I3" t="s">
         <v>2758</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>2915</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>2920</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2727</v>
       </c>
@@ -12304,14 +12890,23 @@
       <c r="D4" t="s">
         <v>2824</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>2921</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2728</v>
       </c>
@@ -12321,14 +12916,23 @@
       <c r="D5" t="s">
         <v>2825</v>
       </c>
+      <c r="E5" t="s">
+        <v>3091</v>
+      </c>
       <c r="F5" t="s">
+        <v>2928</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="I5" t="s">
         <v>2761</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>2922</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2729</v>
       </c>
@@ -12338,11 +12942,20 @@
       <c r="D6" t="s">
         <v>2826</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="I6" t="s">
         <v>2762</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2730</v>
       </c>
@@ -12352,11 +12965,20 @@
       <c r="D7" t="s">
         <v>2827</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>3093</v>
+      </c>
       <c r="F7" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I7" t="s">
         <v>2763</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2731</v>
       </c>
@@ -12366,88 +12988,139 @@
       <c r="D8" t="s">
         <v>2828</v>
       </c>
+      <c r="E8" t="s">
+        <v>3094</v>
+      </c>
       <c r="F8" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2731</v>
+      </c>
+      <c r="I8" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2740</v>
       </c>
       <c r="D9" t="s">
         <v>2829</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>3095</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="I9" t="s">
         <v>2765</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2741</v>
       </c>
       <c r="D10" t="s">
         <v>2843</v>
       </c>
+      <c r="E10" t="s">
+        <v>3096</v>
+      </c>
       <c r="F10" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I10" t="s">
         <v>2766</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2742</v>
       </c>
       <c r="D11" t="s">
         <v>2844</v>
       </c>
+      <c r="E11" t="s">
+        <v>3097</v>
+      </c>
       <c r="F11" t="s">
+        <v>2934</v>
+      </c>
+      <c r="I11" t="s">
         <v>2767</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2743</v>
       </c>
       <c r="D12" t="s">
         <v>2845</v>
       </c>
+      <c r="E12" t="s">
+        <v>3098</v>
+      </c>
       <c r="F12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I12" t="s">
         <v>2768</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2744</v>
       </c>
       <c r="D13" t="s">
         <v>2846</v>
       </c>
+      <c r="E13" t="s">
+        <v>3099</v>
+      </c>
       <c r="F13" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I13" t="s">
         <v>2769</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2745</v>
       </c>
       <c r="D14" t="s">
         <v>2876</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>2770</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2746</v>
       </c>
       <c r="D15" t="s">
         <v>2877</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="I15" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2747</v>
       </c>
@@ -12455,220 +13128,909 @@
         <v>2878</v>
       </c>
       <c r="F16" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I16" t="s">
         <v>2771</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>2748</v>
       </c>
       <c r="D17" t="s">
         <v>2879</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="I17" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>2880</v>
       </c>
       <c r="F18" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I18" t="s">
         <v>2773</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>2881</v>
       </c>
       <c r="F19" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I19" t="s">
         <v>2774</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>1554</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>2942</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>2943</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>2945</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>2779</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>2947</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I26" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
+        <v>2949</v>
+      </c>
+      <c r="I27" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I28" t="s">
         <v>2783</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="I29" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
+        <v>2952</v>
+      </c>
+      <c r="I30" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
+        <v>2953</v>
+      </c>
+      <c r="I31" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="I32" t="s">
         <v>2787</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
+        <v>2955</v>
+      </c>
+      <c r="I33" t="s">
         <v>2788</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I34" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I35" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I36" t="s">
         <v>2791</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
+        <v>2959</v>
+      </c>
+      <c r="I37" t="s">
         <v>2792</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I38" t="s">
         <v>2830</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
+        <v>2961</v>
+      </c>
+      <c r="I39" t="s">
         <v>2831</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
+        <v>2962</v>
+      </c>
+      <c r="I40" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
+        <v>2963</v>
+      </c>
+      <c r="I41" t="s">
         <v>2833</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
+        <v>2964</v>
+      </c>
+      <c r="I42" t="s">
         <v>2834</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
+        <v>2965</v>
+      </c>
+      <c r="I43" t="s">
         <v>2835</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
+        <v>2966</v>
+      </c>
+      <c r="I44" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
+        <v>2967</v>
+      </c>
+      <c r="I45" t="s">
         <v>2838</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="I46" t="s">
         <v>2837</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
+        <v>2969</v>
+      </c>
+      <c r="I47" t="s">
         <v>2839</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
+        <v>2970</v>
+      </c>
+      <c r="I48" t="s">
         <v>2840</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
+        <v>2971</v>
+      </c>
+      <c r="I49" t="s">
         <v>2841</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
+        <v>2972</v>
+      </c>
+      <c r="I50" t="s">
         <v>2842</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I51" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I52" t="s">
         <v>2838</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F53" t="s">
+        <v>2975</v>
+      </c>
+      <c r="I53" t="s">
         <v>2841</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F54" s="1" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F57" s="1" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F61" s="1" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="1" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="1" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="1" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="1" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="1" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="1" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="1" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F163" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>3086</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{BB99C7BB-ED32-4675-A710-B337C8A52A91}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{E89B23A5-E131-4E88-838D-A9E7B972A3AA}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{C71EC7E3-FEA0-414A-8155-81FC1269F938}"/>
-    <hyperlink ref="F21" r:id="rId4" xr:uid="{EBD8C6AA-1EC9-4901-9FE8-FFAFBD4CECF9}"/>
-    <hyperlink ref="F22" r:id="rId5" xr:uid="{230E0AA4-7523-48B1-BCFD-5CEFC6DDCAF5}"/>
-    <hyperlink ref="F23" r:id="rId6" xr:uid="{6F58639A-E55E-447C-BE2F-46D48E5E1AFD}"/>
-    <hyperlink ref="F24" r:id="rId7" xr:uid="{9D8DECFD-20F9-4B28-96C8-D6C7A534D1FB}"/>
-    <hyperlink ref="F25" r:id="rId8" xr:uid="{5DE9C195-0FDE-4222-9868-B8B3AB4C2342}"/>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId2"/>
+    <hyperlink ref="I20" r:id="rId3"/>
+    <hyperlink ref="I21" r:id="rId4"/>
+    <hyperlink ref="I22" r:id="rId5"/>
+    <hyperlink ref="I23" r:id="rId6"/>
+    <hyperlink ref="I24" r:id="rId7"/>
+    <hyperlink ref="I25" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F29" r:id="rId13"/>
+    <hyperlink ref="F32" r:id="rId14"/>
+    <hyperlink ref="F46" r:id="rId15"/>
+    <hyperlink ref="F54" r:id="rId16"/>
+    <hyperlink ref="F57" r:id="rId17"/>
+    <hyperlink ref="F61" r:id="rId18"/>
+    <hyperlink ref="F71" r:id="rId19"/>
+    <hyperlink ref="F72" r:id="rId20"/>
+    <hyperlink ref="F89" r:id="rId21"/>
+    <hyperlink ref="F103" r:id="rId22"/>
+    <hyperlink ref="F104" r:id="rId23"/>
+    <hyperlink ref="F106" r:id="rId24"/>
+    <hyperlink ref="F112" r:id="rId25"/>
+    <hyperlink ref="F154" r:id="rId26"/>
+    <hyperlink ref="F163" r:id="rId27"/>
+    <hyperlink ref="E7" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12676,7 +14038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K102"/>
   <sheetViews>
@@ -12686,21 +14048,21 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="31.77734375" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="31.75" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="30.375" customWidth="1"/>
+    <col min="11" max="11" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>251</v>
       </c>
@@ -12735,7 +14097,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>250</v>
       </c>
@@ -12770,7 +14132,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>252</v>
       </c>
@@ -12805,7 +14167,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>253</v>
       </c>
@@ -12840,7 +14202,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>254</v>
       </c>
@@ -12875,7 +14237,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>79</v>
       </c>
@@ -12910,7 +14272,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>255</v>
       </c>
@@ -12943,7 +14305,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>256</v>
       </c>
@@ -12976,7 +14338,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>257</v>
       </c>
@@ -13009,7 +14371,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>258</v>
       </c>
@@ -13042,7 +14404,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -13073,7 +14435,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -13099,7 +14461,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>337</v>
       </c>
@@ -13125,7 +14487,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>338</v>
       </c>
@@ -13151,7 +14513,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
@@ -13177,7 +14539,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
@@ -13203,7 +14565,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -13229,7 +14591,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>350</v>
       </c>
@@ -13255,7 +14617,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>351</v>
       </c>
@@ -13281,7 +14643,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>352</v>
       </c>
@@ -13304,7 +14666,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>353</v>
       </c>
@@ -13327,7 +14689,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>354</v>
       </c>
@@ -13350,7 +14712,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -13370,7 +14732,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -13390,7 +14752,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>361</v>
       </c>
@@ -13410,7 +14772,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>364</v>
       </c>
@@ -13430,7 +14792,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -13450,7 +14812,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -13470,7 +14832,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>367</v>
       </c>
@@ -13490,7 +14852,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -13510,7 +14872,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>369</v>
       </c>
@@ -13527,7 +14889,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -13544,7 +14906,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -13561,7 +14923,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -13578,7 +14940,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>373</v>
       </c>
@@ -13595,7 +14957,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>374</v>
       </c>
@@ -13612,7 +14974,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>375</v>
       </c>
@@ -13629,7 +14991,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>380</v>
       </c>
@@ -13646,7 +15008,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>381</v>
       </c>
@@ -13663,7 +15025,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -13680,7 +15042,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -13694,7 +15056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>396</v>
       </c>
@@ -13708,7 +15070,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -13722,7 +15084,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -13736,7 +15098,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -13750,7 +15112,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -13764,7 +15126,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -13775,7 +15137,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -13786,7 +15148,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>403</v>
       </c>
@@ -13797,7 +15159,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -13805,7 +15167,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -13813,7 +15175,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>406</v>
       </c>
@@ -13821,7 +15183,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -13829,7 +15191,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -13837,7 +15199,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -13845,7 +15207,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -13853,7 +15215,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>411</v>
       </c>
@@ -13861,7 +15223,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -13869,7 +15231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>413</v>
       </c>
@@ -13877,7 +15239,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -13885,7 +15247,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -13893,7 +15255,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>416</v>
       </c>
@@ -13901,7 +15263,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>417</v>
       </c>
@@ -13909,197 +15271,197 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I65" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I67" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I68" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I69" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I70" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I71" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I73" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I74" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I75" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I77" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I97" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I99" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I101" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" t="s">
         <v>631</v>
       </c>
@@ -14107,14 +15469,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="K28" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I37" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="I61" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="I62" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="K35" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="K41" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="K11" r:id="rId1"/>
+    <hyperlink ref="J14" r:id="rId2"/>
+    <hyperlink ref="K28" r:id="rId3"/>
+    <hyperlink ref="I37" r:id="rId4"/>
+    <hyperlink ref="I61" r:id="rId5"/>
+    <hyperlink ref="I62" r:id="rId6"/>
+    <hyperlink ref="K35" r:id="rId7"/>
+    <hyperlink ref="K41" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14122,7 +15484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14130,21 +15492,21 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>644</v>
       </c>
@@ -14176,7 +15538,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>646</v>
       </c>
@@ -14208,7 +15570,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>647</v>
       </c>
@@ -14240,7 +15602,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>666</v>
       </c>
@@ -14263,7 +15625,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>667</v>
       </c>
@@ -14286,7 +15648,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>668</v>
       </c>
@@ -14309,7 +15671,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>672</v>
       </c>
@@ -14332,7 +15694,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>675</v>
       </c>
@@ -14355,7 +15717,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>676</v>
       </c>
@@ -14378,7 +15740,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>677</v>
       </c>
@@ -14398,7 +15760,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>678</v>
       </c>
@@ -14418,7 +15780,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>679</v>
       </c>
@@ -14432,7 +15794,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>695</v>
       </c>
@@ -14446,7 +15808,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>696</v>
       </c>
@@ -14460,7 +15822,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>697</v>
       </c>
@@ -14474,7 +15836,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>743</v>
       </c>
@@ -14488,7 +15850,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -14502,7 +15864,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>700</v>
       </c>
@@ -14513,7 +15875,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>701</v>
       </c>
@@ -14521,7 +15883,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>702</v>
       </c>
@@ -14529,7 +15891,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>703</v>
       </c>
@@ -14537,7 +15899,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>704</v>
       </c>
@@ -14545,7 +15907,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>705</v>
       </c>
@@ -14553,7 +15915,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>706</v>
       </c>
@@ -14561,7 +15923,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>707</v>
       </c>
@@ -14569,7 +15931,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>708</v>
       </c>
@@ -14577,7 +15939,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>709</v>
       </c>
@@ -14585,7 +15947,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>710</v>
       </c>
@@ -14593,7 +15955,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>711</v>
       </c>
@@ -14601,7 +15963,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>712</v>
       </c>
@@ -14609,7 +15971,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>713</v>
       </c>
@@ -14617,7 +15979,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>714</v>
       </c>
@@ -14625,7 +15987,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>715</v>
       </c>
@@ -14633,7 +15995,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>716</v>
       </c>
@@ -14641,7 +16003,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>717</v>
       </c>
@@ -14649,7 +16011,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>718</v>
       </c>
@@ -14657,7 +16019,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>719</v>
       </c>
@@ -14665,7 +16027,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>720</v>
       </c>
@@ -14673,7 +16035,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>721</v>
       </c>
@@ -14681,7 +16043,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>722</v>
       </c>
@@ -14689,7 +16051,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>723</v>
       </c>
@@ -14697,7 +16059,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>724</v>
       </c>
@@ -14705,7 +16067,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>725</v>
       </c>
@@ -14713,7 +16075,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>726</v>
       </c>
@@ -14721,7 +16083,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>727</v>
       </c>
@@ -14729,7 +16091,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>728</v>
       </c>
@@ -14737,7 +16099,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>729</v>
       </c>
@@ -14745,7 +16107,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>730</v>
       </c>
@@ -14753,7 +16115,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>731</v>
       </c>
@@ -14761,7 +16123,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>732</v>
       </c>
@@ -14769,7 +16131,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>733</v>
       </c>
@@ -14777,7 +16139,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>734</v>
       </c>
@@ -14785,7 +16147,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>735</v>
       </c>
@@ -14793,7 +16155,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>736</v>
       </c>
@@ -14801,7 +16163,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>737</v>
       </c>
@@ -14809,7 +16171,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>738</v>
       </c>
@@ -14817,7 +16179,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>739</v>
       </c>
@@ -14825,47 +16187,47 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
         <v>2867</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
         <v>2868</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
         <v>2870</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
         <v>2871</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
         <v>2872</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
         <v>2873</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
         <v>2874</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
         <v>2875</v>
       </c>
@@ -14873,16 +16235,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="J5" r:id="rId6" xr:uid="{EFA28FBE-3863-4548-B90B-F5DC5B9F9D90}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{91C5B3A2-F0AF-4B21-B75A-BFDECBD7289B}"/>
-    <hyperlink ref="J24" r:id="rId8" xr:uid="{2F8A7A16-4253-4EA5-97D5-042D9F7642E6}"/>
-    <hyperlink ref="J43" r:id="rId9" xr:uid="{39CF73B5-F712-4443-A06B-85D85E38E351}"/>
-    <hyperlink ref="J44" r:id="rId10" xr:uid="{B158BAAC-2EA1-41AC-836F-32B3FBF91DC3}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId7"/>
+    <hyperlink ref="J24" r:id="rId8"/>
+    <hyperlink ref="J43" r:id="rId9"/>
+    <hyperlink ref="J44" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14890,22 +16252,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946E87AE-E8EA-4A0A-8098-8A1AC93DC2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2896</v>
       </c>
@@ -14919,7 +16281,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2898</v>
       </c>
@@ -14933,7 +16295,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2902</v>
       </c>
@@ -14944,7 +16306,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2903</v>
       </c>
@@ -14952,7 +16314,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2904</v>
       </c>
@@ -14960,12 +16322,12 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2905</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2906</v>
       </c>
@@ -14973,7 +16335,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{D005D2C7-3A40-43C0-A50D-E6B0248092F4}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14981,7 +16343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14989,19 +16351,19 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="6" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>765</v>
       </c>
@@ -15030,7 +16392,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15059,7 +16421,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>774</v>
       </c>
@@ -15088,7 +16450,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -15117,7 +16479,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -15143,7 +16505,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -15169,7 +16531,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>778</v>
       </c>
@@ -15195,7 +16557,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>779</v>
       </c>
@@ -15221,7 +16583,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>780</v>
       </c>
@@ -15244,7 +16606,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>781</v>
       </c>
@@ -15264,7 +16626,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>782</v>
       </c>
@@ -15281,7 +16643,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -15292,7 +16654,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>784</v>
       </c>
@@ -15303,7 +16665,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -15314,7 +16676,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -15325,7 +16687,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>787</v>
       </c>
@@ -15336,7 +16698,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>788</v>
       </c>
@@ -15347,7 +16709,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15358,7 +16720,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15369,7 +16731,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>791</v>
       </c>
@@ -15380,7 +16742,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>792</v>
       </c>
@@ -15391,7 +16753,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>794</v>
       </c>
@@ -15399,7 +16761,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -15407,7 +16769,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>799</v>
       </c>
@@ -15415,7 +16777,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>800</v>
       </c>
@@ -15423,7 +16785,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>801</v>
       </c>
@@ -15431,7 +16793,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>803</v>
       </c>
@@ -15439,7 +16801,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>806</v>
       </c>
@@ -15447,7 +16809,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>808</v>
       </c>
@@ -15455,7 +16817,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>811</v>
       </c>
@@ -15463,7 +16825,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>812</v>
       </c>
@@ -15471,7 +16833,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>821</v>
       </c>
@@ -15479,7 +16841,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>822</v>
       </c>
@@ -15487,7 +16849,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>823</v>
       </c>
@@ -15495,7 +16857,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>824</v>
       </c>
@@ -15503,7 +16865,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>825</v>
       </c>
@@ -15511,7 +16873,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>826</v>
       </c>
@@ -15519,7 +16881,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>827</v>
       </c>
@@ -15527,7 +16889,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>828</v>
       </c>
@@ -15535,7 +16897,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>829</v>
       </c>
@@ -15543,7 +16905,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>830</v>
       </c>
@@ -15551,7 +16913,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>831</v>
       </c>
@@ -15559,7 +16921,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>832</v>
       </c>
@@ -15567,7 +16929,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>833</v>
       </c>
@@ -15575,7 +16937,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>836</v>
       </c>
@@ -15583,7 +16945,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>837</v>
       </c>
@@ -15591,7 +16953,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>838</v>
       </c>
@@ -15599,7 +16961,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>841</v>
       </c>
@@ -15607,7 +16969,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>842</v>
       </c>
@@ -15615,7 +16977,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>844</v>
       </c>
@@ -15623,7 +16985,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>845</v>
       </c>
@@ -15631,207 +16993,207 @@
         <v>892</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>947</v>
       </c>
@@ -15839,7 +17201,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15847,7 +17209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15855,23 +17217,23 @@
       <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="1" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="27.625" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>989</v>
       </c>
@@ -15912,7 +17274,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -15953,7 +17315,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1013</v>
       </c>
@@ -15991,7 +17353,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -16026,7 +17388,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1015</v>
       </c>
@@ -16058,7 +17420,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -16090,7 +17452,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1017</v>
       </c>
@@ -16122,7 +17484,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1018</v>
       </c>
@@ -16154,7 +17516,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
@@ -16186,7 +17548,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1020</v>
       </c>
@@ -16218,7 +17580,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1021</v>
       </c>
@@ -16247,7 +17609,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1022</v>
       </c>
@@ -16276,7 +17638,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1023</v>
       </c>
@@ -16302,7 +17664,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1024</v>
       </c>
@@ -16328,7 +17690,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1025</v>
       </c>
@@ -16354,7 +17716,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1026</v>
       </c>
@@ -16380,7 +17742,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1027</v>
       </c>
@@ -16400,7 +17762,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1028</v>
       </c>
@@ -16417,7 +17779,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1032</v>
       </c>
@@ -16434,7 +17796,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1038</v>
       </c>
@@ -16445,7 +17807,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>1081</v>
       </c>
@@ -16453,7 +17815,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>1082</v>
       </c>
@@ -16461,7 +17823,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>1083</v>
       </c>
@@ -16469,7 +17831,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>1084</v>
       </c>
@@ -16477,7 +17839,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H25" t="s">
         <v>1085</v>
       </c>
@@ -16485,7 +17847,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>1086</v>
       </c>
@@ -16493,7 +17855,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>1089</v>
       </c>
@@ -16501,7 +17863,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>1090</v>
       </c>
@@ -16509,7 +17871,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
         <v>1098</v>
       </c>
@@ -16517,7 +17879,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H30" t="s">
         <v>1099</v>
       </c>
@@ -16525,7 +17887,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
         <v>1100</v>
       </c>
@@ -16533,7 +17895,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
         <v>1101</v>
       </c>
@@ -16541,87 +17903,87 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>1170</v>
       </c>
@@ -16629,17 +17991,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="H35" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="L16" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="M3" r:id="rId8" xr:uid="{63734E29-FF71-4F31-8AA7-759DF19569F0}"/>
-    <hyperlink ref="M5" r:id="rId9" xr:uid="{AFC806EA-EC89-4F49-9F60-248808E3AAD1}"/>
-    <hyperlink ref="M4" r:id="rId10" xr:uid="{3485339E-AA95-4D7F-B079-13A5A3BB8C82}"/>
-    <hyperlink ref="M6" r:id="rId11" xr:uid="{D1F04AE1-517C-4141-AE1E-10090D32E8EE}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="H35" r:id="rId5"/>
+    <hyperlink ref="L14" r:id="rId6"/>
+    <hyperlink ref="L16" r:id="rId7"/>
+    <hyperlink ref="M3" r:id="rId8"/>
+    <hyperlink ref="M5" r:id="rId9"/>
+    <hyperlink ref="M4" r:id="rId10"/>
+    <hyperlink ref="M6" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16647,7 +18009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16655,19 +18017,19 @@
       <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1171</v>
       </c>
@@ -16693,7 +18055,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1172</v>
       </c>
@@ -16719,7 +18081,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1173</v>
       </c>
@@ -16745,7 +18107,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1174</v>
       </c>
@@ -16771,7 +18133,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1175</v>
       </c>
@@ -16797,7 +18159,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1176</v>
       </c>
@@ -16820,7 +18182,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1177</v>
       </c>
@@ -16843,7 +18205,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1178</v>
       </c>
@@ -16866,7 +18228,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1179</v>
       </c>
@@ -16889,7 +18251,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1180</v>
       </c>
@@ -16912,7 +18274,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1268</v>
       </c>
@@ -16935,7 +18297,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1323</v>
       </c>
@@ -16958,7 +18320,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1342</v>
       </c>
@@ -16981,7 +18343,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1355</v>
       </c>
@@ -17004,7 +18366,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1379</v>
       </c>
@@ -17027,7 +18389,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1380</v>
       </c>
@@ -17050,7 +18412,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1381</v>
       </c>
@@ -17073,7 +18435,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1382</v>
       </c>
@@ -17096,7 +18458,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1474</v>
       </c>
@@ -17119,7 +18481,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1475</v>
       </c>
@@ -17142,7 +18504,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1213</v>
       </c>
@@ -17162,7 +18524,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1214</v>
       </c>
@@ -17182,7 +18544,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1215</v>
       </c>
@@ -17202,7 +18564,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1216</v>
       </c>
@@ -17222,7 +18584,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1217</v>
       </c>
@@ -17242,7 +18604,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1218</v>
       </c>
@@ -17262,7 +18624,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>1219</v>
       </c>
@@ -17282,7 +18644,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1220</v>
       </c>
@@ -17302,7 +18664,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>1221</v>
       </c>
@@ -17322,7 +18684,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1222</v>
       </c>
@@ -17339,7 +18701,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1223</v>
       </c>
@@ -17356,7 +18718,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1224</v>
       </c>
@@ -17373,7 +18735,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1225</v>
       </c>
@@ -17390,7 +18752,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1226</v>
       </c>
@@ -17407,7 +18769,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>1227</v>
       </c>
@@ -17424,7 +18786,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>1228</v>
       </c>
@@ -17438,7 +18800,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>1229</v>
       </c>
@@ -17452,7 +18814,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>1230</v>
       </c>
@@ -17466,7 +18828,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1231</v>
       </c>
@@ -17480,7 +18842,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>1232</v>
       </c>
@@ -17494,7 +18856,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>1233</v>
       </c>
@@ -17508,7 +18870,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>1234</v>
       </c>
@@ -17522,7 +18884,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1235</v>
       </c>
@@ -17536,7 +18898,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1236</v>
       </c>
@@ -17550,7 +18912,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1237</v>
       </c>
@@ -17564,7 +18926,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1238</v>
       </c>
@@ -17578,7 +18940,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1239</v>
       </c>
@@ -17592,7 +18954,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>1240</v>
       </c>
@@ -17606,7 +18968,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>1241</v>
       </c>
@@ -17617,7 +18979,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>1242</v>
       </c>
@@ -17628,7 +18990,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1243</v>
       </c>
@@ -17639,7 +19001,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>1244</v>
       </c>
@@ -17650,7 +19012,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1245</v>
       </c>
@@ -17661,7 +19023,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>1246</v>
       </c>
@@ -17672,7 +19034,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1247</v>
       </c>
@@ -17683,7 +19045,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1248</v>
       </c>
@@ -17694,7 +19056,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1249</v>
       </c>
@@ -17705,7 +19067,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1250</v>
       </c>
@@ -17716,7 +19078,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1269</v>
       </c>
@@ -17727,7 +19089,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>1278</v>
       </c>
@@ -17738,7 +19100,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>1279</v>
       </c>
@@ -17749,7 +19111,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>1280</v>
       </c>
@@ -17760,7 +19122,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>1281</v>
       </c>
@@ -17771,7 +19133,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1282</v>
       </c>
@@ -17782,7 +19144,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>1283</v>
       </c>
@@ -17793,7 +19155,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>1284</v>
       </c>
@@ -17804,7 +19166,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1285</v>
       </c>
@@ -17815,7 +19177,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1286</v>
       </c>
@@ -17826,7 +19188,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1287</v>
       </c>
@@ -17837,7 +19199,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1288</v>
       </c>
@@ -17848,7 +19210,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>1293</v>
       </c>
@@ -17859,7 +19221,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>1324</v>
       </c>
@@ -17867,7 +19229,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>1325</v>
       </c>
@@ -17875,7 +19237,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>1353</v>
       </c>
@@ -17883,7 +19245,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1354</v>
       </c>
@@ -17891,92 +19253,92 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" t="s">
         <v>1564</v>
       </c>
@@ -17984,36 +19346,36 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C39" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="H7" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="H21" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="H25" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="H31" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="H32" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="H41" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="H49" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="H52" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="H55" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="H56" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="H57" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="H73" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="H14" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="G32" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="G46" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="G48" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="G56" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="G62" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="G69" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="C39" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H7" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
+    <hyperlink ref="H21" r:id="rId13"/>
+    <hyperlink ref="H25" r:id="rId14"/>
+    <hyperlink ref="H31" r:id="rId15"/>
+    <hyperlink ref="H32" r:id="rId16"/>
+    <hyperlink ref="H41" r:id="rId17"/>
+    <hyperlink ref="H49" r:id="rId18"/>
+    <hyperlink ref="H52" r:id="rId19"/>
+    <hyperlink ref="H55" r:id="rId20"/>
+    <hyperlink ref="H56" r:id="rId21"/>
+    <hyperlink ref="H57" r:id="rId22"/>
+    <hyperlink ref="H73" r:id="rId23"/>
+    <hyperlink ref="H14" r:id="rId24"/>
+    <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G46" r:id="rId26"/>
+    <hyperlink ref="G48" r:id="rId27"/>
+    <hyperlink ref="G56" r:id="rId28"/>
+    <hyperlink ref="G62" r:id="rId29"/>
+    <hyperlink ref="G69" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
@@ -18021,7 +19383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18029,22 +19391,22 @@
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1529</v>
       </c>
@@ -18079,7 +19441,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1530</v>
       </c>
@@ -18114,7 +19476,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1531</v>
       </c>
@@ -18149,7 +19511,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1532</v>
       </c>
@@ -18184,7 +19546,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1533</v>
       </c>
@@ -18219,7 +19581,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1534</v>
       </c>
@@ -18254,7 +19616,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1535</v>
       </c>
@@ -18289,7 +19651,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1400</v>
       </c>
@@ -18324,7 +19686,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1536</v>
       </c>
@@ -18359,7 +19721,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1537</v>
       </c>
@@ -18394,7 +19756,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1539</v>
       </c>
@@ -18429,7 +19791,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1567</v>
       </c>
@@ -18464,7 +19826,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1603</v>
       </c>
@@ -18499,7 +19861,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1608</v>
       </c>
@@ -18534,7 +19896,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1623</v>
       </c>
@@ -18569,7 +19931,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1624</v>
       </c>
@@ -18604,7 +19966,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1638</v>
       </c>
@@ -18636,7 +19998,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1639</v>
       </c>
@@ -18668,7 +20030,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -18697,7 +20059,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1644</v>
       </c>
@@ -18726,7 +20088,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1653</v>
       </c>
@@ -18755,7 +20117,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1654</v>
       </c>
@@ -18784,7 +20146,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1655</v>
       </c>
@@ -18810,7 +20172,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1656</v>
       </c>
@@ -18836,7 +20198,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1658</v>
       </c>
@@ -18862,7 +20224,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1660</v>
       </c>
@@ -18885,7 +20247,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1673</v>
       </c>
@@ -18905,7 +20267,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1685</v>
       </c>
@@ -18925,7 +20287,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1695</v>
       </c>
@@ -18945,7 +20307,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1696</v>
       </c>
@@ -18965,7 +20327,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1697</v>
       </c>
@@ -18982,7 +20344,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1698</v>
       </c>
@@ -18999,7 +20361,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1699</v>
       </c>
@@ -19016,7 +20378,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1700</v>
       </c>
@@ -19033,7 +20395,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1701</v>
       </c>
@@ -19050,7 +20412,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1727</v>
       </c>
@@ -19067,7 +20429,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>1838</v>
       </c>
@@ -19075,7 +20437,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>1839</v>
       </c>
@@ -19083,7 +20445,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
         <v>1840</v>
       </c>
@@ -19091,7 +20453,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
         <v>1841</v>
       </c>
@@ -19099,312 +20461,312 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I45" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I48" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I49" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I53" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I56" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I58" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I60" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I65" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I67" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I68" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I69" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I70" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I71" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I73" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I74" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I75" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I77" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" t="s">
         <v>1936</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I97" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I99" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I101" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" t="s">
         <v>1992</v>
       </c>
@@ -19417,7 +20779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19425,21 +20787,21 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1864</v>
       </c>
@@ -19471,7 +20833,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1865</v>
       </c>
@@ -19503,7 +20865,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1866</v>
       </c>
@@ -19535,7 +20897,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1867</v>
       </c>
@@ -19567,7 +20929,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1868</v>
       </c>
@@ -19599,7 +20961,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1869</v>
       </c>
@@ -19631,7 +20993,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1870</v>
       </c>
@@ -19663,7 +21025,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
@@ -19695,7 +21057,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1872</v>
       </c>
@@ -19727,7 +21089,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1873</v>
       </c>
@@ -19759,7 +21121,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1874</v>
       </c>
@@ -19791,7 +21153,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1875</v>
       </c>
@@ -19823,7 +21185,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1876</v>
       </c>
@@ -19855,7 +21217,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1889</v>
       </c>
@@ -19887,7 +21249,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1890</v>
       </c>
@@ -19919,7 +21281,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1891</v>
       </c>
@@ -19951,7 +21313,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1892</v>
       </c>
@@ -19980,7 +21342,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1893</v>
       </c>
@@ -20009,7 +21371,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1894</v>
       </c>
@@ -20038,7 +21400,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1897</v>
       </c>
@@ -20067,7 +21429,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1898</v>
       </c>
@@ -20096,7 +21458,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1899</v>
       </c>
@@ -20125,7 +21487,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1900</v>
       </c>
@@ -20151,7 +21513,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1901</v>
       </c>
@@ -20177,7 +21539,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1903</v>
       </c>
@@ -20203,7 +21565,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1904</v>
       </c>
@@ -20223,7 +21585,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1905</v>
       </c>
@@ -20243,7 +21605,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1915</v>
       </c>
@@ -20263,7 +21625,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1916</v>
       </c>
@@ -20283,7 +21645,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1921</v>
       </c>
@@ -20303,7 +21665,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1925</v>
       </c>
@@ -20323,7 +21685,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1954</v>
       </c>
@@ -20343,7 +21705,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1962</v>
       </c>
@@ -20363,7 +21725,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1971</v>
       </c>
@@ -20383,7 +21745,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1974</v>
       </c>
@@ -20403,7 +21765,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1975</v>
       </c>
@@ -20423,7 +21785,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>1376</v>
       </c>
@@ -20440,7 +21802,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>1377</v>
       </c>
@@ -20454,7 +21816,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>2100</v>
       </c>
@@ -20465,7 +21827,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>2101</v>
       </c>
@@ -20476,7 +21838,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>2102</v>
       </c>
@@ -20487,7 +21849,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>2103</v>
       </c>
@@ -20498,7 +21860,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>2104</v>
       </c>
@@ -20506,7 +21868,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>2105</v>
       </c>
@@ -20514,7 +21876,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
         <v>2106</v>
       </c>
@@ -20522,7 +21884,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>2107</v>
       </c>
@@ -20530,7 +21892,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>2108</v>
       </c>
@@ -20538,7 +21900,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
         <v>2004</v>
       </c>
@@ -20546,7 +21908,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
         <v>2109</v>
       </c>
@@ -20554,7 +21916,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
         <v>2110</v>
       </c>
@@ -20562,7 +21924,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
         <v>2111</v>
       </c>
@@ -20570,7 +21932,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
         <v>2112</v>
       </c>
@@ -20578,7 +21940,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>2113</v>
       </c>
@@ -20586,7 +21948,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>2114</v>
       </c>
@@ -20594,7 +21956,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
         <v>2115</v>
       </c>
@@ -20602,7 +21964,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
         <v>2116</v>
       </c>
@@ -20610,7 +21972,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
         <v>2117</v>
       </c>
@@ -20618,7 +21980,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
         <v>2118</v>
       </c>
@@ -20626,7 +21988,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
         <v>2119</v>
       </c>
@@ -20634,7 +21996,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>2120</v>
       </c>
@@ -20642,7 +22004,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>2121</v>
       </c>
@@ -20650,7 +22012,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>2122</v>
       </c>
@@ -20658,7 +22020,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
         <v>2123</v>
       </c>
@@ -20666,7 +22028,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>2124</v>
       </c>
@@ -20674,7 +22036,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>2125</v>
       </c>
@@ -20682,7 +22044,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>2126</v>
       </c>
@@ -20690,7 +22052,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>2127</v>
       </c>
@@ -20698,7 +22060,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>2128</v>
       </c>
@@ -20706,487 +22068,487 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>2134</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G98" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G99" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G102" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
         <v>2164</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G107" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G111" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G112" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G113" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G114" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G115" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G117" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G118" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G119" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G120" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G121" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G122" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G124" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G127" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G131" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G134" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G136" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G138" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G139" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G142" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G143" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G144" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G145" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G146" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G147" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G148" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G149" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G150" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G151" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G152" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G153" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G154" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G155" t="s">
         <v>2215</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G156" t="s">
         <v>2216</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G157" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G158" t="s">
         <v>2218</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G159" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G160" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G161" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G162" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G163" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G164" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G165" t="s">
         <v>2225</v>
       </c>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="3102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="3180">
   <si>
     <t>synu_jwc@126.com</t>
   </si>
@@ -8683,10 +8683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医大四院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cmu4htjzx@126.com</t>
   </si>
   <si>
@@ -9780,6 +9776,295 @@
   </si>
   <si>
     <t>earbingbing@163.com</t>
+  </si>
+  <si>
+    <t>wangxiaobin@cancerhosp-ln-cmu.com</t>
+  </si>
+  <si>
+    <t>wangyongpeng1@medmail.com.cn</t>
+  </si>
+  <si>
+    <t>lwwcytt@sina.com</t>
+  </si>
+  <si>
+    <t>18900917336@163.com</t>
+  </si>
+  <si>
+    <t>tangyu516516@126.com</t>
+  </si>
+  <si>
+    <t>jianong@126.com</t>
+  </si>
+  <si>
+    <t>sunpx777@sina.com</t>
+  </si>
+  <si>
+    <t>shgn1975@163.com</t>
+  </si>
+  <si>
+    <t>498857876@qq.com</t>
+  </si>
+  <si>
+    <t>quyanli1977@163.com</t>
+  </si>
+  <si>
+    <t>poryqin@126.com</t>
+  </si>
+  <si>
+    <t>pzpy@163.com</t>
+  </si>
+  <si>
+    <t>2222@sina.com</t>
+  </si>
+  <si>
+    <t>luoyahong8888@hotmail.com</t>
+  </si>
+  <si>
+    <t>5059529868@sina.sohu.com</t>
+  </si>
+  <si>
+    <t>xhwgdpd@163.com</t>
+  </si>
+  <si>
+    <t>鞍钢总医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016546289@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15842071118@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaochen11@tom.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dxvip@dayi100.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangtaohong@wangkantong.com</t>
+  </si>
+  <si>
+    <t>yjyx1984@vip.163.com</t>
+  </si>
+  <si>
+    <t>gkwdjt@126.com</t>
+  </si>
+  <si>
+    <t>agldwsyjs@163.com</t>
+  </si>
+  <si>
+    <t>1602292034@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1711678494@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297436778@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asapii@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightzy@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114312497@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2760909201@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278778316@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402251804@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>649232647@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18332656@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>799414584@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl890419@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>734829424@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kqaswlz2002@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mazhuang@xdf.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yihang0471@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289562783@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45097258@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790993033@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836510161@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yang24xin@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872529831@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascjrpx@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congzhu_2004@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min2344@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wacgh@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16783556@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253594073@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>474764795@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939910573@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kzg201@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1633193415@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3020006070@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>372885390@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj00013531@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1344586370@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.yuhang@neusoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>songludi@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285022847@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>286245716@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>994751523@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpma_wz@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连医科附属二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanqun@dlmail.sina.com.cn</t>
+  </si>
+  <si>
+    <t>dy2yyybgs@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy2yxkjs@163.com</t>
+  </si>
+  <si>
+    <t>17709877557@163.com</t>
+  </si>
+  <si>
+    <t>shaoshujuan2014@163.com</t>
+  </si>
+  <si>
+    <t>dy2ydw@126.com</t>
+  </si>
+  <si>
+    <t>songqinglingfund@126.com</t>
+  </si>
+  <si>
+    <t>wj_810303@163.com</t>
+  </si>
+  <si>
+    <t>admission@dmu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>met@dmu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12750,10 +13035,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L164"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12761,15 +13046,15 @@
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="28.75" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="4" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>2724</v>
       </c>
@@ -12782,32 +13067,35 @@
       <c r="D1" s="8" t="s">
         <v>2752</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3087</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>2924</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="10" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>2923</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>2753</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2756</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>2913</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2916</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>3169</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2755</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2915</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2725</v>
       </c>
@@ -12818,34 +13106,37 @@
         <v>2750</v>
       </c>
       <c r="D2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="E2" t="s">
-        <v>3088</v>
+        <v>3118</v>
       </c>
       <c r="F2" t="s">
-        <v>2925</v>
+        <v>3087</v>
       </c>
       <c r="G2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H2" t="s">
         <v>2725</v>
       </c>
-      <c r="H2" t="s">
-        <v>2754</v>
-      </c>
       <c r="I2" t="s">
-        <v>2757</v>
+        <v>3170</v>
       </c>
       <c r="J2" t="s">
-        <v>2914</v>
+        <v>2756</v>
       </c>
       <c r="K2" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="L2" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2916</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2726</v>
       </c>
@@ -12856,28 +13147,34 @@
         <v>2751</v>
       </c>
       <c r="D3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="E3" t="s">
-        <v>3089</v>
+        <v>3119</v>
       </c>
       <c r="F3" t="s">
-        <v>2926</v>
+        <v>3088</v>
       </c>
       <c r="G3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H3" t="s">
         <v>2726</v>
       </c>
-      <c r="I3" t="s">
-        <v>2758</v>
+      <c r="I3" s="1" t="s">
+        <v>3171</v>
       </c>
       <c r="J3" t="s">
-        <v>2915</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2757</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2727</v>
       </c>
@@ -12885,28 +13182,34 @@
         <v>2735</v>
       </c>
       <c r="C4" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="J4" t="s">
         <v>2759</v>
       </c>
-      <c r="D4" t="s">
-        <v>2824</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3090</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2727</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2728</v>
       </c>
@@ -12914,25 +13217,31 @@
         <v>2736</v>
       </c>
       <c r="D5" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="E5" t="s">
-        <v>3091</v>
+        <v>3121</v>
       </c>
       <c r="F5" t="s">
-        <v>2928</v>
+        <v>3090</v>
       </c>
       <c r="G5" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H5" t="s">
         <v>2728</v>
       </c>
       <c r="I5" t="s">
-        <v>2761</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2729</v>
       </c>
@@ -12940,22 +13249,28 @@
         <v>2737</v>
       </c>
       <c r="D6" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="E6" t="s">
-        <v>3092</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2929</v>
+        <v>3122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3091</v>
       </c>
       <c r="G6" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H6" t="s">
         <v>2729</v>
       </c>
       <c r="I6" t="s">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3174</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2730</v>
       </c>
@@ -12963,22 +13278,28 @@
         <v>2738</v>
       </c>
       <c r="D7" t="s">
-        <v>2827</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3093</v>
+        <v>2826</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3123</v>
       </c>
       <c r="F7" t="s">
-        <v>2930</v>
+        <v>3092</v>
       </c>
       <c r="G7" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H7" t="s">
         <v>2730</v>
       </c>
       <c r="I7" t="s">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3175</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2731</v>
       </c>
@@ -12986,1051 +13307,1254 @@
         <v>2739</v>
       </c>
       <c r="D8" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="E8" t="s">
-        <v>3094</v>
+        <v>3124</v>
       </c>
       <c r="F8" t="s">
-        <v>2931</v>
+        <v>3093</v>
       </c>
       <c r="G8" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H8" t="s">
         <v>2731</v>
       </c>
       <c r="I8" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2740</v>
       </c>
       <c r="D9" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="E9" t="s">
-        <v>3095</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2932</v>
+        <v>3125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3094</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2931</v>
       </c>
       <c r="I9" t="s">
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2741</v>
       </c>
       <c r="D10" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="E10" t="s">
-        <v>3096</v>
+        <v>3126</v>
       </c>
       <c r="F10" t="s">
-        <v>2933</v>
+        <v>3095</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2932</v>
       </c>
       <c r="I10" t="s">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1977</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2742</v>
       </c>
       <c r="D11" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E11" t="s">
-        <v>3097</v>
+        <v>3127</v>
       </c>
       <c r="F11" t="s">
-        <v>2934</v>
+        <v>3096</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2933</v>
       </c>
       <c r="I11" t="s">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2743</v>
       </c>
       <c r="D12" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="E12" t="s">
-        <v>3098</v>
+        <v>3128</v>
       </c>
       <c r="F12" t="s">
+        <v>3097</v>
+      </c>
+      <c r="G12" t="s">
         <v>2725</v>
       </c>
       <c r="I12" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1298</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2744</v>
       </c>
       <c r="D13" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E13" t="s">
-        <v>3099</v>
+        <v>3129</v>
       </c>
       <c r="F13" t="s">
-        <v>2935</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3098</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2934</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2745</v>
       </c>
       <c r="D14" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="E14" t="s">
-        <v>3100</v>
+        <v>3130</v>
       </c>
       <c r="F14" t="s">
-        <v>2936</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3099</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2746</v>
       </c>
       <c r="D15" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="E15" t="s">
-        <v>3101</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="I15" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="J15" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2747</v>
       </c>
       <c r="D16" t="s">
-        <v>2878</v>
+        <v>2877</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3132</v>
       </c>
       <c r="F16" t="s">
-        <v>2938</v>
+        <v>3101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2937</v>
       </c>
       <c r="I16" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>1304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>2748</v>
       </c>
       <c r="D17" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>2879</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3103</v>
+      </c>
+      <c r="G18" t="s">
         <v>2939</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J18" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
         <v>2880</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G19" t="s">
         <v>2940</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J19" t="s">
         <v>2773</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>2881</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2941</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2774</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>1554</v>
       </c>
+      <c r="E20" t="s">
+        <v>3136</v>
+      </c>
       <c r="F20" t="s">
+        <v>3105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3106</v>
+      </c>
+      <c r="G21" t="s">
         <v>2942</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J21" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3107</v>
+      </c>
+      <c r="G22" t="s">
         <v>2943</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J22" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G23" t="s">
         <v>2944</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J23" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3109</v>
+      </c>
+      <c r="G24" t="s">
         <v>2945</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J24" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G25" t="s">
         <v>2946</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J25" t="s">
         <v>2779</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G26" t="s">
         <v>2947</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J26" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G27" t="s">
         <v>2948</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J27" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G28" t="s">
         <v>2949</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J28" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G29" t="s">
         <v>2950</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J29" t="s">
         <v>2783</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F29" s="1" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G30" t="s">
         <v>2951</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J30" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>3147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G31" t="s">
         <v>2952</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J31" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>3148</v>
+      </c>
+      <c r="G32" t="s">
         <v>2953</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J32" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F32" s="1" t="s">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G33" t="s">
         <v>2954</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J33" t="s">
         <v>2787</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G34" t="s">
         <v>2955</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J34" t="s">
         <v>2788</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>3151</v>
+      </c>
+      <c r="G35" t="s">
         <v>2956</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J35" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G36" t="s">
         <v>2957</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J36" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>3153</v>
+      </c>
+      <c r="G37" t="s">
         <v>2958</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J37" t="s">
         <v>2791</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G38" t="s">
         <v>2959</v>
       </c>
-      <c r="I37" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
+      <c r="J38" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G39" t="s">
         <v>2960</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J39" t="s">
         <v>2830</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G40" t="s">
         <v>2961</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J40" t="s">
         <v>2831</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G41" t="s">
         <v>2962</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J41" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G42" t="s">
         <v>2963</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J42" t="s">
         <v>2833</v>
       </c>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G43" t="s">
         <v>2964</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J43" t="s">
         <v>2834</v>
       </c>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G44" t="s">
         <v>2965</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J44" t="s">
         <v>2835</v>
       </c>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G45" t="s">
         <v>2966</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J45" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2967</v>
+      </c>
+      <c r="J46" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>2967</v>
-      </c>
-      <c r="I45" t="s">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>3163</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2968</v>
+      </c>
+      <c r="J47" t="s">
         <v>2838</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F46" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="I46" t="s">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2969</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>3165</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2970</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2971</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>3167</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J52" t="s">
         <v>2837</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
-        <v>2969</v>
-      </c>
-      <c r="I47" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>2970</v>
-      </c>
-      <c r="I48" t="s">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>2974</v>
+      </c>
+      <c r="J53" t="s">
         <v>2840</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>2971</v>
-      </c>
-      <c r="I49" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
-        <v>2972</v>
-      </c>
-      <c r="I50" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>2973</v>
-      </c>
-      <c r="I51" t="s">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>2974</v>
-      </c>
-      <c r="I52" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
         <v>2975</v>
       </c>
-      <c r="I53" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F54" s="1" t="s">
+      <c r="J54" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
         <v>2976</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
         <v>2977</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
         <v>2978</v>
       </c>
     </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F57" s="1" t="s">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>2979</v>
       </c>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
         <v>2980</v>
       </c>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
         <v>2981</v>
       </c>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
         <v>2982</v>
       </c>
     </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F61" s="1" t="s">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
         <v>2984</v>
       </c>
     </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
         <v>2985</v>
       </c>
     </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F64" t="s">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>2986</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
         <v>2987</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>2988</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" t="s">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
         <v>2990</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" t="s">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>2992</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="1" t="s">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="1" t="s">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
         <v>2994</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" t="s">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
         <v>2995</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
         <v>2996</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
         <v>2997</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
         <v>2998</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
         <v>3001</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
         <v>3002</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" t="s">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
         <v>3003</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
         <v>3004</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
         <v>3005</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" t="s">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
         <v>3006</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" t="s">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
         <v>3008</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" t="s">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
         <v>3009</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" t="s">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
         <v>3010</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="1" t="s">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
         <v>3012</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" t="s">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
         <v>3014</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F93" t="s">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" t="s">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
         <v>3016</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" t="s">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
         <v>3017</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" t="s">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
         <v>3018</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" t="s">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
         <v>3020</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F99" t="s">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
         <v>3021</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" t="s">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
         <v>3022</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F101" t="s">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
         <v>3023</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" t="s">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
         <v>3024</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="1" t="s">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>3025</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="1" t="s">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="1" t="s">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" t="s">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" t="s">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" t="s">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
         <v>3031</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" t="s">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
         <v>3032</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" t="s">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
         <v>3033</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="1" t="s">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
         <v>3034</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
         <v>3035</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" t="s">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" t="s">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
         <v>3037</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
         <v>3038</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" t="s">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
         <v>3039</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" t="s">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
         <v>3040</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" t="s">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
         <v>3042</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" t="s">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
         <v>3043</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" t="s">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" t="s">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" t="s">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>3046</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" t="s">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" t="s">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
         <v>3048</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F127" t="s">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
         <v>3050</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" t="s">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
         <v>3051</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" t="s">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
         <v>3052</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" t="s">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" t="s">
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
         <v>3054</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" t="s">
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
         <v>3055</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
         <v>3056</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" t="s">
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" t="s">
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
         <v>3058</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
         <v>3059</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" t="s">
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
         <v>3060</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" t="s">
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
         <v>3061</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
         <v>3062</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" t="s">
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
         <v>3063</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" t="s">
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
         <v>3064</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
         <v>3065</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" t="s">
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
         <v>3066</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" t="s">
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
         <v>3067</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" t="s">
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
         <v>3068</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" t="s">
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
         <v>3069</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" t="s">
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
         <v>3070</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F149" t="s">
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
         <v>3071</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" t="s">
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
         <v>3072</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F151" t="s">
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
         <v>3073</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
         <v>3074</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" t="s">
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
         <v>3075</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F154" s="1" t="s">
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
         <v>3076</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
         <v>3077</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F156" t="s">
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
         <v>3078</v>
       </c>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F157" t="s">
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
         <v>3079</v>
       </c>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
         <v>3080</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
         <v>3081</v>
       </c>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F160" t="s">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
         <v>3082</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
         <v>3083</v>
       </c>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F162" t="s">
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
         <v>3084</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F163" s="1" t="s">
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
         <v>3085</v>
-      </c>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
-        <v>3086</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I14" r:id="rId2"/>
-    <hyperlink ref="I20" r:id="rId3"/>
-    <hyperlink ref="I21" r:id="rId4"/>
-    <hyperlink ref="I22" r:id="rId5"/>
-    <hyperlink ref="I23" r:id="rId6"/>
-    <hyperlink ref="I24" r:id="rId7"/>
-    <hyperlink ref="I25" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="F9" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F17" r:id="rId12"/>
-    <hyperlink ref="F29" r:id="rId13"/>
-    <hyperlink ref="F32" r:id="rId14"/>
-    <hyperlink ref="F46" r:id="rId15"/>
-    <hyperlink ref="F54" r:id="rId16"/>
-    <hyperlink ref="F57" r:id="rId17"/>
-    <hyperlink ref="F61" r:id="rId18"/>
-    <hyperlink ref="F71" r:id="rId19"/>
-    <hyperlink ref="F72" r:id="rId20"/>
-    <hyperlink ref="F89" r:id="rId21"/>
-    <hyperlink ref="F103" r:id="rId22"/>
-    <hyperlink ref="F104" r:id="rId23"/>
-    <hyperlink ref="F106" r:id="rId24"/>
-    <hyperlink ref="F112" r:id="rId25"/>
-    <hyperlink ref="F154" r:id="rId26"/>
-    <hyperlink ref="F163" r:id="rId27"/>
-    <hyperlink ref="E7" r:id="rId28"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I13" r:id="rId2"/>
+    <hyperlink ref="I15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15535,7 +16059,7 @@
         <v>767</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -15567,7 +16091,7 @@
         <v>768</v>
       </c>
       <c r="J2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -15599,7 +16123,7 @@
         <v>771</v>
       </c>
       <c r="J3" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -15622,7 +16146,7 @@
         <v>764</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -15645,7 +16169,7 @@
         <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -15668,7 +16192,7 @@
         <v>772</v>
       </c>
       <c r="J6" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -15691,7 +16215,7 @@
         <v>773</v>
       </c>
       <c r="J7" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -15714,7 +16238,7 @@
         <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -15737,7 +16261,7 @@
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -15757,7 +16281,7 @@
         <v>755</v>
       </c>
       <c r="J10" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -15777,7 +16301,7 @@
         <v>756</v>
       </c>
       <c r="J11" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -15791,7 +16315,7 @@
         <v>690</v>
       </c>
       <c r="J12" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -15805,7 +16329,7 @@
         <v>691</v>
       </c>
       <c r="J13" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -15819,7 +16343,7 @@
         <v>740</v>
       </c>
       <c r="J14" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -15833,7 +16357,7 @@
         <v>741</v>
       </c>
       <c r="J15" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -15847,7 +16371,7 @@
         <v>742</v>
       </c>
       <c r="J16" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -15861,7 +16385,7 @@
         <v>745</v>
       </c>
       <c r="J17" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -15872,7 +16396,7 @@
         <v>746</v>
       </c>
       <c r="J18" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -15880,7 +16404,7 @@
         <v>701</v>
       </c>
       <c r="J19" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -15888,7 +16412,7 @@
         <v>702</v>
       </c>
       <c r="J20" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -15896,7 +16420,7 @@
         <v>703</v>
       </c>
       <c r="J21" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -15904,7 +16428,7 @@
         <v>704</v>
       </c>
       <c r="J22" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -15912,7 +16436,7 @@
         <v>705</v>
       </c>
       <c r="J23" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -15920,7 +16444,7 @@
         <v>706</v>
       </c>
       <c r="J24" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -15928,7 +16452,7 @@
         <v>707</v>
       </c>
       <c r="J25" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -15936,7 +16460,7 @@
         <v>708</v>
       </c>
       <c r="J26" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -15944,7 +16468,7 @@
         <v>709</v>
       </c>
       <c r="J27" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -15952,7 +16476,7 @@
         <v>710</v>
       </c>
       <c r="J28" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -15960,7 +16484,7 @@
         <v>711</v>
       </c>
       <c r="J29" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -15968,7 +16492,7 @@
         <v>712</v>
       </c>
       <c r="J30" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -15976,7 +16500,7 @@
         <v>713</v>
       </c>
       <c r="J31" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -15984,7 +16508,7 @@
         <v>714</v>
       </c>
       <c r="J32" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
@@ -15992,7 +16516,7 @@
         <v>715</v>
       </c>
       <c r="J33" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -16000,7 +16524,7 @@
         <v>716</v>
       </c>
       <c r="J34" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -16008,7 +16532,7 @@
         <v>717</v>
       </c>
       <c r="J35" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -16016,7 +16540,7 @@
         <v>718</v>
       </c>
       <c r="J36" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
@@ -16024,7 +16548,7 @@
         <v>719</v>
       </c>
       <c r="J37" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
@@ -16032,7 +16556,7 @@
         <v>720</v>
       </c>
       <c r="J38" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
@@ -16040,7 +16564,7 @@
         <v>721</v>
       </c>
       <c r="J39" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
@@ -16048,7 +16572,7 @@
         <v>722</v>
       </c>
       <c r="J40" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
@@ -16056,7 +16580,7 @@
         <v>723</v>
       </c>
       <c r="J41" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
@@ -16064,7 +16588,7 @@
         <v>724</v>
       </c>
       <c r="J42" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
@@ -16072,7 +16596,7 @@
         <v>725</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
@@ -16080,7 +16604,7 @@
         <v>726</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
@@ -16088,7 +16612,7 @@
         <v>727</v>
       </c>
       <c r="J45" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
@@ -16096,7 +16620,7 @@
         <v>728</v>
       </c>
       <c r="J46" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
@@ -16104,7 +16628,7 @@
         <v>729</v>
       </c>
       <c r="J47" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -16112,7 +16636,7 @@
         <v>730</v>
       </c>
       <c r="J48" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
@@ -16120,7 +16644,7 @@
         <v>731</v>
       </c>
       <c r="J49" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
@@ -16128,7 +16652,7 @@
         <v>732</v>
       </c>
       <c r="J50" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
@@ -16136,7 +16660,7 @@
         <v>733</v>
       </c>
       <c r="J51" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
@@ -16144,7 +16668,7 @@
         <v>734</v>
       </c>
       <c r="J52" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
@@ -16152,7 +16676,7 @@
         <v>735</v>
       </c>
       <c r="J53" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
@@ -16160,7 +16684,7 @@
         <v>736</v>
       </c>
       <c r="J54" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
@@ -16168,7 +16692,7 @@
         <v>737</v>
       </c>
       <c r="J55" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
@@ -16176,7 +16700,7 @@
         <v>738</v>
       </c>
       <c r="J56" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
@@ -16184,52 +16708,52 @@
         <v>739</v>
       </c>
       <c r="J57" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
   </sheetData>
@@ -16269,67 +16793,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2896</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2908</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2897</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C2" t="s">
         <v>2898</v>
       </c>
-      <c r="B2" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2899</v>
-      </c>
       <c r="D2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="C4" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C5" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
   </sheetData>
@@ -17271,7 +17795,7 @@
         <v>1127</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -17312,7 +17836,7 @@
         <v>1129</v>
       </c>
       <c r="M2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -17350,7 +17874,7 @@
         <v>1130</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -17385,7 +17909,7 @@
         <v>1131</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -17417,7 +17941,7 @@
         <v>1132</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -17449,7 +17973,7 @@
         <v>1133</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -17481,7 +18005,7 @@
         <v>1134</v>
       </c>
       <c r="M7" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -17513,7 +18037,7 @@
         <v>1135</v>
       </c>
       <c r="M8" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -17545,7 +18069,7 @@
         <v>1136</v>
       </c>
       <c r="M9" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -17577,7 +18101,7 @@
         <v>1137</v>
       </c>
       <c r="M10" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -17606,7 +18130,7 @@
         <v>1138</v>
       </c>
       <c r="M11" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -17635,7 +18159,7 @@
         <v>1139</v>
       </c>
       <c r="M12" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -17661,7 +18185,7 @@
         <v>1140</v>
       </c>
       <c r="M13" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -17687,7 +18211,7 @@
         <v>1141</v>
       </c>
       <c r="M14" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -17713,7 +18237,7 @@
         <v>1142</v>
       </c>
       <c r="M15" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -17739,7 +18263,7 @@
         <v>1143</v>
       </c>
       <c r="M16" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -17759,7 +18283,7 @@
         <v>1144</v>
       </c>
       <c r="M17" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -17776,7 +18300,7 @@
         <v>1145</v>
       </c>
       <c r="M18" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -17793,7 +18317,7 @@
         <v>1146</v>
       </c>
       <c r="M19" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
